--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF60DD4-E2F0-824A-AEAB-DE811F9ED608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED219B0-B056-D44A-A179-AE9DE000F64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
   <si>
     <t>Project</t>
   </si>
@@ -125,6 +129,9 @@
   </si>
   <si>
     <t>Alpha</t>
+  </si>
+  <si>
+    <t>Project Management Dashboard</t>
   </si>
 </sst>
 </file>
@@ -134,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,13 +156,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Britannic Bold"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -171,12 +189,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +248,68 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Copyright"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Workings"/>
+      <sheetName val="Data"/>
+      <sheetName val="Instructions"/>
+      <sheetName val="More Resources"/>
+      <sheetName val="Dashboard Protection"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>Not Started</v>
+          </cell>
+          <cell r="F2">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>In Progress</v>
+          </cell>
+          <cell r="F3">
+            <v>33</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Days Completed</v>
+          </cell>
+          <cell r="M3">
+            <v>0.42105263157894735</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>Completed</v>
+          </cell>
+          <cell r="F4">
+            <v>3</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>Days Remaining</v>
+          </cell>
+          <cell r="M4">
+            <v>0.57894736842105265</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,10 +631,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97670974-E5A2-664C-82DE-A6BD35D73425}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED219B0-B056-D44A-A179-AE9DE000F64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013083E3-B579-D94A-BACE-99C649767DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -205,6 +205,9 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
@@ -230,9 +233,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
@@ -321,15 +321,15 @@
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
     <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="4">
-      <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="0">
+      <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97670974-E5A2-664C-82DE-A6BD35D73425}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,8 +714,8 @@
         <v>5</v>
       </c>
       <c r="F2" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43882</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43884</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43885</v>
       </c>
       <c r="G3" s="3">
@@ -782,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43892</v>
       </c>
       <c r="G4" s="3">
@@ -816,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43894</v>
       </c>
       <c r="G5" s="3">
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43881</v>
       </c>
       <c r="G6" s="3">
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43888</v>
       </c>
       <c r="G7" s="3">
@@ -918,8 +918,8 @@
         <v>7</v>
       </c>
       <c r="F8" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -952,8 +952,8 @@
         <v>5</v>
       </c>
       <c r="F9" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43895</v>
       </c>
       <c r="G10" s="3">
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43892</v>
       </c>
       <c r="G11" s="3">
@@ -1054,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43887</v>
       </c>
       <c r="G12" s="3">
@@ -1088,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43888</v>
       </c>
       <c r="G13" s="3">
@@ -1122,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43888</v>
       </c>
       <c r="G14" s="3">
@@ -1156,8 +1156,8 @@
         <v>7</v>
       </c>
       <c r="F15" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1190,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43887</v>
       </c>
       <c r="G16" s="3">
@@ -1224,8 +1224,8 @@
         <v>6</v>
       </c>
       <c r="F17" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -1258,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43892</v>
       </c>
       <c r="G18" s="3">
@@ -1292,8 +1292,8 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -1326,8 +1326,8 @@
         <v>7</v>
       </c>
       <c r="F20" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43898</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
@@ -1360,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43880</v>
       </c>
       <c r="G21" s="3">
@@ -1394,8 +1394,8 @@
         <v>10</v>
       </c>
       <c r="F22" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
@@ -1428,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43888</v>
       </c>
       <c r="G23" s="3">
@@ -1462,7 +1462,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43893</v>
       </c>
       <c r="G24" s="3">
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43895</v>
       </c>
       <c r="G25" s="3">
@@ -1530,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43893</v>
       </c>
       <c r="G26" s="3">
@@ -1564,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43902</v>
       </c>
       <c r="G27" s="3">
@@ -1598,8 +1598,8 @@
         <v>10</v>
       </c>
       <c r="F28" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43903</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43905</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
@@ -1632,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43881</v>
       </c>
       <c r="G29" s="3">
@@ -1666,8 +1666,8 @@
         <v>8</v>
       </c>
       <c r="F30" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
@@ -1700,8 +1700,8 @@
         <v>10</v>
       </c>
       <c r="F31" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43898</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43893</v>
       </c>
       <c r="G32" s="3">
@@ -1768,8 +1768,8 @@
         <v>4</v>
       </c>
       <c r="F33" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43889</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43891</v>
       </c>
       <c r="G33" s="3">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43900</v>
       </c>
       <c r="G34" s="3">
@@ -1836,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43902</v>
       </c>
       <c r="G35" s="3">
@@ -1870,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43887</v>
       </c>
       <c r="G36" s="3">
@@ -1904,8 +1904,8 @@
         <v>3</v>
       </c>
       <c r="F37" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43882</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43884</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
@@ -1938,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43892</v>
       </c>
       <c r="G38" s="3">
@@ -1972,8 +1972,8 @@
         <v>10</v>
       </c>
       <c r="F39" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43898</v>
       </c>
       <c r="G39" s="3">
         <v>2</v>
@@ -2006,8 +2006,8 @@
         <v>10</v>
       </c>
       <c r="F40" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
-        <v>43896</v>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <v>43898</v>
       </c>
       <c r="G40" s="3">
         <v>3</v>
@@ -2040,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],1)</f>
+        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
         <v>43887</v>
       </c>
       <c r="G41" s="3">

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013083E3-B579-D94A-BACE-99C649767DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F259FF2-EEF0-8345-8C47-8A52D2D538D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,14 +708,14 @@
         <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43884</v>
+        <v>44615</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
@@ -742,14 +742,14 @@
         <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E3">
         <v>6</v>
       </c>
       <c r="F3" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
@@ -776,14 +776,14 @@
         <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>43879</v>
+        <v>44610</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43892</v>
+        <v>44623</v>
       </c>
       <c r="G4" s="3">
         <v>4</v>
@@ -810,14 +810,14 @@
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>43882</v>
+        <v>44613</v>
       </c>
       <c r="E5">
         <v>9</v>
       </c>
       <c r="F5" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43894</v>
+        <v>44623</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -844,14 +844,14 @@
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43881</v>
+        <v>44614</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
@@ -878,14 +878,14 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>43881</v>
+        <v>44612</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43888</v>
+        <v>44619</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -912,14 +912,14 @@
         <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>43881</v>
+        <v>44612</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44620</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -946,14 +946,14 @@
         <v>16</v>
       </c>
       <c r="D9" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44622</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
@@ -980,14 +980,14 @@
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43895</v>
+        <v>44628</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -1014,14 +1014,14 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43892</v>
+        <v>44623</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -1048,14 +1048,14 @@
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>43879</v>
+        <v>44610</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43887</v>
+        <v>44620</v>
       </c>
       <c r="G12" s="3">
         <v>7</v>
@@ -1082,14 +1082,14 @@
         <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
       <c r="F13" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43888</v>
+        <v>44621</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
@@ -1116,14 +1116,14 @@
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>43879</v>
+        <v>44610</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43888</v>
+        <v>44621</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1150,14 +1150,14 @@
         <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>43881</v>
+        <v>44612</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44620</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1184,14 +1184,14 @@
         <v>20</v>
       </c>
       <c r="D16" s="2">
-        <v>43882</v>
+        <v>44613</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43887</v>
+        <v>44616</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -1218,14 +1218,14 @@
         <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>43882</v>
+        <v>44613</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44620</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -1252,14 +1252,14 @@
         <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43892</v>
+        <v>44623</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
@@ -1286,14 +1286,14 @@
         <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>43886</v>
+        <v>44617</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44622</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
@@ -1320,14 +1320,14 @@
         <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>43888</v>
+        <v>44619</v>
       </c>
       <c r="E20">
         <v>7</v>
       </c>
       <c r="F20" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43898</v>
+        <v>44627</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
@@ -1354,14 +1354,14 @@
         <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43880</v>
+        <v>44613</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
@@ -1388,14 +1388,14 @@
         <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="F22" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44622</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
@@ -1422,14 +1422,14 @@
         <v>14</v>
       </c>
       <c r="D23" s="2">
-        <v>43882</v>
+        <v>44613</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43888</v>
+        <v>44619</v>
       </c>
       <c r="G23" s="3">
         <v>4</v>
@@ -1456,14 +1456,14 @@
         <v>16</v>
       </c>
       <c r="D24" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E24">
         <v>7</v>
       </c>
       <c r="F24" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43893</v>
+        <v>44626</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -1490,14 +1490,14 @@
         <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>43887</v>
+        <v>44618</v>
       </c>
       <c r="E25">
         <v>7</v>
       </c>
       <c r="F25" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43895</v>
+        <v>44627</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
@@ -1524,14 +1524,14 @@
         <v>20</v>
       </c>
       <c r="D26" s="2">
-        <v>43889</v>
+        <v>44620</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43893</v>
+        <v>44622</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
@@ -1558,14 +1558,14 @@
         <v>12</v>
       </c>
       <c r="D27" s="2">
-        <v>43892</v>
+        <v>44622</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43902</v>
+        <v>44634</v>
       </c>
       <c r="G27" s="3">
         <v>8</v>
@@ -1592,14 +1592,14 @@
         <v>14</v>
       </c>
       <c r="D28" s="2">
-        <v>43892</v>
+        <v>44622</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="F28" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43905</v>
+        <v>44635</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
@@ -1626,14 +1626,14 @@
         <v>16</v>
       </c>
       <c r="D29" s="2">
-        <v>43878</v>
+        <v>44609</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43881</v>
+        <v>44614</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1660,14 +1660,14 @@
         <v>18</v>
       </c>
       <c r="D30" s="2">
-        <v>43880</v>
+        <v>44611</v>
       </c>
       <c r="E30">
         <v>8</v>
       </c>
       <c r="F30" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44621</v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
@@ -1694,14 +1694,14 @@
         <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43898</v>
+        <v>44629</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
@@ -1728,14 +1728,14 @@
         <v>12</v>
       </c>
       <c r="D32" s="2">
-        <v>43886</v>
+        <v>44617</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43893</v>
+        <v>44626</v>
       </c>
       <c r="G32" s="3">
         <v>3</v>
@@ -1762,14 +1762,14 @@
         <v>14</v>
       </c>
       <c r="D33" s="2">
-        <v>43886</v>
+        <v>44617</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43891</v>
+        <v>44622</v>
       </c>
       <c r="G33" s="3">
         <v>2</v>
@@ -1796,14 +1796,14 @@
         <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>43889</v>
+        <v>44620</v>
       </c>
       <c r="E34">
         <v>8</v>
       </c>
       <c r="F34" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43900</v>
+        <v>44629</v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
@@ -1830,14 +1830,14 @@
         <v>18</v>
       </c>
       <c r="D35" s="2">
-        <v>43892</v>
+        <v>44622</v>
       </c>
       <c r="E35">
         <v>9</v>
       </c>
       <c r="F35" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43902</v>
+        <v>44634</v>
       </c>
       <c r="G35" s="3">
         <v>4</v>
@@ -1864,14 +1864,14 @@
         <v>20</v>
       </c>
       <c r="D36" s="2">
-        <v>43881</v>
+        <v>44612</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43887</v>
+        <v>44616</v>
       </c>
       <c r="G36" s="3">
         <v>3</v>
@@ -1898,14 +1898,14 @@
         <v>12</v>
       </c>
       <c r="D37" s="2">
-        <v>43880</v>
+        <v>44611</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43884</v>
+        <v>44614</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
@@ -1932,14 +1932,14 @@
         <v>14</v>
       </c>
       <c r="D38" s="2">
-        <v>43882</v>
+        <v>44613</v>
       </c>
       <c r="E38">
         <v>7</v>
       </c>
       <c r="F38" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43892</v>
+        <v>44621</v>
       </c>
       <c r="G38" s="3">
         <v>3</v>
@@ -1966,14 +1966,14 @@
         <v>16</v>
       </c>
       <c r="D39" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="F39" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43898</v>
+        <v>44629</v>
       </c>
       <c r="G39" s="3">
         <v>2</v>
@@ -2000,14 +2000,14 @@
         <v>18</v>
       </c>
       <c r="D40" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="F40" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43898</v>
+        <v>44629</v>
       </c>
       <c r="G40" s="3">
         <v>3</v>
@@ -2034,14 +2034,14 @@
         <v>20</v>
       </c>
       <c r="D41" s="2">
-        <v>43885</v>
+        <v>44616</v>
       </c>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41" s="2">
         <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
-        <v>43887</v>
+        <v>44620</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F259FF2-EEF0-8345-8C47-8A52D2D538D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E440C0E-11FB-2849-A77F-57D0F59BC6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0736C60-3115-3B4B-9BB9-B8998762F286}" name="Table1" displayName="Table1" ref="A1:J41" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0736C60-3115-3B4B-9BB9-B8998762F286}" name="Project_Data" displayName="Project_Data" ref="A1:J41" totalsRowShown="0">
   <autoFilter ref="A1:J41" xr:uid="{D0736C60-3115-3B4B-9BB9-B8998762F286}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
@@ -322,11 +322,11 @@
     <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
     <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="0">
-      <calculatedColumnFormula>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</calculatedColumnFormula>
+      <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="3">
-      <calculatedColumnFormula>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="1"/>
@@ -659,9 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97670974-E5A2-664C-82DE-A6BD35D73425}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -714,14 +712,14 @@
         <v>5</v>
       </c>
       <c r="F2" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44615</v>
       </c>
       <c r="G2" s="3">
         <v>2</v>
       </c>
       <c r="H2" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.4</v>
       </c>
       <c r="I2" s="3">
@@ -748,14 +746,14 @@
         <v>6</v>
       </c>
       <c r="F3" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44616</v>
       </c>
       <c r="G3" s="3">
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3">
@@ -782,14 +780,14 @@
         <v>10</v>
       </c>
       <c r="F4" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44623</v>
       </c>
       <c r="G4" s="3">
         <v>4</v>
       </c>
       <c r="H4" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.4</v>
       </c>
       <c r="I4" s="3">
@@ -816,14 +814,14 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44623</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I5" s="3">
@@ -850,14 +848,14 @@
         <v>4</v>
       </c>
       <c r="F6" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44614</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.25</v>
       </c>
       <c r="I6" s="3">
@@ -884,14 +882,14 @@
         <v>6</v>
       </c>
       <c r="F7" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44619</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
       <c r="I7" s="3">
@@ -918,14 +916,14 @@
         <v>7</v>
       </c>
       <c r="F8" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44620</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
       </c>
       <c r="H8" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="I8" s="3">
@@ -952,14 +950,14 @@
         <v>5</v>
       </c>
       <c r="F9" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44622</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.4</v>
       </c>
       <c r="I9" s="3">
@@ -986,14 +984,14 @@
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44628</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="I10" s="3">
@@ -1020,14 +1018,14 @@
         <v>6</v>
       </c>
       <c r="F11" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44623</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.5</v>
       </c>
       <c r="I11" s="3">
@@ -1054,14 +1052,14 @@
         <v>7</v>
       </c>
       <c r="F12" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44620</v>
       </c>
       <c r="G12" s="3">
         <v>7</v>
       </c>
       <c r="H12" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
       <c r="I12" s="3">
@@ -1088,14 +1086,14 @@
         <v>9</v>
       </c>
       <c r="F13" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44621</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
       </c>
       <c r="H13" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="I13" s="3">
@@ -1122,14 +1120,14 @@
         <v>8</v>
       </c>
       <c r="F14" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44621</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
       <c r="I14" s="3">
@@ -1156,14 +1154,14 @@
         <v>7</v>
       </c>
       <c r="F15" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44620</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="I15" s="3">
@@ -1190,14 +1188,14 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44616</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.25</v>
       </c>
       <c r="I16" s="3">
@@ -1224,14 +1222,14 @@
         <v>6</v>
       </c>
       <c r="F17" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44620</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
       </c>
       <c r="H17" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.5</v>
       </c>
       <c r="I17" s="3">
@@ -1258,14 +1256,14 @@
         <v>6</v>
       </c>
       <c r="F18" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44623</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="I18" s="3">
@@ -1292,14 +1290,14 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44622</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.25</v>
       </c>
       <c r="I19" s="3">
@@ -1326,14 +1324,14 @@
         <v>7</v>
       </c>
       <c r="F20" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44627</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
       </c>
       <c r="H20" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="I20" s="3">
@@ -1360,14 +1358,14 @@
         <v>3</v>
       </c>
       <c r="F21" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44613</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
       <c r="I21" s="3">
@@ -1394,14 +1392,14 @@
         <v>10</v>
       </c>
       <c r="F22" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44622</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.5</v>
       </c>
       <c r="I22" s="3">
@@ -1428,14 +1426,14 @@
         <v>5</v>
       </c>
       <c r="F23" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44619</v>
       </c>
       <c r="G23" s="3">
         <v>4</v>
       </c>
       <c r="H23" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.8</v>
       </c>
       <c r="I23" s="3">
@@ -1462,14 +1460,14 @@
         <v>7</v>
       </c>
       <c r="F24" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44626</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
       </c>
       <c r="H24" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="I24" s="3">
@@ -1496,14 +1494,14 @@
         <v>7</v>
       </c>
       <c r="F25" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44627</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="I25" s="3">
@@ -1530,14 +1528,14 @@
         <v>3</v>
       </c>
       <c r="F26" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44622</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
       </c>
       <c r="H26" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I26" s="3">
@@ -1564,14 +1562,14 @@
         <v>9</v>
       </c>
       <c r="F27" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44634</v>
       </c>
       <c r="G27" s="3">
         <v>8</v>
       </c>
       <c r="H27" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="I27" s="3">
@@ -1598,14 +1596,14 @@
         <v>10</v>
       </c>
       <c r="F28" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44635</v>
       </c>
       <c r="G28" s="3">
         <v>2</v>
       </c>
       <c r="H28" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.2</v>
       </c>
       <c r="I28" s="3">
@@ -1632,14 +1630,14 @@
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44614</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
       <c r="I29" s="3">
@@ -1666,14 +1664,14 @@
         <v>8</v>
       </c>
       <c r="F30" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44621</v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
       </c>
       <c r="H30" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.625</v>
       </c>
       <c r="I30" s="3">
@@ -1700,14 +1698,14 @@
         <v>10</v>
       </c>
       <c r="F31" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44629</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.3</v>
       </c>
       <c r="I31" s="3">
@@ -1734,14 +1732,14 @@
         <v>6</v>
       </c>
       <c r="F32" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44626</v>
       </c>
       <c r="G32" s="3">
         <v>3</v>
       </c>
       <c r="H32" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.5</v>
       </c>
       <c r="I32" s="3">
@@ -1768,14 +1766,14 @@
         <v>4</v>
       </c>
       <c r="F33" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44622</v>
       </c>
       <c r="G33" s="3">
         <v>2</v>
       </c>
       <c r="H33" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.5</v>
       </c>
       <c r="I33" s="3">
@@ -1802,14 +1800,14 @@
         <v>8</v>
       </c>
       <c r="F34" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44629</v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
       </c>
       <c r="H34" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.375</v>
       </c>
       <c r="I34" s="3">
@@ -1836,14 +1834,14 @@
         <v>9</v>
       </c>
       <c r="F35" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44634</v>
       </c>
       <c r="G35" s="3">
         <v>4</v>
       </c>
       <c r="H35" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="I35" s="3">
@@ -1870,14 +1868,14 @@
         <v>5</v>
       </c>
       <c r="F36" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44616</v>
       </c>
       <c r="G36" s="3">
         <v>3</v>
       </c>
       <c r="H36" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.6</v>
       </c>
       <c r="I36" s="3">
@@ -1904,14 +1902,14 @@
         <v>3</v>
       </c>
       <c r="F37" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44614</v>
       </c>
       <c r="G37" s="3">
         <v>3</v>
       </c>
       <c r="H37" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>1</v>
       </c>
       <c r="I37" s="3">
@@ -1938,14 +1936,14 @@
         <v>7</v>
       </c>
       <c r="F38" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44621</v>
       </c>
       <c r="G38" s="3">
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="I38" s="3">
@@ -1972,14 +1970,14 @@
         <v>10</v>
       </c>
       <c r="F39" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44629</v>
       </c>
       <c r="G39" s="3">
         <v>2</v>
       </c>
       <c r="H39" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.2</v>
       </c>
       <c r="I39" s="3">
@@ -2006,14 +2004,14 @@
         <v>10</v>
       </c>
       <c r="F40" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44629</v>
       </c>
       <c r="G40" s="3">
         <v>3</v>
       </c>
       <c r="H40" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0.3</v>
       </c>
       <c r="I40" s="3">
@@ -2040,14 +2038,14 @@
         <v>3</v>
       </c>
       <c r="F41" s="2">
-        <f>WORKDAY.INTL(Table1[[#This Row],[Start Date]]-1,Table1[[#This Row],[Duration]],7)</f>
+        <f>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</f>
         <v>44620</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f>Table1[[#This Row],[Days completed]]/Table1[[#This Row],[Duration]]</f>
+        <f>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</f>
         <v>0</v>
       </c>
       <c r="I41" s="3">

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E440C0E-11FB-2849-A77F-57D0F59BC6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A13B8-6703-DD4D-AC67-EA4DF7EE1CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="57">
   <si>
     <t>Project</t>
   </si>
@@ -133,6 +136,84 @@
   <si>
     <t>Project Management Dashboard</t>
   </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Sum of Budget</t>
+  </si>
+  <si>
+    <t>Sum of Actual</t>
+  </si>
+  <si>
+    <t>McFay Total</t>
+  </si>
+  <si>
+    <t>Task 1 Total</t>
+  </si>
+  <si>
+    <t>Wood Total</t>
+  </si>
+  <si>
+    <t>Task 2 Total</t>
+  </si>
+  <si>
+    <t>Ladd Total</t>
+  </si>
+  <si>
+    <t>Task 3 Total</t>
+  </si>
+  <si>
+    <t>Hirsch Total</t>
+  </si>
+  <si>
+    <t>Task 4 Total</t>
+  </si>
+  <si>
+    <t>Samora Total</t>
+  </si>
+  <si>
+    <t>Task 5 Total</t>
+  </si>
+  <si>
+    <t>Task 6 Total</t>
+  </si>
+  <si>
+    <t>Task 7 Total</t>
+  </si>
+  <si>
+    <t>Task 8 Total</t>
+  </si>
+  <si>
+    <t>Alpha Total</t>
+  </si>
+  <si>
+    <t>Delta Total</t>
+  </si>
+  <si>
+    <t>Task 10 Total</t>
+  </si>
+  <si>
+    <t>Task 9 Total</t>
+  </si>
+  <si>
+    <t>Gemini Total</t>
+  </si>
+  <si>
+    <t>Orion Total</t>
+  </si>
+  <si>
+    <t>Vega Total</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
 </sst>
 </file>
 
@@ -189,15 +270,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,6 +393,2022 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44908.969553587965" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{2388DAC6-428B-F049-9F8F-9E82D05B67B0}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Project_Data"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Project" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Gemini"/>
+        <s v="Orion"/>
+        <s v="Vega"/>
+        <s v="Delta"/>
+        <s v="Alpha"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Task" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Task 1"/>
+        <s v="Task 2"/>
+        <s v="Task 3"/>
+        <s v="Task 4"/>
+        <s v="Task 5"/>
+        <s v="Task 6"/>
+        <s v="Task 7"/>
+        <s v="Task 8"/>
+        <s v="Task 9"/>
+        <s v="Task 10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Manager" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Hirsch"/>
+        <s v="Samora"/>
+        <s v="McFay"/>
+        <s v="Wood"/>
+        <s v="Ladd"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Start Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-02-17T00:00:00" maxDate="2022-03-03T00:00:00" count="11">
+        <d v="2022-02-17T00:00:00"/>
+        <d v="2022-02-18T00:00:00"/>
+        <d v="2022-02-21T00:00:00"/>
+        <d v="2022-02-20T00:00:00"/>
+        <d v="2022-02-24T00:00:00"/>
+        <d v="2022-02-25T00:00:00"/>
+        <d v="2022-02-27T00:00:00"/>
+        <d v="2022-02-26T00:00:00"/>
+        <d v="2022-02-28T00:00:00"/>
+        <d v="2022-03-02T00:00:00"/>
+        <d v="2022-02-19T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Duration" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="10" count="8">
+        <n v="5"/>
+        <n v="6"/>
+        <n v="10"/>
+        <n v="9"/>
+        <n v="4"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="End Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-02-21T00:00:00" maxDate="2022-03-16T00:00:00" count="15">
+        <d v="2022-02-23T00:00:00"/>
+        <d v="2022-02-24T00:00:00"/>
+        <d v="2022-03-03T00:00:00"/>
+        <d v="2022-02-22T00:00:00"/>
+        <d v="2022-02-27T00:00:00"/>
+        <d v="2022-02-28T00:00:00"/>
+        <d v="2022-03-02T00:00:00"/>
+        <d v="2022-03-08T00:00:00"/>
+        <d v="2022-03-01T00:00:00"/>
+        <d v="2022-03-07T00:00:00"/>
+        <d v="2022-02-21T00:00:00"/>
+        <d v="2022-03-06T00:00:00"/>
+        <d v="2022-03-14T00:00:00"/>
+        <d v="2022-03-15T00:00:00"/>
+        <d v="2022-03-09T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="10" base="5">
+        <rangePr groupBy="days" startDate="2022-02-21T00:00:00" endDate="2022-03-16T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;21/2/22"/>
+          <s v="1-Jan"/>
+          <s v="2-Jan"/>
+          <s v="3-Jan"/>
+          <s v="4-Jan"/>
+          <s v="5-Jan"/>
+          <s v="6-Jan"/>
+          <s v="7-Jan"/>
+          <s v="8-Jan"/>
+          <s v="9-Jan"/>
+          <s v="10-Jan"/>
+          <s v="11-Jan"/>
+          <s v="12-Jan"/>
+          <s v="13-Jan"/>
+          <s v="14-Jan"/>
+          <s v="15-Jan"/>
+          <s v="16-Jan"/>
+          <s v="17-Jan"/>
+          <s v="18-Jan"/>
+          <s v="19-Jan"/>
+          <s v="20-Jan"/>
+          <s v="21-Jan"/>
+          <s v="22-Jan"/>
+          <s v="23-Jan"/>
+          <s v="24-Jan"/>
+          <s v="25-Jan"/>
+          <s v="26-Jan"/>
+          <s v="27-Jan"/>
+          <s v="28-Jan"/>
+          <s v="29-Jan"/>
+          <s v="30-Jan"/>
+          <s v="31-Jan"/>
+          <s v="1-Feb"/>
+          <s v="2-Feb"/>
+          <s v="3-Feb"/>
+          <s v="4-Feb"/>
+          <s v="5-Feb"/>
+          <s v="6-Feb"/>
+          <s v="7-Feb"/>
+          <s v="8-Feb"/>
+          <s v="9-Feb"/>
+          <s v="10-Feb"/>
+          <s v="11-Feb"/>
+          <s v="12-Feb"/>
+          <s v="13-Feb"/>
+          <s v="14-Feb"/>
+          <s v="15-Feb"/>
+          <s v="16-Feb"/>
+          <s v="17-Feb"/>
+          <s v="18-Feb"/>
+          <s v="19-Feb"/>
+          <s v="20-Feb"/>
+          <s v="21-Feb"/>
+          <s v="22-Feb"/>
+          <s v="23-Feb"/>
+          <s v="24-Feb"/>
+          <s v="25-Feb"/>
+          <s v="26-Feb"/>
+          <s v="27-Feb"/>
+          <s v="28-Feb"/>
+          <s v="29-Feb"/>
+          <s v="1-Mar"/>
+          <s v="2-Mar"/>
+          <s v="3-Mar"/>
+          <s v="4-Mar"/>
+          <s v="5-Mar"/>
+          <s v="6-Mar"/>
+          <s v="7-Mar"/>
+          <s v="8-Mar"/>
+          <s v="9-Mar"/>
+          <s v="10-Mar"/>
+          <s v="11-Mar"/>
+          <s v="12-Mar"/>
+          <s v="13-Mar"/>
+          <s v="14-Mar"/>
+          <s v="15-Mar"/>
+          <s v="16-Mar"/>
+          <s v="17-Mar"/>
+          <s v="18-Mar"/>
+          <s v="19-Mar"/>
+          <s v="20-Mar"/>
+          <s v="21-Mar"/>
+          <s v="22-Mar"/>
+          <s v="23-Mar"/>
+          <s v="24-Mar"/>
+          <s v="25-Mar"/>
+          <s v="26-Mar"/>
+          <s v="27-Mar"/>
+          <s v="28-Mar"/>
+          <s v="29-Mar"/>
+          <s v="30-Mar"/>
+          <s v="31-Mar"/>
+          <s v="1-Apr"/>
+          <s v="2-Apr"/>
+          <s v="3-Apr"/>
+          <s v="4-Apr"/>
+          <s v="5-Apr"/>
+          <s v="6-Apr"/>
+          <s v="7-Apr"/>
+          <s v="8-Apr"/>
+          <s v="9-Apr"/>
+          <s v="10-Apr"/>
+          <s v="11-Apr"/>
+          <s v="12-Apr"/>
+          <s v="13-Apr"/>
+          <s v="14-Apr"/>
+          <s v="15-Apr"/>
+          <s v="16-Apr"/>
+          <s v="17-Apr"/>
+          <s v="18-Apr"/>
+          <s v="19-Apr"/>
+          <s v="20-Apr"/>
+          <s v="21-Apr"/>
+          <s v="22-Apr"/>
+          <s v="23-Apr"/>
+          <s v="24-Apr"/>
+          <s v="25-Apr"/>
+          <s v="26-Apr"/>
+          <s v="27-Apr"/>
+          <s v="28-Apr"/>
+          <s v="29-Apr"/>
+          <s v="30-Apr"/>
+          <s v="1-May"/>
+          <s v="2-May"/>
+          <s v="3-May"/>
+          <s v="4-May"/>
+          <s v="5-May"/>
+          <s v="6-May"/>
+          <s v="7-May"/>
+          <s v="8-May"/>
+          <s v="9-May"/>
+          <s v="10-May"/>
+          <s v="11-May"/>
+          <s v="12-May"/>
+          <s v="13-May"/>
+          <s v="14-May"/>
+          <s v="15-May"/>
+          <s v="16-May"/>
+          <s v="17-May"/>
+          <s v="18-May"/>
+          <s v="19-May"/>
+          <s v="20-May"/>
+          <s v="21-May"/>
+          <s v="22-May"/>
+          <s v="23-May"/>
+          <s v="24-May"/>
+          <s v="25-May"/>
+          <s v="26-May"/>
+          <s v="27-May"/>
+          <s v="28-May"/>
+          <s v="29-May"/>
+          <s v="30-May"/>
+          <s v="31-May"/>
+          <s v="1-Jun"/>
+          <s v="2-Jun"/>
+          <s v="3-Jun"/>
+          <s v="4-Jun"/>
+          <s v="5-Jun"/>
+          <s v="6-Jun"/>
+          <s v="7-Jun"/>
+          <s v="8-Jun"/>
+          <s v="9-Jun"/>
+          <s v="10-Jun"/>
+          <s v="11-Jun"/>
+          <s v="12-Jun"/>
+          <s v="13-Jun"/>
+          <s v="14-Jun"/>
+          <s v="15-Jun"/>
+          <s v="16-Jun"/>
+          <s v="17-Jun"/>
+          <s v="18-Jun"/>
+          <s v="19-Jun"/>
+          <s v="20-Jun"/>
+          <s v="21-Jun"/>
+          <s v="22-Jun"/>
+          <s v="23-Jun"/>
+          <s v="24-Jun"/>
+          <s v="25-Jun"/>
+          <s v="26-Jun"/>
+          <s v="27-Jun"/>
+          <s v="28-Jun"/>
+          <s v="29-Jun"/>
+          <s v="30-Jun"/>
+          <s v="1-Jul"/>
+          <s v="2-Jul"/>
+          <s v="3-Jul"/>
+          <s v="4-Jul"/>
+          <s v="5-Jul"/>
+          <s v="6-Jul"/>
+          <s v="7-Jul"/>
+          <s v="8-Jul"/>
+          <s v="9-Jul"/>
+          <s v="10-Jul"/>
+          <s v="11-Jul"/>
+          <s v="12-Jul"/>
+          <s v="13-Jul"/>
+          <s v="14-Jul"/>
+          <s v="15-Jul"/>
+          <s v="16-Jul"/>
+          <s v="17-Jul"/>
+          <s v="18-Jul"/>
+          <s v="19-Jul"/>
+          <s v="20-Jul"/>
+          <s v="21-Jul"/>
+          <s v="22-Jul"/>
+          <s v="23-Jul"/>
+          <s v="24-Jul"/>
+          <s v="25-Jul"/>
+          <s v="26-Jul"/>
+          <s v="27-Jul"/>
+          <s v="28-Jul"/>
+          <s v="29-Jul"/>
+          <s v="30-Jul"/>
+          <s v="31-Jul"/>
+          <s v="1-Aug"/>
+          <s v="2-Aug"/>
+          <s v="3-Aug"/>
+          <s v="4-Aug"/>
+          <s v="5-Aug"/>
+          <s v="6-Aug"/>
+          <s v="7-Aug"/>
+          <s v="8-Aug"/>
+          <s v="9-Aug"/>
+          <s v="10-Aug"/>
+          <s v="11-Aug"/>
+          <s v="12-Aug"/>
+          <s v="13-Aug"/>
+          <s v="14-Aug"/>
+          <s v="15-Aug"/>
+          <s v="16-Aug"/>
+          <s v="17-Aug"/>
+          <s v="18-Aug"/>
+          <s v="19-Aug"/>
+          <s v="20-Aug"/>
+          <s v="21-Aug"/>
+          <s v="22-Aug"/>
+          <s v="23-Aug"/>
+          <s v="24-Aug"/>
+          <s v="25-Aug"/>
+          <s v="26-Aug"/>
+          <s v="27-Aug"/>
+          <s v="28-Aug"/>
+          <s v="29-Aug"/>
+          <s v="30-Aug"/>
+          <s v="31-Aug"/>
+          <s v="1-Sep"/>
+          <s v="2-Sep"/>
+          <s v="3-Sep"/>
+          <s v="4-Sep"/>
+          <s v="5-Sep"/>
+          <s v="6-Sep"/>
+          <s v="7-Sep"/>
+          <s v="8-Sep"/>
+          <s v="9-Sep"/>
+          <s v="10-Sep"/>
+          <s v="11-Sep"/>
+          <s v="12-Sep"/>
+          <s v="13-Sep"/>
+          <s v="14-Sep"/>
+          <s v="15-Sep"/>
+          <s v="16-Sep"/>
+          <s v="17-Sep"/>
+          <s v="18-Sep"/>
+          <s v="19-Sep"/>
+          <s v="20-Sep"/>
+          <s v="21-Sep"/>
+          <s v="22-Sep"/>
+          <s v="23-Sep"/>
+          <s v="24-Sep"/>
+          <s v="25-Sep"/>
+          <s v="26-Sep"/>
+          <s v="27-Sep"/>
+          <s v="28-Sep"/>
+          <s v="29-Sep"/>
+          <s v="30-Sep"/>
+          <s v="1-Oct"/>
+          <s v="2-Oct"/>
+          <s v="3-Oct"/>
+          <s v="4-Oct"/>
+          <s v="5-Oct"/>
+          <s v="6-Oct"/>
+          <s v="7-Oct"/>
+          <s v="8-Oct"/>
+          <s v="9-Oct"/>
+          <s v="10-Oct"/>
+          <s v="11-Oct"/>
+          <s v="12-Oct"/>
+          <s v="13-Oct"/>
+          <s v="14-Oct"/>
+          <s v="15-Oct"/>
+          <s v="16-Oct"/>
+          <s v="17-Oct"/>
+          <s v="18-Oct"/>
+          <s v="19-Oct"/>
+          <s v="20-Oct"/>
+          <s v="21-Oct"/>
+          <s v="22-Oct"/>
+          <s v="23-Oct"/>
+          <s v="24-Oct"/>
+          <s v="25-Oct"/>
+          <s v="26-Oct"/>
+          <s v="27-Oct"/>
+          <s v="28-Oct"/>
+          <s v="29-Oct"/>
+          <s v="30-Oct"/>
+          <s v="31-Oct"/>
+          <s v="1-Nov"/>
+          <s v="2-Nov"/>
+          <s v="3-Nov"/>
+          <s v="4-Nov"/>
+          <s v="5-Nov"/>
+          <s v="6-Nov"/>
+          <s v="7-Nov"/>
+          <s v="8-Nov"/>
+          <s v="9-Nov"/>
+          <s v="10-Nov"/>
+          <s v="11-Nov"/>
+          <s v="12-Nov"/>
+          <s v="13-Nov"/>
+          <s v="14-Nov"/>
+          <s v="15-Nov"/>
+          <s v="16-Nov"/>
+          <s v="17-Nov"/>
+          <s v="18-Nov"/>
+          <s v="19-Nov"/>
+          <s v="20-Nov"/>
+          <s v="21-Nov"/>
+          <s v="22-Nov"/>
+          <s v="23-Nov"/>
+          <s v="24-Nov"/>
+          <s v="25-Nov"/>
+          <s v="26-Nov"/>
+          <s v="27-Nov"/>
+          <s v="28-Nov"/>
+          <s v="29-Nov"/>
+          <s v="30-Nov"/>
+          <s v="1-Dec"/>
+          <s v="2-Dec"/>
+          <s v="3-Dec"/>
+          <s v="4-Dec"/>
+          <s v="5-Dec"/>
+          <s v="6-Dec"/>
+          <s v="7-Dec"/>
+          <s v="8-Dec"/>
+          <s v="9-Dec"/>
+          <s v="10-Dec"/>
+          <s v="11-Dec"/>
+          <s v="12-Dec"/>
+          <s v="13-Dec"/>
+          <s v="14-Dec"/>
+          <s v="15-Dec"/>
+          <s v="16-Dec"/>
+          <s v="17-Dec"/>
+          <s v="18-Dec"/>
+          <s v="19-Dec"/>
+          <s v="20-Dec"/>
+          <s v="21-Dec"/>
+          <s v="22-Dec"/>
+          <s v="23-Dec"/>
+          <s v="24-Dec"/>
+          <s v="25-Dec"/>
+          <s v="26-Dec"/>
+          <s v="27-Dec"/>
+          <s v="28-Dec"/>
+          <s v="29-Dec"/>
+          <s v="30-Dec"/>
+          <s v="31-Dec"/>
+          <s v="&gt;16/3/22"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Days completed" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8" count="8">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="1"/>
+        <n v="0"/>
+        <n v="7"/>
+        <n v="5"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Progress" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1" count="19">
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.33333333333333331"/>
+        <n v="0.25"/>
+        <n v="0"/>
+        <n v="0.42857142857142855"/>
+        <n v="0.1111111111111111"/>
+        <n v="1"/>
+        <n v="0.44444444444444442"/>
+        <n v="0.83333333333333337"/>
+        <n v="0.8"/>
+        <n v="0.2857142857142857"/>
+        <n v="0.66666666666666663"/>
+        <n v="0.88888888888888884"/>
+        <n v="0.2"/>
+        <n v="0.625"/>
+        <n v="0.3"/>
+        <n v="0.375"/>
+        <n v="0.6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Budget" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50000" maxValue="990000"/>
+    </cacheField>
+    <cacheField name="Actual" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="807069"/>
+    </cacheField>
+    <cacheField name="Months" numFmtId="0" databaseField="0">
+      <fieldGroup base="5">
+        <rangePr groupBy="months" startDate="2022-02-21T00:00:00" endDate="2022-03-16T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;21/2/22"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sep"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;16/3/22"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="218000"/>
+    <n v="97337"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="393000"/>
+    <n v="177440"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="86000"/>
+    <n v="31046"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="732000"/>
+    <n v="261324"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="492000"/>
+    <n v="116850"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="188000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="180000"/>
+    <n v="79380"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="582000"/>
+    <n v="195231"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="562000"/>
+    <n v="74746"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="416000"/>
+    <n v="175015"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="293000"/>
+    <n v="273001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="224000"/>
+    <n v="57910"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="978000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="932000"/>
+    <n v="379157"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="854000"/>
+    <n v="322812"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="81000"/>
+    <n v="38461"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="9"/>
+    <n v="169000"/>
+    <n v="136468"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="61000"/>
+    <n v="12078"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="645000"/>
+    <n v="273048"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="68000"/>
+    <n v="64987"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="839000"/>
+    <n v="406974"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="729000"/>
+    <n v="487139"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="826000"/>
+    <n v="298186"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="895000"/>
+    <n v="280583"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="341000"/>
+    <n v="129785"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="7"/>
+    <x v="13"/>
+    <n v="787000"/>
+    <n v="727188"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="228000"/>
+    <n v="47880"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="147000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="15"/>
+    <n v="338000"/>
+    <n v="205123"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="857000"/>
+    <n v="305949"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="602000"/>
+    <n v="322371"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="990000"/>
+    <n v="451440"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="96000"/>
+    <n v="32256"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="513000"/>
+    <n v="226233"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="616000"/>
+    <n v="401579"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="817000"/>
+    <n v="807069"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="372000"/>
+    <n v="173166"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="50000"/>
+    <n v="8400"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="807000"/>
+    <n v="262679"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="691000"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A5:K131" firstHeaderRow="0" firstDataRow="1" firstDataCol="9"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" numFmtId="9" outline="0" showAll="0">
+      <items count="20">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="9">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+    <field x="10"/>
+    <field x="3"/>
+    <field x="5"/>
+    <field x="4"/>
+    <field x="6"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="126">
+    <i>
+      <x/>
+      <x/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="8"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="7"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="9"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+      <x/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="4"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="9"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x/>
+    </i>
+    <i t="default" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i t="default" r="2">
+      <x v="3"/>
+    </i>
+    <i t="default" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="2"/>
+    </i>
+    <i t="default" r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="4"/>
+    </i>
+    <i t="default" r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i t="default" r="2">
+      <x v="1"/>
+    </i>
+    <i t="default" r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Budget" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Actual" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,21 +2731,1703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="7">
+        <v>96000</v>
+      </c>
+      <c r="K6" s="7">
+        <v>32256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="7">
+        <v>96000</v>
+      </c>
+      <c r="K7" s="7">
+        <v>32256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7">
+        <v>96000</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="7">
+        <v>513000</v>
+      </c>
+      <c r="K9" s="7">
+        <v>226233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="7">
+        <v>513000</v>
+      </c>
+      <c r="K10" s="7">
+        <v>226233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="7">
+        <v>513000</v>
+      </c>
+      <c r="K11" s="7">
+        <v>226233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="7">
+        <v>616000</v>
+      </c>
+      <c r="K12" s="7">
+        <v>401579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="7">
+        <v>616000</v>
+      </c>
+      <c r="K13" s="7">
+        <v>401579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="7">
+        <v>616000</v>
+      </c>
+      <c r="K14" s="7">
+        <v>401579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="7">
+        <v>817000</v>
+      </c>
+      <c r="K15" s="7">
+        <v>807069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="7">
+        <v>817000</v>
+      </c>
+      <c r="K16" s="7">
+        <v>807069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="7">
+        <v>817000</v>
+      </c>
+      <c r="K17" s="7">
+        <v>807069</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="7">
+        <v>372000</v>
+      </c>
+      <c r="K18" s="7">
+        <v>173166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="7">
+        <v>372000</v>
+      </c>
+      <c r="K19" s="7">
+        <v>173166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="7">
+        <v>372000</v>
+      </c>
+      <c r="K20" s="7">
+        <v>173166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="7">
+        <v>50000</v>
+      </c>
+      <c r="K21" s="7">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="7">
+        <v>50000</v>
+      </c>
+      <c r="K22" s="7">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="7">
+        <v>50000</v>
+      </c>
+      <c r="K23" s="7">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="7">
+        <v>807000</v>
+      </c>
+      <c r="K24" s="7">
+        <v>262679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="7">
+        <v>807000</v>
+      </c>
+      <c r="K25" s="7">
+        <v>262679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" s="7">
+        <v>807000</v>
+      </c>
+      <c r="K26" s="7">
+        <v>262679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="7">
+        <v>691000</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="7">
+        <v>691000</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7">
+        <v>691000</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="7">
+        <v>3962000</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1911382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="7">
+        <v>787000</v>
+      </c>
+      <c r="K31" s="7">
+        <v>727188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="7">
+        <v>787000</v>
+      </c>
+      <c r="K32" s="7">
+        <v>727188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="7">
+        <v>787000</v>
+      </c>
+      <c r="K33" s="7">
+        <v>727188</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="7">
+        <v>228000</v>
+      </c>
+      <c r="K34" s="7">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="7">
+        <v>228000</v>
+      </c>
+      <c r="K35" s="7">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="7">
+        <v>228000</v>
+      </c>
+      <c r="K36" s="7">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="7">
+        <v>147000</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="7">
+        <v>147000</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="7">
+        <v>147000</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="7">
+        <v>338000</v>
+      </c>
+      <c r="K40" s="7">
+        <v>205123</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="7">
+        <v>338000</v>
+      </c>
+      <c r="K41" s="7">
+        <v>205123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="7">
+        <v>338000</v>
+      </c>
+      <c r="K42" s="7">
+        <v>205123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="7">
+        <v>857000</v>
+      </c>
+      <c r="K43" s="7">
+        <v>305949</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="7">
+        <v>857000</v>
+      </c>
+      <c r="K44" s="7">
+        <v>305949</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="7">
+        <v>857000</v>
+      </c>
+      <c r="K45" s="7">
+        <v>305949</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="7">
+        <v>602000</v>
+      </c>
+      <c r="K46" s="7">
+        <v>322371</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="7">
+        <v>602000</v>
+      </c>
+      <c r="K47" s="7">
+        <v>322371</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="7">
+        <v>602000</v>
+      </c>
+      <c r="K48" s="7">
+        <v>322371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="7">
+        <v>990000</v>
+      </c>
+      <c r="K49" s="7">
+        <v>451440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="7">
+        <v>990000</v>
+      </c>
+      <c r="K50" s="7">
+        <v>451440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="7">
+        <v>990000</v>
+      </c>
+      <c r="K51" s="7">
+        <v>451440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" s="7">
+        <v>3949000</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2059951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="7">
+        <v>218000</v>
+      </c>
+      <c r="K53" s="7">
+        <v>97337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="7">
+        <v>218000</v>
+      </c>
+      <c r="K54" s="7">
+        <v>97337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="7">
+        <v>218000</v>
+      </c>
+      <c r="K55" s="7">
+        <v>97337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="7">
+        <v>416000</v>
+      </c>
+      <c r="K56" s="7">
+        <v>175015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="7">
+        <v>416000</v>
+      </c>
+      <c r="K57" s="7">
+        <v>175015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" s="7">
+        <v>416000</v>
+      </c>
+      <c r="K58" s="7">
+        <v>175015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="7">
+        <v>393000</v>
+      </c>
+      <c r="K59" s="7">
+        <v>177440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="7">
+        <v>393000</v>
+      </c>
+      <c r="K60" s="7">
+        <v>177440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="7">
+        <v>393000</v>
+      </c>
+      <c r="K61" s="7">
+        <v>177440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="7">
+        <v>86000</v>
+      </c>
+      <c r="K62" s="7">
+        <v>31046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="7">
+        <v>86000</v>
+      </c>
+      <c r="K63" s="7">
+        <v>31046</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="7">
+        <v>86000</v>
+      </c>
+      <c r="K64" s="7">
+        <v>31046</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="7">
+        <v>732000</v>
+      </c>
+      <c r="K65" s="7">
+        <v>261324</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="7">
+        <v>732000</v>
+      </c>
+      <c r="K66" s="7">
+        <v>261324</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" s="7">
+        <v>732000</v>
+      </c>
+      <c r="K67" s="7">
+        <v>261324</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" s="7">
+        <v>492000</v>
+      </c>
+      <c r="K68" s="7">
+        <v>116850</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="7">
+        <v>492000</v>
+      </c>
+      <c r="K69" s="7">
+        <v>116850</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70" s="7">
+        <v>492000</v>
+      </c>
+      <c r="K70" s="7">
+        <v>116850</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" s="7">
+        <v>188000</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="7">
+        <v>188000</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" s="7">
+        <v>188000</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="7">
+        <v>180000</v>
+      </c>
+      <c r="K74" s="7">
+        <v>79380</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="J75" s="7">
+        <v>180000</v>
+      </c>
+      <c r="K75" s="7">
+        <v>79380</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="J76" s="7">
+        <v>180000</v>
+      </c>
+      <c r="K76" s="7">
+        <v>79380</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="7">
+        <v>582000</v>
+      </c>
+      <c r="K77" s="7">
+        <v>195231</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="7">
+        <v>582000</v>
+      </c>
+      <c r="K78" s="7">
+        <v>195231</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="7">
+        <v>582000</v>
+      </c>
+      <c r="K79" s="7">
+        <v>195231</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="7">
+        <v>562000</v>
+      </c>
+      <c r="K80" s="7">
+        <v>74746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" s="7">
+        <v>562000</v>
+      </c>
+      <c r="K81" s="7">
+        <v>74746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="J82" s="7">
+        <v>562000</v>
+      </c>
+      <c r="K82" s="7">
+        <v>74746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="J83" s="7">
+        <v>3849000</v>
+      </c>
+      <c r="K83" s="7">
+        <v>1208369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" s="7">
+        <v>293000</v>
+      </c>
+      <c r="K84" s="7">
+        <v>273001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" s="7">
+        <v>293000</v>
+      </c>
+      <c r="K85" s="7">
+        <v>273001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="J86" s="7">
+        <v>293000</v>
+      </c>
+      <c r="K86" s="7">
+        <v>273001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" s="7">
+        <v>68000</v>
+      </c>
+      <c r="K87" s="7">
+        <v>64987</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="7">
+        <v>68000</v>
+      </c>
+      <c r="K88" s="7">
+        <v>64987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89" s="7">
+        <v>68000</v>
+      </c>
+      <c r="K89" s="7">
+        <v>64987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="7">
+        <v>224000</v>
+      </c>
+      <c r="K90" s="7">
+        <v>57910</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="J91" s="7">
+        <v>224000</v>
+      </c>
+      <c r="K91" s="7">
+        <v>57910</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="J92" s="7">
+        <v>224000</v>
+      </c>
+      <c r="K92" s="7">
+        <v>57910</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="7">
+        <v>978000</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="J94" s="7">
+        <v>978000</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="7">
+        <v>978000</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" s="7">
+        <v>932000</v>
+      </c>
+      <c r="K96" s="7">
+        <v>379157</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="J97" s="7">
+        <v>932000</v>
+      </c>
+      <c r="K97" s="7">
+        <v>379157</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="J98" s="7">
+        <v>932000</v>
+      </c>
+      <c r="K98" s="7">
+        <v>379157</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" s="7">
+        <v>854000</v>
+      </c>
+      <c r="K99" s="7">
+        <v>322812</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" s="7">
+        <v>854000</v>
+      </c>
+      <c r="K100" s="7">
+        <v>322812</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="7">
+        <v>854000</v>
+      </c>
+      <c r="K101" s="7">
+        <v>322812</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" s="7">
+        <v>81000</v>
+      </c>
+      <c r="K102" s="7">
+        <v>38461</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="J103" s="7">
+        <v>81000</v>
+      </c>
+      <c r="K103" s="7">
+        <v>38461</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" s="7">
+        <v>81000</v>
+      </c>
+      <c r="K104" s="7">
+        <v>38461</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+      <c r="J105" s="7">
+        <v>169000</v>
+      </c>
+      <c r="K105" s="7">
+        <v>136468</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J106" s="7">
+        <v>169000</v>
+      </c>
+      <c r="K106" s="7">
+        <v>136468</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>47</v>
+      </c>
+      <c r="J107" s="7">
+        <v>169000</v>
+      </c>
+      <c r="K107" s="7">
+        <v>136468</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+      <c r="J108" s="7">
+        <v>61000</v>
+      </c>
+      <c r="K108" s="7">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="J109" s="7">
+        <v>61000</v>
+      </c>
+      <c r="K109" s="7">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" s="7">
+        <v>61000</v>
+      </c>
+      <c r="K110" s="7">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="J111" s="7">
+        <v>645000</v>
+      </c>
+      <c r="K111" s="7">
+        <v>273048</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="J112" s="7">
+        <v>645000</v>
+      </c>
+      <c r="K112" s="7">
+        <v>273048</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="J113" s="7">
+        <v>645000</v>
+      </c>
+      <c r="K113" s="7">
+        <v>273048</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>54</v>
+      </c>
+      <c r="J114" s="7">
+        <v>4305000</v>
+      </c>
+      <c r="K114" s="7">
+        <v>1557922</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" s="7">
+        <v>839000</v>
+      </c>
+      <c r="K115" s="7">
+        <v>406974</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+      <c r="J116" s="7">
+        <v>839000</v>
+      </c>
+      <c r="K116" s="7">
+        <v>406974</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="J117" s="7">
+        <v>839000</v>
+      </c>
+      <c r="K117" s="7">
+        <v>406974</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118" s="7">
+        <v>729000</v>
+      </c>
+      <c r="K118" s="7">
+        <v>487139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>44</v>
+      </c>
+      <c r="J119" s="7">
+        <v>729000</v>
+      </c>
+      <c r="K119" s="7">
+        <v>487139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>39</v>
+      </c>
+      <c r="J120" s="7">
+        <v>729000</v>
+      </c>
+      <c r="K120" s="7">
+        <v>487139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="J121" s="7">
+        <v>826000</v>
+      </c>
+      <c r="K121" s="7">
+        <v>298186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>36</v>
+      </c>
+      <c r="J122" s="7">
+        <v>826000</v>
+      </c>
+      <c r="K122" s="7">
+        <v>298186</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="7">
+        <v>826000</v>
+      </c>
+      <c r="K123" s="7">
+        <v>298186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+      <c r="J124" s="7">
+        <v>895000</v>
+      </c>
+      <c r="K124" s="7">
+        <v>280583</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+      <c r="J125" s="7">
+        <v>895000</v>
+      </c>
+      <c r="K125" s="7">
+        <v>280583</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="J126" s="7">
+        <v>895000</v>
+      </c>
+      <c r="K126" s="7">
+        <v>280583</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>32</v>
+      </c>
+      <c r="J127" s="7">
+        <v>341000</v>
+      </c>
+      <c r="K127" s="7">
+        <v>129785</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" s="7">
+        <v>341000</v>
+      </c>
+      <c r="K128" s="7">
+        <v>129785</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>45</v>
+      </c>
+      <c r="J129" s="7">
+        <v>341000</v>
+      </c>
+      <c r="K129" s="7">
+        <v>129785</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>55</v>
+      </c>
+      <c r="J130" s="7">
+        <v>3630000</v>
+      </c>
+      <c r="K130" s="7">
+        <v>1602667</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="7">
+        <v>19695000</v>
+      </c>
+      <c r="K131" s="7">
+        <v>8340291</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD3"/>
@@ -659,7 +4440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97670974-E5A2-664C-82DE-A6BD35D73425}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2A13B8-6703-DD4D-AC67-EA4DF7EE1CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D179F-0D14-D244-ACD9-85A1ED68AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="37">
   <si>
     <t>Project</t>
   </si>
@@ -150,66 +150,6 @@
   </si>
   <si>
     <t>Sum of Actual</t>
-  </si>
-  <si>
-    <t>McFay Total</t>
-  </si>
-  <si>
-    <t>Task 1 Total</t>
-  </si>
-  <si>
-    <t>Wood Total</t>
-  </si>
-  <si>
-    <t>Task 2 Total</t>
-  </si>
-  <si>
-    <t>Ladd Total</t>
-  </si>
-  <si>
-    <t>Task 3 Total</t>
-  </si>
-  <si>
-    <t>Hirsch Total</t>
-  </si>
-  <si>
-    <t>Task 4 Total</t>
-  </si>
-  <si>
-    <t>Samora Total</t>
-  </si>
-  <si>
-    <t>Task 5 Total</t>
-  </si>
-  <si>
-    <t>Task 6 Total</t>
-  </si>
-  <si>
-    <t>Task 7 Total</t>
-  </si>
-  <si>
-    <t>Task 8 Total</t>
-  </si>
-  <si>
-    <t>Alpha Total</t>
-  </si>
-  <si>
-    <t>Delta Total</t>
-  </si>
-  <si>
-    <t>Task 10 Total</t>
-  </si>
-  <si>
-    <t>Task 9 Total</t>
-  </si>
-  <si>
-    <t>Gemini Total</t>
-  </si>
-  <si>
-    <t>Orion Total</t>
-  </si>
-  <si>
-    <t>Vega Total</t>
   </si>
   <si>
     <t>Months</t>
@@ -1409,21 +1349,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A5:K131" firstHeaderRow="0" firstDataRow="1" firstDataCol="9"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A5:K46" firstHeaderRow="0" firstDataRow="1" firstDataCol="9"/>
   <pivotFields count="11">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
         <item x="4"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
         <item x="0"/>
         <item x="9"/>
         <item x="1"/>
@@ -1434,21 +1373,19 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
         <item x="0"/>
         <item x="4"/>
         <item x="2"/>
         <item x="1"/>
         <item x="3"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
-      <items count="12">
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="10"/>
@@ -1460,11 +1397,10 @@
         <item x="6"/>
         <item x="8"/>
         <item x="9"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="9">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
         <item x="7"/>
         <item x="4"/>
         <item x="0"/>
@@ -1473,11 +1409,10 @@
         <item x="6"/>
         <item x="3"/>
         <item x="2"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
-      <items count="369">
+    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="368">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1846,11 +1781,10 @@
         <item x="365"/>
         <item x="366"/>
         <item x="367"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0">
-      <items count="9">
+    <pivotField axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
         <item x="4"/>
         <item x="3"/>
         <item x="0"/>
@@ -1859,11 +1793,10 @@
         <item x="6"/>
         <item x="5"/>
         <item x="7"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" numFmtId="9" outline="0" showAll="0">
-      <items count="20">
+    <pivotField axis="axisRow" compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="19">
         <item x="4"/>
         <item x="6"/>
         <item x="14"/>
@@ -1883,13 +1816,12 @@
         <item x="9"/>
         <item x="13"/>
         <item x="7"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="15">
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -1904,7 +1836,6 @@
         <item sd="0" x="11"/>
         <item sd="0" x="12"/>
         <item sd="0" x="13"/>
-        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -1919,98 +1850,47 @@
     <field x="6"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="126">
+  <rowItems count="41">
     <i>
       <x/>
       <x/>
       <x v="2"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="2"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
     <i r="1">
       <x v="2"/>
       <x v="4"/>
       <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
       <x v="1"/>
       <x v="2"/>
     </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="3"/>
-    </i>
     <i r="1">
       <x v="4"/>
       <x/>
       <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
     </i>
     <i r="1">
       <x v="5"/>
       <x v="3"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="5"/>
-    </i>
     <i r="1">
       <x v="6"/>
       <x v="2"/>
       <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="2"/>
-    </i>
-    <i t="default" r="1">
-      <x v="6"/>
     </i>
     <i r="1">
       <x v="7"/>
       <x v="4"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="7"/>
-    </i>
     <i r="1">
       <x v="8"/>
       <x v="1"/>
       <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="8"/>
-    </i>
-    <i t="default">
-      <x/>
     </i>
     <i>
       <x v="1"/>
@@ -2018,32 +1898,55 @@
       <x/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
     <i r="1">
       <x v="2"/>
       <x v="3"/>
       <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
       <x v="2"/>
       <x v="2"/>
     </i>
-    <i t="default" r="2">
+    <i r="1">
+      <x v="4"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x/>
       <x v="2"/>
     </i>
-    <i t="default" r="1">
+    <i r="1">
+      <x v="1"/>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+      <x v="2"/>
       <x v="3"/>
     </i>
     <i r="1">
@@ -2051,161 +1954,30 @@
       <x v="4"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-      <x/>
-      <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="1"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="2"/>
-    </i>
-    <i t="default" r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
     <i r="1">
       <x v="5"/>
       <x v="1"/>
       <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="5"/>
     </i>
     <i r="1">
       <x v="6"/>
       <x/>
       <x v="2"/>
     </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="6"/>
-    </i>
     <i r="1">
       <x v="7"/>
       <x v="3"/>
       <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="7"/>
     </i>
     <i r="1">
       <x v="8"/>
       <x v="2"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="2"/>
-    </i>
-    <i t="default" r="1">
-      <x v="8"/>
-    </i>
     <i r="1">
       <x v="9"/>
       <x v="4"/>
       <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -2213,43 +1985,19 @@
       <x/>
       <x v="2"/>
     </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
     <i r="1">
       <x v="1"/>
       <x v="1"/>
       <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
       <x v="3"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
     <i r="1">
       <x v="3"/>
       <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="2"/>
-    </i>
-    <i t="default" r="1">
       <x v="3"/>
     </i>
     <i r="1">
@@ -2257,68 +2005,29 @@
       <x v="4"/>
       <x v="2"/>
     </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
     <i r="1">
       <x v="5"/>
       <x v="1"/>
       <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="5"/>
     </i>
     <i r="1">
       <x v="6"/>
       <x/>
       <x v="2"/>
     </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x v="6"/>
-    </i>
     <i r="1">
       <x v="7"/>
       <x v="3"/>
       <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="7"/>
     </i>
     <i r="1">
       <x v="8"/>
       <x v="2"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="2"/>
-    </i>
-    <i t="default" r="1">
-      <x v="8"/>
-    </i>
     <i r="1">
       <x v="9"/>
       <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="9"/>
-    </i>
-    <i t="default">
       <x v="3"/>
     </i>
     <i>
@@ -2327,21 +2036,9 @@
       <x/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x/>
-    </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
     <i r="1">
       <x v="2"/>
       <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i t="default" r="2">
-      <x v="3"/>
-    </i>
-    <i t="default" r="1">
       <x v="2"/>
     </i>
     <i r="1">
@@ -2349,36 +2046,15 @@
       <x v="2"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="2"/>
-    </i>
-    <i t="default" r="1">
-      <x v="3"/>
-    </i>
     <i r="1">
       <x v="4"/>
       <x v="4"/>
       <x v="3"/>
     </i>
-    <i t="default" r="2">
-      <x v="4"/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
     <i r="1">
       <x v="5"/>
       <x v="1"/>
       <x v="3"/>
-    </i>
-    <i t="default" r="2">
-      <x v="1"/>
-    </i>
-    <i t="default" r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -2405,7 +2081,7 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2731,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2763,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
@@ -2808,142 +2484,193 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
       </c>
       <c r="J7" s="7">
-        <v>96000</v>
+        <v>513000</v>
       </c>
       <c r="K7" s="7">
-        <v>32256</v>
+        <v>226233</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
       </c>
       <c r="J8" s="7">
-        <v>96000</v>
+        <v>616000</v>
       </c>
       <c r="K8" s="7">
-        <v>32256</v>
+        <v>401579</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="7">
+        <v>817000</v>
+      </c>
+      <c r="K9" s="7">
+        <v>807069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="7">
-        <v>513000</v>
-      </c>
-      <c r="K9" s="7">
-        <v>226233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
       <c r="J10" s="7">
-        <v>513000</v>
+        <v>372000</v>
       </c>
       <c r="K10" s="7">
-        <v>226233</v>
+        <v>173166</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
       </c>
       <c r="J11" s="7">
-        <v>513000</v>
+        <v>50000</v>
       </c>
       <c r="K11" s="7">
-        <v>226233</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="7">
+        <v>807000</v>
+      </c>
+      <c r="K12" s="7">
+        <v>262679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="7">
-        <v>616000</v>
-      </c>
-      <c r="K12" s="7">
-        <v>401579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
       <c r="J13" s="7">
-        <v>616000</v>
+        <v>691000</v>
       </c>
       <c r="K13" s="7">
-        <v>401579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
       </c>
       <c r="J14" s="7">
-        <v>616000</v>
+        <v>787000</v>
       </c>
       <c r="K14" s="7">
-        <v>401579</v>
+        <v>727188</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="7">
+        <v>228000</v>
+      </c>
+      <c r="K15" s="7">
+        <v>47880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="7">
-        <v>817000</v>
-      </c>
-      <c r="K15" s="7">
-        <v>807069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
       <c r="J16" s="7">
-        <v>817000</v>
+        <v>147000</v>
       </c>
       <c r="K16" s="7">
-        <v>807069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
       </c>
       <c r="J17" s="7">
-        <v>817000</v>
+        <v>338000</v>
       </c>
       <c r="K17" s="7">
-        <v>807069</v>
+        <v>205123</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -2951,171 +2678,228 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
       <c r="J18" s="7">
-        <v>372000</v>
+        <v>857000</v>
       </c>
       <c r="K18" s="7">
-        <v>173166</v>
+        <v>305949</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
       </c>
       <c r="J19" s="7">
-        <v>372000</v>
+        <v>602000</v>
       </c>
       <c r="K19" s="7">
-        <v>173166</v>
+        <v>322371</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
       </c>
       <c r="J20" s="7">
-        <v>372000</v>
+        <v>990000</v>
       </c>
       <c r="K20" s="7">
-        <v>173166</v>
+        <v>451440</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="7">
+        <v>218000</v>
+      </c>
+      <c r="K21" s="7">
+        <v>97337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="7">
-        <v>50000</v>
-      </c>
-      <c r="K21" s="7">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
       <c r="J22" s="7">
-        <v>50000</v>
+        <v>416000</v>
       </c>
       <c r="K22" s="7">
-        <v>8400</v>
+        <v>175015</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
       </c>
       <c r="J23" s="7">
-        <v>50000</v>
+        <v>393000</v>
       </c>
       <c r="K23" s="7">
-        <v>8400</v>
+        <v>177440</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
       <c r="J24" s="7">
-        <v>807000</v>
+        <v>86000</v>
       </c>
       <c r="K24" s="7">
-        <v>262679</v>
+        <v>31046</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
       </c>
       <c r="J25" s="7">
-        <v>807000</v>
+        <v>732000</v>
       </c>
       <c r="K25" s="7">
-        <v>262679</v>
+        <v>261324</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
       </c>
       <c r="J26" s="7">
-        <v>807000</v>
+        <v>492000</v>
       </c>
       <c r="K26" s="7">
-        <v>262679</v>
+        <v>116850</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
       <c r="J27" s="7">
-        <v>691000</v>
+        <v>188000</v>
       </c>
       <c r="K27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
       </c>
       <c r="J28" s="7">
-        <v>691000</v>
+        <v>180000</v>
       </c>
       <c r="K28" s="7">
-        <v>0</v>
+        <v>79380</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
       </c>
       <c r="J29" s="7">
-        <v>691000</v>
+        <v>582000</v>
       </c>
       <c r="K29" s="7">
-        <v>0</v>
+        <v>195231</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>49</v>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
       </c>
       <c r="J30" s="7">
-        <v>3962000</v>
+        <v>562000</v>
       </c>
       <c r="K30" s="7">
-        <v>1911382</v>
+        <v>74746</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -3124,118 +2908,154 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="7">
+        <v>293000</v>
+      </c>
+      <c r="K31" s="7">
+        <v>273001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="7">
+        <v>68000</v>
+      </c>
+      <c r="K32" s="7">
+        <v>64987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="J31" s="7">
-        <v>787000</v>
-      </c>
-      <c r="K31" s="7">
-        <v>727188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="7">
-        <v>787000</v>
-      </c>
-      <c r="K32" s="7">
-        <v>727188</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
       <c r="J33" s="7">
-        <v>787000</v>
+        <v>224000</v>
       </c>
       <c r="K33" s="7">
-        <v>727188</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+        <v>57910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
       </c>
       <c r="J34" s="7">
-        <v>228000</v>
+        <v>978000</v>
       </c>
       <c r="K34" s="7">
-        <v>47880</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
       </c>
       <c r="J35" s="7">
-        <v>228000</v>
+        <v>932000</v>
       </c>
       <c r="K35" s="7">
-        <v>47880</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+        <v>379157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
       </c>
       <c r="J36" s="7">
-        <v>228000</v>
+        <v>854000</v>
       </c>
       <c r="K36" s="7">
-        <v>47880</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+        <v>322812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
       <c r="J37" s="7">
-        <v>147000</v>
+        <v>81000</v>
       </c>
       <c r="K37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+        <v>38461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
       </c>
       <c r="J38" s="7">
-        <v>147000</v>
+        <v>169000</v>
       </c>
       <c r="K38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+        <v>136468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
       </c>
       <c r="J39" s="7">
-        <v>147000</v>
+        <v>61000</v>
       </c>
       <c r="K39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3244,1187 +3064,108 @@
         <v>32</v>
       </c>
       <c r="J40" s="7">
-        <v>338000</v>
+        <v>645000</v>
       </c>
       <c r="K40" s="7">
-        <v>205123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+        <v>273048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
       </c>
       <c r="J41" s="7">
-        <v>338000</v>
+        <v>839000</v>
       </c>
       <c r="K41" s="7">
-        <v>205123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+        <v>406974</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
       </c>
       <c r="J42" s="7">
-        <v>338000</v>
+        <v>729000</v>
       </c>
       <c r="K42" s="7">
-        <v>205123</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+        <v>487139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>32</v>
       </c>
       <c r="J43" s="7">
-        <v>857000</v>
+        <v>826000</v>
       </c>
       <c r="K43" s="7">
-        <v>305949</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+        <v>298186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
       </c>
       <c r="J44" s="7">
-        <v>857000</v>
+        <v>895000</v>
       </c>
       <c r="K44" s="7">
-        <v>305949</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+        <v>280583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
       </c>
       <c r="J45" s="7">
-        <v>857000</v>
+        <v>341000</v>
       </c>
       <c r="K45" s="7">
-        <v>305949</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
+        <v>129785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>31</v>
       </c>
       <c r="J46" s="7">
-        <v>602000</v>
+        <v>19695000</v>
       </c>
       <c r="K46" s="7">
-        <v>322371</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="7">
-        <v>602000</v>
-      </c>
-      <c r="K47" s="7">
-        <v>322371</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="7">
-        <v>602000</v>
-      </c>
-      <c r="K48" s="7">
-        <v>322371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="7">
-        <v>990000</v>
-      </c>
-      <c r="K49" s="7">
-        <v>451440</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-      <c r="J50" s="7">
-        <v>990000</v>
-      </c>
-      <c r="K50" s="7">
-        <v>451440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="J51" s="7">
-        <v>990000</v>
-      </c>
-      <c r="K51" s="7">
-        <v>451440</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="J52" s="7">
-        <v>3949000</v>
-      </c>
-      <c r="K52" s="7">
-        <v>2059951</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" s="7">
-        <v>218000</v>
-      </c>
-      <c r="K53" s="7">
-        <v>97337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>42</v>
-      </c>
-      <c r="J54" s="7">
-        <v>218000</v>
-      </c>
-      <c r="K54" s="7">
-        <v>97337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="7">
-        <v>218000</v>
-      </c>
-      <c r="K55" s="7">
-        <v>97337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="7">
-        <v>416000</v>
-      </c>
-      <c r="K56" s="7">
-        <v>175015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="J57" s="7">
-        <v>416000</v>
-      </c>
-      <c r="K57" s="7">
-        <v>175015</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" s="7">
-        <v>416000</v>
-      </c>
-      <c r="K58" s="7">
-        <v>175015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>33</v>
-      </c>
-      <c r="J59" s="7">
-        <v>393000</v>
-      </c>
-      <c r="K59" s="7">
-        <v>177440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>44</v>
-      </c>
-      <c r="J60" s="7">
-        <v>393000</v>
-      </c>
-      <c r="K60" s="7">
-        <v>177440</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>39</v>
-      </c>
-      <c r="J61" s="7">
-        <v>393000</v>
-      </c>
-      <c r="K61" s="7">
-        <v>177440</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J62" s="7">
-        <v>86000</v>
-      </c>
-      <c r="K62" s="7">
-        <v>31046</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>36</v>
-      </c>
-      <c r="J63" s="7">
-        <v>86000</v>
-      </c>
-      <c r="K63" s="7">
-        <v>31046</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="J64" s="7">
-        <v>86000</v>
-      </c>
-      <c r="K64" s="7">
-        <v>31046</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="7">
-        <v>732000</v>
-      </c>
-      <c r="K65" s="7">
-        <v>261324</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J66" s="7">
-        <v>732000</v>
-      </c>
-      <c r="K66" s="7">
-        <v>261324</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>43</v>
-      </c>
-      <c r="J67" s="7">
-        <v>732000</v>
-      </c>
-      <c r="K67" s="7">
-        <v>261324</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" t="s">
-        <v>33</v>
-      </c>
-      <c r="J68" s="7">
-        <v>492000</v>
-      </c>
-      <c r="K68" s="7">
-        <v>116850</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" s="7">
-        <v>492000</v>
-      </c>
-      <c r="K69" s="7">
-        <v>116850</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="J70" s="7">
-        <v>492000</v>
-      </c>
-      <c r="K70" s="7">
-        <v>116850</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
-      </c>
-      <c r="J71" s="7">
-        <v>188000</v>
-      </c>
-      <c r="K71" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" s="7">
-        <v>188000</v>
-      </c>
-      <c r="K72" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-      <c r="J73" s="7">
-        <v>188000</v>
-      </c>
-      <c r="K73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" t="s">
-        <v>33</v>
-      </c>
-      <c r="J74" s="7">
-        <v>180000</v>
-      </c>
-      <c r="K74" s="7">
-        <v>79380</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>44</v>
-      </c>
-      <c r="J75" s="7">
-        <v>180000</v>
-      </c>
-      <c r="K75" s="7">
-        <v>79380</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>47</v>
-      </c>
-      <c r="J76" s="7">
-        <v>180000</v>
-      </c>
-      <c r="K76" s="7">
-        <v>79380</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="7">
-        <v>582000</v>
-      </c>
-      <c r="K77" s="7">
-        <v>195231</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>36</v>
-      </c>
-      <c r="J78" s="7">
-        <v>582000</v>
-      </c>
-      <c r="K78" s="7">
-        <v>195231</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>48</v>
-      </c>
-      <c r="J79" s="7">
-        <v>582000</v>
-      </c>
-      <c r="K79" s="7">
-        <v>195231</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="7">
-        <v>562000</v>
-      </c>
-      <c r="K80" s="7">
-        <v>74746</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J81" s="7">
-        <v>562000</v>
-      </c>
-      <c r="K81" s="7">
-        <v>74746</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>52</v>
-      </c>
-      <c r="J82" s="7">
-        <v>562000</v>
-      </c>
-      <c r="K82" s="7">
-        <v>74746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>53</v>
-      </c>
-      <c r="J83" s="7">
-        <v>3849000</v>
-      </c>
-      <c r="K83" s="7">
-        <v>1208369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" t="s">
-        <v>33</v>
-      </c>
-      <c r="J84" s="7">
-        <v>293000</v>
-      </c>
-      <c r="K84" s="7">
-        <v>273001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>42</v>
-      </c>
-      <c r="J85" s="7">
-        <v>293000</v>
-      </c>
-      <c r="K85" s="7">
-        <v>273001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>37</v>
-      </c>
-      <c r="J86" s="7">
-        <v>293000</v>
-      </c>
-      <c r="K86" s="7">
-        <v>273001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J87" s="7">
-        <v>68000</v>
-      </c>
-      <c r="K87" s="7">
-        <v>64987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="7">
-        <v>68000</v>
-      </c>
-      <c r="K88" s="7">
-        <v>64987</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>51</v>
-      </c>
-      <c r="J89" s="7">
-        <v>68000</v>
-      </c>
-      <c r="K89" s="7">
-        <v>64987</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" t="s">
-        <v>32</v>
-      </c>
-      <c r="J90" s="7">
-        <v>224000</v>
-      </c>
-      <c r="K90" s="7">
-        <v>57910</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
-        <v>44</v>
-      </c>
-      <c r="J91" s="7">
-        <v>224000</v>
-      </c>
-      <c r="K91" s="7">
-        <v>57910</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>39</v>
-      </c>
-      <c r="J92" s="7">
-        <v>224000</v>
-      </c>
-      <c r="K92" s="7">
-        <v>57910</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" t="s">
-        <v>32</v>
-      </c>
-      <c r="J93" s="7">
-        <v>978000</v>
-      </c>
-      <c r="K93" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>36</v>
-      </c>
-      <c r="J94" s="7">
-        <v>978000</v>
-      </c>
-      <c r="K94" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>41</v>
-      </c>
-      <c r="J95" s="7">
-        <v>978000</v>
-      </c>
-      <c r="K95" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" t="s">
-        <v>33</v>
-      </c>
-      <c r="J96" s="7">
-        <v>932000</v>
-      </c>
-      <c r="K96" s="7">
-        <v>379157</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>38</v>
-      </c>
-      <c r="J97" s="7">
-        <v>932000</v>
-      </c>
-      <c r="K97" s="7">
-        <v>379157</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>43</v>
-      </c>
-      <c r="J98" s="7">
-        <v>932000</v>
-      </c>
-      <c r="K98" s="7">
-        <v>379157</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" t="s">
-        <v>33</v>
-      </c>
-      <c r="J99" s="7">
-        <v>854000</v>
-      </c>
-      <c r="K99" s="7">
-        <v>322812</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100" s="7">
-        <v>854000</v>
-      </c>
-      <c r="K100" s="7">
-        <v>322812</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>45</v>
-      </c>
-      <c r="J101" s="7">
-        <v>854000</v>
-      </c>
-      <c r="K101" s="7">
-        <v>322812</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" t="s">
-        <v>33</v>
-      </c>
-      <c r="J102" s="7">
-        <v>81000</v>
-      </c>
-      <c r="K102" s="7">
-        <v>38461</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>42</v>
-      </c>
-      <c r="J103" s="7">
-        <v>81000</v>
-      </c>
-      <c r="K103" s="7">
-        <v>38461</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>46</v>
-      </c>
-      <c r="J104" s="7">
-        <v>81000</v>
-      </c>
-      <c r="K104" s="7">
-        <v>38461</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>32</v>
-      </c>
-      <c r="J105" s="7">
-        <v>169000</v>
-      </c>
-      <c r="K105" s="7">
-        <v>136468</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C106" t="s">
-        <v>44</v>
-      </c>
-      <c r="J106" s="7">
-        <v>169000</v>
-      </c>
-      <c r="K106" s="7">
-        <v>136468</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>47</v>
-      </c>
-      <c r="J107" s="7">
-        <v>169000</v>
-      </c>
-      <c r="K107" s="7">
-        <v>136468</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" t="s">
-        <v>32</v>
-      </c>
-      <c r="J108" s="7">
-        <v>61000</v>
-      </c>
-      <c r="K108" s="7">
-        <v>12078</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C109" t="s">
-        <v>36</v>
-      </c>
-      <c r="J109" s="7">
-        <v>61000</v>
-      </c>
-      <c r="K109" s="7">
-        <v>12078</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>48</v>
-      </c>
-      <c r="J110" s="7">
-        <v>61000</v>
-      </c>
-      <c r="K110" s="7">
-        <v>12078</v>
-      </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" t="s">
-        <v>32</v>
-      </c>
-      <c r="J111" s="7">
-        <v>645000</v>
-      </c>
-      <c r="K111" s="7">
-        <v>273048</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="7">
-        <v>645000</v>
-      </c>
-      <c r="K112" s="7">
-        <v>273048</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>52</v>
-      </c>
-      <c r="J113" s="7">
-        <v>645000</v>
-      </c>
-      <c r="K113" s="7">
-        <v>273048</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>54</v>
-      </c>
-      <c r="J114" s="7">
-        <v>4305000</v>
-      </c>
-      <c r="K114" s="7">
-        <v>1557922</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" t="s">
-        <v>32</v>
-      </c>
-      <c r="J115" s="7">
-        <v>839000</v>
-      </c>
-      <c r="K115" s="7">
-        <v>406974</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C116" t="s">
-        <v>42</v>
-      </c>
-      <c r="J116" s="7">
-        <v>839000</v>
-      </c>
-      <c r="K116" s="7">
-        <v>406974</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>37</v>
-      </c>
-      <c r="J117" s="7">
-        <v>839000</v>
-      </c>
-      <c r="K117" s="7">
-        <v>406974</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
-        <v>33</v>
-      </c>
-      <c r="J118" s="7">
-        <v>729000</v>
-      </c>
-      <c r="K118" s="7">
-        <v>487139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C119" t="s">
-        <v>44</v>
-      </c>
-      <c r="J119" s="7">
-        <v>729000</v>
-      </c>
-      <c r="K119" s="7">
-        <v>487139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>39</v>
-      </c>
-      <c r="J120" s="7">
-        <v>729000</v>
-      </c>
-      <c r="K120" s="7">
-        <v>487139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" t="s">
-        <v>32</v>
-      </c>
-      <c r="J121" s="7">
-        <v>826000</v>
-      </c>
-      <c r="K121" s="7">
-        <v>298186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C122" t="s">
-        <v>36</v>
-      </c>
-      <c r="J122" s="7">
-        <v>826000</v>
-      </c>
-      <c r="K122" s="7">
-        <v>298186</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>41</v>
-      </c>
-      <c r="J123" s="7">
-        <v>826000</v>
-      </c>
-      <c r="K123" s="7">
-        <v>298186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>17</v>
-      </c>
-      <c r="C124" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" t="s">
-        <v>32</v>
-      </c>
-      <c r="J124" s="7">
-        <v>895000</v>
-      </c>
-      <c r="K124" s="7">
-        <v>280583</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C125" t="s">
-        <v>38</v>
-      </c>
-      <c r="J125" s="7">
-        <v>895000</v>
-      </c>
-      <c r="K125" s="7">
-        <v>280583</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>43</v>
-      </c>
-      <c r="J126" s="7">
-        <v>895000</v>
-      </c>
-      <c r="K126" s="7">
-        <v>280583</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" t="s">
-        <v>32</v>
-      </c>
-      <c r="J127" s="7">
-        <v>341000</v>
-      </c>
-      <c r="K127" s="7">
-        <v>129785</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C128" t="s">
-        <v>40</v>
-      </c>
-      <c r="J128" s="7">
-        <v>341000</v>
-      </c>
-      <c r="K128" s="7">
-        <v>129785</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>45</v>
-      </c>
-      <c r="J129" s="7">
-        <v>341000</v>
-      </c>
-      <c r="K129" s="7">
-        <v>129785</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>55</v>
-      </c>
-      <c r="J130" s="7">
-        <v>3630000</v>
-      </c>
-      <c r="K130" s="7">
-        <v>1602667</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>31</v>
-      </c>
-      <c r="J131" s="7">
-        <v>19695000</v>
-      </c>
-      <c r="K131" s="7">
         <v>8340291</v>
       </c>
     </row>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D179F-0D14-D244-ACD9-85A1ED68AA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC00471-A481-2E42-B8CA-A28F49F5D07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </externalReferences>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="34">
   <si>
     <t>Project</t>
   </si>
@@ -140,19 +140,10 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
     <t>Sum of Budget</t>
   </si>
   <si>
     <t>Sum of Actual</t>
-  </si>
-  <si>
-    <t>Months</t>
   </si>
 </sst>
 </file>
@@ -210,12 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -340,7 +332,7 @@
   <cacheSource type="worksheet">
     <worksheetSource name="Project_Data"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="10">
     <cacheField name="Project" numFmtId="0">
       <sharedItems count="5">
         <s v="Gemini"/>
@@ -418,379 +410,6 @@
         <d v="2022-03-15T00:00:00"/>
         <d v="2022-03-09T00:00:00"/>
       </sharedItems>
-      <fieldGroup par="10" base="5">
-        <rangePr groupBy="days" startDate="2022-02-21T00:00:00" endDate="2022-03-16T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;21/2/22"/>
-          <s v="1-Jan"/>
-          <s v="2-Jan"/>
-          <s v="3-Jan"/>
-          <s v="4-Jan"/>
-          <s v="5-Jan"/>
-          <s v="6-Jan"/>
-          <s v="7-Jan"/>
-          <s v="8-Jan"/>
-          <s v="9-Jan"/>
-          <s v="10-Jan"/>
-          <s v="11-Jan"/>
-          <s v="12-Jan"/>
-          <s v="13-Jan"/>
-          <s v="14-Jan"/>
-          <s v="15-Jan"/>
-          <s v="16-Jan"/>
-          <s v="17-Jan"/>
-          <s v="18-Jan"/>
-          <s v="19-Jan"/>
-          <s v="20-Jan"/>
-          <s v="21-Jan"/>
-          <s v="22-Jan"/>
-          <s v="23-Jan"/>
-          <s v="24-Jan"/>
-          <s v="25-Jan"/>
-          <s v="26-Jan"/>
-          <s v="27-Jan"/>
-          <s v="28-Jan"/>
-          <s v="29-Jan"/>
-          <s v="30-Jan"/>
-          <s v="31-Jan"/>
-          <s v="1-Feb"/>
-          <s v="2-Feb"/>
-          <s v="3-Feb"/>
-          <s v="4-Feb"/>
-          <s v="5-Feb"/>
-          <s v="6-Feb"/>
-          <s v="7-Feb"/>
-          <s v="8-Feb"/>
-          <s v="9-Feb"/>
-          <s v="10-Feb"/>
-          <s v="11-Feb"/>
-          <s v="12-Feb"/>
-          <s v="13-Feb"/>
-          <s v="14-Feb"/>
-          <s v="15-Feb"/>
-          <s v="16-Feb"/>
-          <s v="17-Feb"/>
-          <s v="18-Feb"/>
-          <s v="19-Feb"/>
-          <s v="20-Feb"/>
-          <s v="21-Feb"/>
-          <s v="22-Feb"/>
-          <s v="23-Feb"/>
-          <s v="24-Feb"/>
-          <s v="25-Feb"/>
-          <s v="26-Feb"/>
-          <s v="27-Feb"/>
-          <s v="28-Feb"/>
-          <s v="29-Feb"/>
-          <s v="1-Mar"/>
-          <s v="2-Mar"/>
-          <s v="3-Mar"/>
-          <s v="4-Mar"/>
-          <s v="5-Mar"/>
-          <s v="6-Mar"/>
-          <s v="7-Mar"/>
-          <s v="8-Mar"/>
-          <s v="9-Mar"/>
-          <s v="10-Mar"/>
-          <s v="11-Mar"/>
-          <s v="12-Mar"/>
-          <s v="13-Mar"/>
-          <s v="14-Mar"/>
-          <s v="15-Mar"/>
-          <s v="16-Mar"/>
-          <s v="17-Mar"/>
-          <s v="18-Mar"/>
-          <s v="19-Mar"/>
-          <s v="20-Mar"/>
-          <s v="21-Mar"/>
-          <s v="22-Mar"/>
-          <s v="23-Mar"/>
-          <s v="24-Mar"/>
-          <s v="25-Mar"/>
-          <s v="26-Mar"/>
-          <s v="27-Mar"/>
-          <s v="28-Mar"/>
-          <s v="29-Mar"/>
-          <s v="30-Mar"/>
-          <s v="31-Mar"/>
-          <s v="1-Apr"/>
-          <s v="2-Apr"/>
-          <s v="3-Apr"/>
-          <s v="4-Apr"/>
-          <s v="5-Apr"/>
-          <s v="6-Apr"/>
-          <s v="7-Apr"/>
-          <s v="8-Apr"/>
-          <s v="9-Apr"/>
-          <s v="10-Apr"/>
-          <s v="11-Apr"/>
-          <s v="12-Apr"/>
-          <s v="13-Apr"/>
-          <s v="14-Apr"/>
-          <s v="15-Apr"/>
-          <s v="16-Apr"/>
-          <s v="17-Apr"/>
-          <s v="18-Apr"/>
-          <s v="19-Apr"/>
-          <s v="20-Apr"/>
-          <s v="21-Apr"/>
-          <s v="22-Apr"/>
-          <s v="23-Apr"/>
-          <s v="24-Apr"/>
-          <s v="25-Apr"/>
-          <s v="26-Apr"/>
-          <s v="27-Apr"/>
-          <s v="28-Apr"/>
-          <s v="29-Apr"/>
-          <s v="30-Apr"/>
-          <s v="1-May"/>
-          <s v="2-May"/>
-          <s v="3-May"/>
-          <s v="4-May"/>
-          <s v="5-May"/>
-          <s v="6-May"/>
-          <s v="7-May"/>
-          <s v="8-May"/>
-          <s v="9-May"/>
-          <s v="10-May"/>
-          <s v="11-May"/>
-          <s v="12-May"/>
-          <s v="13-May"/>
-          <s v="14-May"/>
-          <s v="15-May"/>
-          <s v="16-May"/>
-          <s v="17-May"/>
-          <s v="18-May"/>
-          <s v="19-May"/>
-          <s v="20-May"/>
-          <s v="21-May"/>
-          <s v="22-May"/>
-          <s v="23-May"/>
-          <s v="24-May"/>
-          <s v="25-May"/>
-          <s v="26-May"/>
-          <s v="27-May"/>
-          <s v="28-May"/>
-          <s v="29-May"/>
-          <s v="30-May"/>
-          <s v="31-May"/>
-          <s v="1-Jun"/>
-          <s v="2-Jun"/>
-          <s v="3-Jun"/>
-          <s v="4-Jun"/>
-          <s v="5-Jun"/>
-          <s v="6-Jun"/>
-          <s v="7-Jun"/>
-          <s v="8-Jun"/>
-          <s v="9-Jun"/>
-          <s v="10-Jun"/>
-          <s v="11-Jun"/>
-          <s v="12-Jun"/>
-          <s v="13-Jun"/>
-          <s v="14-Jun"/>
-          <s v="15-Jun"/>
-          <s v="16-Jun"/>
-          <s v="17-Jun"/>
-          <s v="18-Jun"/>
-          <s v="19-Jun"/>
-          <s v="20-Jun"/>
-          <s v="21-Jun"/>
-          <s v="22-Jun"/>
-          <s v="23-Jun"/>
-          <s v="24-Jun"/>
-          <s v="25-Jun"/>
-          <s v="26-Jun"/>
-          <s v="27-Jun"/>
-          <s v="28-Jun"/>
-          <s v="29-Jun"/>
-          <s v="30-Jun"/>
-          <s v="1-Jul"/>
-          <s v="2-Jul"/>
-          <s v="3-Jul"/>
-          <s v="4-Jul"/>
-          <s v="5-Jul"/>
-          <s v="6-Jul"/>
-          <s v="7-Jul"/>
-          <s v="8-Jul"/>
-          <s v="9-Jul"/>
-          <s v="10-Jul"/>
-          <s v="11-Jul"/>
-          <s v="12-Jul"/>
-          <s v="13-Jul"/>
-          <s v="14-Jul"/>
-          <s v="15-Jul"/>
-          <s v="16-Jul"/>
-          <s v="17-Jul"/>
-          <s v="18-Jul"/>
-          <s v="19-Jul"/>
-          <s v="20-Jul"/>
-          <s v="21-Jul"/>
-          <s v="22-Jul"/>
-          <s v="23-Jul"/>
-          <s v="24-Jul"/>
-          <s v="25-Jul"/>
-          <s v="26-Jul"/>
-          <s v="27-Jul"/>
-          <s v="28-Jul"/>
-          <s v="29-Jul"/>
-          <s v="30-Jul"/>
-          <s v="31-Jul"/>
-          <s v="1-Aug"/>
-          <s v="2-Aug"/>
-          <s v="3-Aug"/>
-          <s v="4-Aug"/>
-          <s v="5-Aug"/>
-          <s v="6-Aug"/>
-          <s v="7-Aug"/>
-          <s v="8-Aug"/>
-          <s v="9-Aug"/>
-          <s v="10-Aug"/>
-          <s v="11-Aug"/>
-          <s v="12-Aug"/>
-          <s v="13-Aug"/>
-          <s v="14-Aug"/>
-          <s v="15-Aug"/>
-          <s v="16-Aug"/>
-          <s v="17-Aug"/>
-          <s v="18-Aug"/>
-          <s v="19-Aug"/>
-          <s v="20-Aug"/>
-          <s v="21-Aug"/>
-          <s v="22-Aug"/>
-          <s v="23-Aug"/>
-          <s v="24-Aug"/>
-          <s v="25-Aug"/>
-          <s v="26-Aug"/>
-          <s v="27-Aug"/>
-          <s v="28-Aug"/>
-          <s v="29-Aug"/>
-          <s v="30-Aug"/>
-          <s v="31-Aug"/>
-          <s v="1-Sep"/>
-          <s v="2-Sep"/>
-          <s v="3-Sep"/>
-          <s v="4-Sep"/>
-          <s v="5-Sep"/>
-          <s v="6-Sep"/>
-          <s v="7-Sep"/>
-          <s v="8-Sep"/>
-          <s v="9-Sep"/>
-          <s v="10-Sep"/>
-          <s v="11-Sep"/>
-          <s v="12-Sep"/>
-          <s v="13-Sep"/>
-          <s v="14-Sep"/>
-          <s v="15-Sep"/>
-          <s v="16-Sep"/>
-          <s v="17-Sep"/>
-          <s v="18-Sep"/>
-          <s v="19-Sep"/>
-          <s v="20-Sep"/>
-          <s v="21-Sep"/>
-          <s v="22-Sep"/>
-          <s v="23-Sep"/>
-          <s v="24-Sep"/>
-          <s v="25-Sep"/>
-          <s v="26-Sep"/>
-          <s v="27-Sep"/>
-          <s v="28-Sep"/>
-          <s v="29-Sep"/>
-          <s v="30-Sep"/>
-          <s v="1-Oct"/>
-          <s v="2-Oct"/>
-          <s v="3-Oct"/>
-          <s v="4-Oct"/>
-          <s v="5-Oct"/>
-          <s v="6-Oct"/>
-          <s v="7-Oct"/>
-          <s v="8-Oct"/>
-          <s v="9-Oct"/>
-          <s v="10-Oct"/>
-          <s v="11-Oct"/>
-          <s v="12-Oct"/>
-          <s v="13-Oct"/>
-          <s v="14-Oct"/>
-          <s v="15-Oct"/>
-          <s v="16-Oct"/>
-          <s v="17-Oct"/>
-          <s v="18-Oct"/>
-          <s v="19-Oct"/>
-          <s v="20-Oct"/>
-          <s v="21-Oct"/>
-          <s v="22-Oct"/>
-          <s v="23-Oct"/>
-          <s v="24-Oct"/>
-          <s v="25-Oct"/>
-          <s v="26-Oct"/>
-          <s v="27-Oct"/>
-          <s v="28-Oct"/>
-          <s v="29-Oct"/>
-          <s v="30-Oct"/>
-          <s v="31-Oct"/>
-          <s v="1-Nov"/>
-          <s v="2-Nov"/>
-          <s v="3-Nov"/>
-          <s v="4-Nov"/>
-          <s v="5-Nov"/>
-          <s v="6-Nov"/>
-          <s v="7-Nov"/>
-          <s v="8-Nov"/>
-          <s v="9-Nov"/>
-          <s v="10-Nov"/>
-          <s v="11-Nov"/>
-          <s v="12-Nov"/>
-          <s v="13-Nov"/>
-          <s v="14-Nov"/>
-          <s v="15-Nov"/>
-          <s v="16-Nov"/>
-          <s v="17-Nov"/>
-          <s v="18-Nov"/>
-          <s v="19-Nov"/>
-          <s v="20-Nov"/>
-          <s v="21-Nov"/>
-          <s v="22-Nov"/>
-          <s v="23-Nov"/>
-          <s v="24-Nov"/>
-          <s v="25-Nov"/>
-          <s v="26-Nov"/>
-          <s v="27-Nov"/>
-          <s v="28-Nov"/>
-          <s v="29-Nov"/>
-          <s v="30-Nov"/>
-          <s v="1-Dec"/>
-          <s v="2-Dec"/>
-          <s v="3-Dec"/>
-          <s v="4-Dec"/>
-          <s v="5-Dec"/>
-          <s v="6-Dec"/>
-          <s v="7-Dec"/>
-          <s v="8-Dec"/>
-          <s v="9-Dec"/>
-          <s v="10-Dec"/>
-          <s v="11-Dec"/>
-          <s v="12-Dec"/>
-          <s v="13-Dec"/>
-          <s v="14-Dec"/>
-          <s v="15-Dec"/>
-          <s v="16-Dec"/>
-          <s v="17-Dec"/>
-          <s v="18-Dec"/>
-          <s v="19-Dec"/>
-          <s v="20-Dec"/>
-          <s v="21-Dec"/>
-          <s v="22-Dec"/>
-          <s v="23-Dec"/>
-          <s v="24-Dec"/>
-          <s v="25-Dec"/>
-          <s v="26-Dec"/>
-          <s v="27-Dec"/>
-          <s v="28-Dec"/>
-          <s v="29-Dec"/>
-          <s v="30-Dec"/>
-          <s v="31-Dec"/>
-          <s v="&gt;16/3/22"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
     <cacheField name="Days completed" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8" count="8">
@@ -833,27 +452,6 @@
     <cacheField name="Actual" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="807069"/>
     </cacheField>
-    <cacheField name="Months" numFmtId="0" databaseField="0">
-      <fieldGroup base="5">
-        <rangePr groupBy="months" startDate="2022-02-21T00:00:00" endDate="2022-03-16T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;21/2/22"/>
-          <s v="Jan"/>
-          <s v="Feb"/>
-          <s v="Mar"/>
-          <s v="Apr"/>
-          <s v="May"/>
-          <s v="Jun"/>
-          <s v="Jul"/>
-          <s v="Aug"/>
-          <s v="Sep"/>
-          <s v="Oct"/>
-          <s v="Nov"/>
-          <s v="Dec"/>
-          <s v="&gt;16/3/22"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1349,9 +947,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A5:K46" firstHeaderRow="0" firstDataRow="1" firstDataCol="9"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A5:J46" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
+  <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
         <item x="4"/>
@@ -1412,375 +1010,22 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="368">
+      <items count="15">
+        <item x="10"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="8"/>
         <item x="6"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="9"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
+        <item x="14"/>
         <item x="12"/>
         <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0">
@@ -1820,30 +1065,11 @@
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-      </items>
-    </pivotField>
   </pivotFields>
-  <rowFields count="9">
+  <rowFields count="8">
     <field x="0"/>
     <field x="1"/>
     <field x="2"/>
-    <field x="10"/>
     <field x="3"/>
     <field x="5"/>
     <field x="4"/>
@@ -1855,206 +1081,366 @@
       <x/>
       <x/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="9"/>
+      <x v="12"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="7"/>
     </i>
     <i r="1">
       <x v="2"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="10"/>
+      <x v="13"/>
+      <x v="6"/>
+      <x v="4"/>
+      <x v="10"/>
     </i>
     <i r="1">
       <x v="3"/>
       <x v="1"/>
+      <x v="3"/>
+      <x v="3"/>
       <x v="2"/>
+      <x v="3"/>
+      <x v="12"/>
     </i>
     <i r="1">
       <x v="4"/>
       <x/>
       <x v="2"/>
+      <x v="1"/>
+      <x/>
+      <x v="3"/>
+      <x v="18"/>
     </i>
     <i r="1">
       <x v="5"/>
       <x v="3"/>
-      <x v="3"/>
+      <x v="4"/>
+      <x v="6"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="6"/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="12"/>
+      <x v="7"/>
+      <x v="2"/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="7"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="12"/>
+      <x v="7"/>
+      <x v="3"/>
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="8"/>
       <x v="1"/>
-      <x v="2"/>
+      <x v="5"/>
+      <x v="5"/>
+      <x/>
+      <x/>
+      <x/>
     </i>
     <i>
       <x v="1"/>
       <x/>
       <x/>
-      <x v="3"/>
+      <x v="10"/>
+      <x v="13"/>
+      <x v="6"/>
+      <x v="7"/>
+      <x v="17"/>
     </i>
     <i r="1">
       <x v="2"/>
       <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
+      <x v="10"/>
+      <x v="14"/>
+      <x v="7"/>
       <x v="2"/>
       <x v="2"/>
     </i>
     <i r="1">
+      <x v="3"/>
+      <x v="2"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="4"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="2"/>
+      <x v="6"/>
+      <x v="5"/>
+      <x v="5"/>
+      <x v="13"/>
     </i>
     <i r="1">
       <x v="5"/>
       <x v="1"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="12"/>
+      <x v="7"/>
+      <x v="3"/>
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="6"/>
       <x/>
-      <x v="3"/>
+      <x v="6"/>
+      <x v="9"/>
+      <x v="3"/>
+      <x v="3"/>
+      <x v="11"/>
     </i>
     <i r="1">
       <x v="7"/>
       <x v="3"/>
-      <x v="3"/>
+      <x v="6"/>
+      <x v="7"/>
+      <x v="1"/>
+      <x v="2"/>
+      <x v="11"/>
     </i>
     <i>
       <x v="2"/>
       <x/>
       <x/>
+      <x/>
       <x v="2"/>
+      <x v="2"/>
+      <x v="2"/>
+      <x v="8"/>
     </i>
     <i r="1">
       <x v="1"/>
       <x v="1"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="8"/>
+      <x v="3"/>
+      <x v="3"/>
+      <x v="11"/>
     </i>
     <i r="1">
       <x v="2"/>
       <x v="3"/>
-      <x v="2"/>
+      <x/>
+      <x v="3"/>
+      <x v="3"/>
+      <x v="3"/>
+      <x v="11"/>
     </i>
     <i r="1">
       <x v="3"/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="1"/>
+      <x v="8"/>
+      <x v="7"/>
+      <x v="4"/>
+      <x v="8"/>
     </i>
     <i r="1">
       <x v="4"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="4"/>
+      <x v="8"/>
+      <x v="6"/>
+      <x v="3"/>
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="5"/>
       <x v="1"/>
-      <x v="2"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="6"/>
       <x/>
-      <x v="2"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x/>
+      <x/>
     </i>
     <i r="1">
       <x v="7"/>
       <x v="3"/>
-      <x v="2"/>
+      <x v="3"/>
+      <x v="5"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="8"/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="7"/>
+      <x v="2"/>
+      <x v="2"/>
+      <x v="8"/>
     </i>
     <i r="1">
       <x v="9"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="11"/>
+      <x v="6"/>
+      <x v="1"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
       <x/>
       <x/>
-      <x v="2"/>
+      <x v="1"/>
+      <x v="5"/>
+      <x v="4"/>
+      <x v="6"/>
+      <x v="18"/>
     </i>
     <i r="1">
       <x v="1"/>
       <x v="1"/>
-      <x v="2"/>
+      <x/>
+      <x/>
+      <x/>
+      <x v="3"/>
+      <x v="18"/>
     </i>
     <i r="1">
       <x v="2"/>
       <x v="3"/>
-      <x v="3"/>
+      <x/>
+      <x v="6"/>
+      <x v="6"/>
+      <x v="4"/>
+      <x v="10"/>
     </i>
     <i r="1">
       <x v="3"/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="1"/>
+      <x v="6"/>
+      <x v="5"/>
+      <x/>
+      <x/>
     </i>
     <i r="1">
       <x v="4"/>
       <x v="4"/>
-      <x v="2"/>
+      <x v="3"/>
+      <x v="5"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="5"/>
       <x v="1"/>
-      <x v="2"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="6"/>
       <x/>
-      <x v="2"/>
+      <x v="4"/>
+      <x v="5"/>
+      <x v="3"/>
+      <x v="3"/>
+      <x v="11"/>
     </i>
     <i r="1">
       <x v="7"/>
       <x v="3"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="8"/>
+      <x v="3"/>
+      <x v="5"/>
+      <x v="16"/>
     </i>
     <i r="1">
       <x v="8"/>
       <x v="2"/>
+      <x v="6"/>
+      <x v="7"/>
+      <x v="1"/>
+      <x v="1"/>
       <x v="3"/>
     </i>
     <i r="1">
       <x v="9"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="8"/>
+      <x v="10"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="9"/>
     </i>
     <i>
       <x v="4"/>
       <x/>
       <x/>
-      <x v="3"/>
+      <x/>
+      <x v="7"/>
+      <x v="7"/>
+      <x v="5"/>
+      <x v="11"/>
     </i>
     <i r="1">
       <x v="2"/>
       <x v="3"/>
+      <x v="4"/>
+      <x v="4"/>
       <x v="2"/>
+      <x v="4"/>
+      <x v="15"/>
     </i>
     <i r="1">
       <x v="3"/>
       <x v="2"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="9"/>
+      <x v="4"/>
+      <x v="3"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="4"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="7"/>
+      <x v="10"/>
+      <x v="4"/>
+      <x v="2"/>
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="5"/>
       <x v="1"/>
-      <x v="3"/>
+      <x v="9"/>
+      <x v="7"/>
+      <x/>
+      <x v="2"/>
+      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -2407,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2421,49 +1807,46 @@
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
       <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2473,136 +1856,232 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="D6" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44629</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="8">
         <v>96000</v>
       </c>
-      <c r="K6" s="7">
+      <c r="J6" s="8">
         <v>32256</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="D7" s="2">
+        <v>44622</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44634</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I7" s="8">
         <v>513000</v>
       </c>
-      <c r="K7" s="7">
+      <c r="J7" s="8">
         <v>226233</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="D8" s="2">
+        <v>44612</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44616</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="8">
         <v>616000</v>
       </c>
-      <c r="K8" s="7">
+      <c r="J8" s="8">
         <v>401579</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="D9" s="2">
+        <v>44611</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44614</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
         <v>817000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="J9" s="8">
         <v>807069</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="D10" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44621</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I10" s="8">
         <v>372000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="J10" s="8">
         <v>173166</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="D11" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44629</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="8">
         <v>50000</v>
       </c>
-      <c r="K11" s="7">
+      <c r="J11" s="8">
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="D12" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44629</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="8">
         <v>807000</v>
       </c>
-      <c r="K12" s="7">
+      <c r="J12" s="8">
         <v>262679</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="D13" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>691000</v>
       </c>
-      <c r="K13" s="7">
+      <c r="J13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2612,119 +2091,203 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="D14" s="2">
+        <v>44622</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44634</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I14" s="8">
         <v>787000</v>
       </c>
-      <c r="K14" s="7">
+      <c r="J14" s="8">
         <v>727188</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="D15" s="2">
+        <v>44622</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44635</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="8">
         <v>228000</v>
       </c>
-      <c r="K15" s="7">
+      <c r="J15" s="8">
         <v>47880</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="D16" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44614</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
         <v>147000</v>
       </c>
-      <c r="K16" s="7">
+      <c r="J16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="D17" s="2">
+        <v>44611</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44621</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="I17" s="8">
         <v>338000</v>
       </c>
-      <c r="K17" s="7">
+      <c r="J17" s="8">
         <v>205123</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="D18" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44629</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="8">
         <v>857000</v>
       </c>
-      <c r="K18" s="7">
+      <c r="J18" s="8">
         <v>305949</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="D19" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44626</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="8">
         <v>602000</v>
       </c>
-      <c r="K19" s="7">
+      <c r="J19" s="8">
         <v>322371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="D20" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="8">
         <v>990000</v>
       </c>
-      <c r="K20" s="7">
+      <c r="J20" s="8">
         <v>451440</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2734,170 +2297,290 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="D21" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44615</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I21" s="8">
         <v>218000</v>
       </c>
-      <c r="K21" s="7">
+      <c r="J21" s="8">
         <v>97337</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="D22" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44623</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="8">
         <v>416000</v>
       </c>
-      <c r="K22" s="7">
+      <c r="J22" s="8">
         <v>175015</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="D23" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44616</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="8">
         <v>393000</v>
       </c>
-      <c r="K23" s="7">
+      <c r="J23" s="8">
         <v>177440</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="D24" s="2">
+        <v>44610</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44623</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="8">
         <v>86000</v>
       </c>
-      <c r="K24" s="7">
+      <c r="J24" s="8">
         <v>31046</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="D25" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44623</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I25" s="8">
         <v>732000</v>
       </c>
-      <c r="K25" s="7">
+      <c r="J25" s="8">
         <v>261324</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="D26" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44614</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="8">
         <v>492000</v>
       </c>
-      <c r="K26" s="7">
+      <c r="J26" s="8">
         <v>116850</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="D27" s="2">
+        <v>44612</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44619</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
         <v>188000</v>
       </c>
-      <c r="K27" s="7">
+      <c r="J27" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="D28" s="2">
+        <v>44612</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I28" s="8">
         <v>180000</v>
       </c>
-      <c r="K28" s="7">
+      <c r="J28" s="8">
         <v>79380</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="D29" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I29" s="8">
         <v>582000</v>
       </c>
-      <c r="K29" s="7">
+      <c r="J29" s="8">
         <v>195231</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="D30" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44628</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I30" s="8">
         <v>562000</v>
       </c>
-      <c r="K30" s="7">
+      <c r="J30" s="8">
         <v>74746</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2907,170 +2590,290 @@
       <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="D31" s="2">
+        <v>44610</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
         <v>293000</v>
       </c>
-      <c r="K31" s="7">
+      <c r="J31" s="8">
         <v>273001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="D32" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44613</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
         <v>68000</v>
       </c>
-      <c r="K32" s="7">
+      <c r="J32" s="8">
         <v>64987</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="D33" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44621</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I33" s="8">
         <v>224000</v>
       </c>
-      <c r="K33" s="7">
+      <c r="J33" s="8">
         <v>57910</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="D34" s="2">
+        <v>44610</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44621</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
         <v>978000</v>
       </c>
-      <c r="K34" s="7">
+      <c r="J34" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="D35" s="2">
+        <v>44612</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I35" s="8">
         <v>932000</v>
       </c>
-      <c r="K35" s="7">
+      <c r="J35" s="8">
         <v>379157</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
-      <c r="D36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="D36" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44616</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I36" s="8">
         <v>854000</v>
       </c>
-      <c r="K36" s="7">
+      <c r="J36" s="8">
         <v>322812</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="D37" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="8">
         <v>81000</v>
       </c>
-      <c r="K37" s="7">
+      <c r="J37" s="8">
         <v>38461</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="7">
+      <c r="D38" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44623</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I38" s="8">
         <v>169000</v>
       </c>
-      <c r="K38" s="7">
+      <c r="J38" s="8">
         <v>136468</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="D39" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I39" s="8">
         <v>61000</v>
       </c>
-      <c r="K39" s="7">
+      <c r="J39" s="8">
         <v>12078</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>24</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
-      <c r="D40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="D40" s="2">
+        <v>44619</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44627</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I40" s="8">
         <v>645000</v>
       </c>
-      <c r="K40" s="7">
+      <c r="J40" s="8">
         <v>273048</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -3080,92 +2883,152 @@
       <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="D41" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="8">
         <v>839000</v>
       </c>
-      <c r="K41" s="7">
+      <c r="J41" s="8">
         <v>406974</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="D42" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44619</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I42" s="8">
         <v>729000</v>
       </c>
-      <c r="K42" s="7">
+      <c r="J42" s="8">
         <v>487139</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="7">
+      <c r="D43" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44626</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I43" s="8">
         <v>826000</v>
       </c>
-      <c r="K43" s="7">
+      <c r="J43" s="8">
         <v>298186</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="D44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="7">
+      <c r="D44" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44627</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I44" s="8">
         <v>895000</v>
       </c>
-      <c r="K44" s="7">
+      <c r="J44" s="8">
         <v>280583</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>19</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D45" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="7">
+      <c r="D45" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I45" s="8">
         <v>341000</v>
       </c>
-      <c r="K45" s="7">
+      <c r="J45" s="8">
         <v>129785</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
-      <c r="J46" s="7">
+      <c r="I46" s="8">
         <v>19695000</v>
       </c>
-      <c r="K46" s="7">
+      <c r="J46" s="8">
         <v>8340291</v>
       </c>
     </row>
@@ -3182,7 +3045,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC00471-A481-2E42-B8CA-A28F49F5D07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05804C0A-BB80-B549-807A-EB16114D82CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -137,13 +137,13 @@
     <t>Project Management Dashboard</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t xml:space="preserve">Budget </t>
   </si>
   <si>
-    <t>Sum of Budget</t>
+    <t xml:space="preserve">Actual </t>
   </si>
   <si>
-    <t>Sum of Actual</t>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +209,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -218,7 +221,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yy"/>
     </dxf>
@@ -1458,9 +1467,29 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Budget" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Actual" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Budget " fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Actual " fld="9" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1480,17 +1509,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="2">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="5">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1795,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1807,13 +1836,13 @@
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
@@ -1839,11 +1868,11 @@
       <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1871,10 +1900,10 @@
       <c r="H6" s="5">
         <v>0.375</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>96000</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>32256</v>
       </c>
     </row>
@@ -1900,10 +1929,10 @@
       <c r="H7" s="5">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <v>513000</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>226233</v>
       </c>
     </row>
@@ -1929,10 +1958,10 @@
       <c r="H8" s="5">
         <v>0.6</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>616000</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>401579</v>
       </c>
     </row>
@@ -1958,10 +1987,10 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="9">
         <v>817000</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="9">
         <v>807069</v>
       </c>
     </row>
@@ -1987,10 +2016,10 @@
       <c r="H10" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>372000</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>173166</v>
       </c>
     </row>
@@ -2016,10 +2045,10 @@
       <c r="H11" s="5">
         <v>0.2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="9">
         <v>50000</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <v>8400</v>
       </c>
     </row>
@@ -2045,10 +2074,10 @@
       <c r="H12" s="5">
         <v>0.3</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="9">
         <v>807000</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>262679</v>
       </c>
     </row>
@@ -2074,10 +2103,10 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="9">
         <v>691000</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2106,10 +2135,10 @@
       <c r="H14" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="9">
         <v>787000</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>727188</v>
       </c>
     </row>
@@ -2135,10 +2164,10 @@
       <c r="H15" s="5">
         <v>0.2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="9">
         <v>228000</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="9">
         <v>47880</v>
       </c>
     </row>
@@ -2164,10 +2193,10 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="9">
         <v>147000</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2193,10 +2222,10 @@
       <c r="H17" s="5">
         <v>0.625</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="9">
         <v>338000</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="9">
         <v>205123</v>
       </c>
     </row>
@@ -2222,10 +2251,10 @@
       <c r="H18" s="5">
         <v>0.3</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="9">
         <v>857000</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="9">
         <v>305949</v>
       </c>
     </row>
@@ -2251,10 +2280,10 @@
       <c r="H19" s="5">
         <v>0.5</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="9">
         <v>602000</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="9">
         <v>322371</v>
       </c>
     </row>
@@ -2280,10 +2309,10 @@
       <c r="H20" s="5">
         <v>0.5</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="9">
         <v>990000</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="9">
         <v>451440</v>
       </c>
     </row>
@@ -2312,10 +2341,10 @@
       <c r="H21" s="5">
         <v>0.4</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="9">
         <v>218000</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="9">
         <v>97337</v>
       </c>
     </row>
@@ -2341,10 +2370,10 @@
       <c r="H22" s="5">
         <v>0.5</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="9">
         <v>416000</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="9">
         <v>175015</v>
       </c>
     </row>
@@ -2370,10 +2399,10 @@
       <c r="H23" s="5">
         <v>0.5</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="9">
         <v>393000</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="9">
         <v>177440</v>
       </c>
     </row>
@@ -2399,10 +2428,10 @@
       <c r="H24" s="5">
         <v>0.4</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <v>86000</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="9">
         <v>31046</v>
       </c>
     </row>
@@ -2428,10 +2457,10 @@
       <c r="H25" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="9">
         <v>732000</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="9">
         <v>261324</v>
       </c>
     </row>
@@ -2457,10 +2486,10 @@
       <c r="H26" s="5">
         <v>0.25</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="9">
         <v>492000</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="9">
         <v>116850</v>
       </c>
     </row>
@@ -2486,10 +2515,10 @@
       <c r="H27" s="5">
         <v>0</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="9">
         <v>188000</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2515,10 +2544,10 @@
       <c r="H28" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="9">
         <v>180000</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="9">
         <v>79380</v>
       </c>
     </row>
@@ -2544,10 +2573,10 @@
       <c r="H29" s="5">
         <v>0.4</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="9">
         <v>582000</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="9">
         <v>195231</v>
       </c>
     </row>
@@ -2573,10 +2602,10 @@
       <c r="H30" s="5">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="9">
         <v>562000</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="9">
         <v>74746</v>
       </c>
     </row>
@@ -2605,10 +2634,10 @@
       <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="9">
         <v>293000</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="9">
         <v>273001</v>
       </c>
     </row>
@@ -2634,10 +2663,10 @@
       <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="9">
         <v>68000</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="9">
         <v>64987</v>
       </c>
     </row>
@@ -2663,10 +2692,10 @@
       <c r="H33" s="5">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="9">
         <v>224000</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="9">
         <v>57910</v>
       </c>
     </row>
@@ -2692,10 +2721,10 @@
       <c r="H34" s="5">
         <v>0</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="9">
         <v>978000</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2721,10 +2750,10 @@
       <c r="H35" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="9">
         <v>932000</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="9">
         <v>379157</v>
       </c>
     </row>
@@ -2750,10 +2779,10 @@
       <c r="H36" s="5">
         <v>0.25</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="9">
         <v>854000</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="9">
         <v>322812</v>
       </c>
     </row>
@@ -2779,10 +2808,10 @@
       <c r="H37" s="5">
         <v>0.5</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="9">
         <v>81000</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="9">
         <v>38461</v>
       </c>
     </row>
@@ -2808,10 +2837,10 @@
       <c r="H38" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="9">
         <v>169000</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="9">
         <v>136468</v>
       </c>
     </row>
@@ -2837,10 +2866,10 @@
       <c r="H39" s="5">
         <v>0.25</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="9">
         <v>61000</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="9">
         <v>12078</v>
       </c>
     </row>
@@ -2866,10 +2895,10 @@
       <c r="H40" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="9">
         <v>645000</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="9">
         <v>273048</v>
       </c>
     </row>
@@ -2898,10 +2927,10 @@
       <c r="H41" s="5">
         <v>0.5</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="9">
         <v>839000</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="9">
         <v>406974</v>
       </c>
     </row>
@@ -2927,10 +2956,10 @@
       <c r="H42" s="5">
         <v>0.8</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="9">
         <v>729000</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="9">
         <v>487139</v>
       </c>
     </row>
@@ -2956,10 +2985,10 @@
       <c r="H43" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="9">
         <v>826000</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="9">
         <v>298186</v>
       </c>
     </row>
@@ -2985,10 +3014,10 @@
       <c r="H44" s="5">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="9">
         <v>895000</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="9">
         <v>280583</v>
       </c>
     </row>
@@ -3014,21 +3043,21 @@
       <c r="H45" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="9">
         <v>341000</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="9">
         <v>129785</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="8">
+        <v>33</v>
+      </c>
+      <c r="I46" s="9">
         <v>19695000</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="9">
         <v>8340291</v>
       </c>
     </row>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05804C0A-BB80-B549-807A-EB16114D82CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F56A3CF-93A6-DE44-8670-5D4643DA7643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -201,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -215,13 +215,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
@@ -1467,11 +1487,11 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Budget " fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Actual " fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="1">
+  <formats count="4">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1480,8 +1500,26 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+      <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
             <x v="1"/>
@@ -1509,17 +1547,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="9">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="12">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1825,7 +1863,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1900,10 +1938,10 @@
       <c r="H6" s="5">
         <v>0.375</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="3">
         <v>96000</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="3">
         <v>32256</v>
       </c>
     </row>
@@ -1929,10 +1967,10 @@
       <c r="H7" s="5">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>513000</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>226233</v>
       </c>
     </row>
@@ -1958,10 +1996,10 @@
       <c r="H8" s="5">
         <v>0.6</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="3">
         <v>616000</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="3">
         <v>401579</v>
       </c>
     </row>
@@ -1987,10 +2025,10 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="3">
         <v>817000</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="3">
         <v>807069</v>
       </c>
     </row>
@@ -2016,10 +2054,10 @@
       <c r="H10" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="3">
         <v>372000</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="3">
         <v>173166</v>
       </c>
     </row>
@@ -2045,10 +2083,10 @@
       <c r="H11" s="5">
         <v>0.2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="3">
         <v>50000</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="3">
         <v>8400</v>
       </c>
     </row>
@@ -2074,10 +2112,10 @@
       <c r="H12" s="5">
         <v>0.3</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="3">
         <v>807000</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="3">
         <v>262679</v>
       </c>
     </row>
@@ -2103,10 +2141,10 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="3">
         <v>691000</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2135,10 +2173,10 @@
       <c r="H14" s="5">
         <v>0.88888888888888884</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="3">
         <v>787000</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="3">
         <v>727188</v>
       </c>
     </row>
@@ -2164,10 +2202,10 @@
       <c r="H15" s="5">
         <v>0.2</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="3">
         <v>228000</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="3">
         <v>47880</v>
       </c>
     </row>
@@ -2193,10 +2231,10 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="3">
         <v>147000</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2222,10 +2260,10 @@
       <c r="H17" s="5">
         <v>0.625</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="3">
         <v>338000</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="3">
         <v>205123</v>
       </c>
     </row>
@@ -2251,10 +2289,10 @@
       <c r="H18" s="5">
         <v>0.3</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="3">
         <v>857000</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="3">
         <v>305949</v>
       </c>
     </row>
@@ -2280,10 +2318,10 @@
       <c r="H19" s="5">
         <v>0.5</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="3">
         <v>602000</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="3">
         <v>322371</v>
       </c>
     </row>
@@ -2309,10 +2347,10 @@
       <c r="H20" s="5">
         <v>0.5</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="3">
         <v>990000</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="3">
         <v>451440</v>
       </c>
     </row>
@@ -2341,10 +2379,10 @@
       <c r="H21" s="5">
         <v>0.4</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="3">
         <v>218000</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="3">
         <v>97337</v>
       </c>
     </row>
@@ -2370,10 +2408,10 @@
       <c r="H22" s="5">
         <v>0.5</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="3">
         <v>416000</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="3">
         <v>175015</v>
       </c>
     </row>
@@ -2399,10 +2437,10 @@
       <c r="H23" s="5">
         <v>0.5</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="3">
         <v>393000</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="3">
         <v>177440</v>
       </c>
     </row>
@@ -2428,10 +2466,10 @@
       <c r="H24" s="5">
         <v>0.4</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="3">
         <v>86000</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="3">
         <v>31046</v>
       </c>
     </row>
@@ -2457,10 +2495,10 @@
       <c r="H25" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="3">
         <v>732000</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="3">
         <v>261324</v>
       </c>
     </row>
@@ -2486,10 +2524,10 @@
       <c r="H26" s="5">
         <v>0.25</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="3">
         <v>492000</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="3">
         <v>116850</v>
       </c>
     </row>
@@ -2515,10 +2553,10 @@
       <c r="H27" s="5">
         <v>0</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="3">
         <v>188000</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2544,10 +2582,10 @@
       <c r="H28" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="3">
         <v>180000</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="3">
         <v>79380</v>
       </c>
     </row>
@@ -2573,10 +2611,10 @@
       <c r="H29" s="5">
         <v>0.4</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="3">
         <v>582000</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="3">
         <v>195231</v>
       </c>
     </row>
@@ -2602,10 +2640,10 @@
       <c r="H30" s="5">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="3">
         <v>562000</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="3">
         <v>74746</v>
       </c>
     </row>
@@ -2634,10 +2672,10 @@
       <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="3">
         <v>293000</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="3">
         <v>273001</v>
       </c>
     </row>
@@ -2663,10 +2701,10 @@
       <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="3">
         <v>68000</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="3">
         <v>64987</v>
       </c>
     </row>
@@ -2692,10 +2730,10 @@
       <c r="H33" s="5">
         <v>0.44444444444444442</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="3">
         <v>224000</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="3">
         <v>57910</v>
       </c>
     </row>
@@ -2721,10 +2759,10 @@
       <c r="H34" s="5">
         <v>0</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="3">
         <v>978000</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2750,10 +2788,10 @@
       <c r="H35" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="3">
         <v>932000</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="3">
         <v>379157</v>
       </c>
     </row>
@@ -2779,10 +2817,10 @@
       <c r="H36" s="5">
         <v>0.25</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="3">
         <v>854000</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="3">
         <v>322812</v>
       </c>
     </row>
@@ -2808,10 +2846,10 @@
       <c r="H37" s="5">
         <v>0.5</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="3">
         <v>81000</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="3">
         <v>38461</v>
       </c>
     </row>
@@ -2837,10 +2875,10 @@
       <c r="H38" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="3">
         <v>169000</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="3">
         <v>136468</v>
       </c>
     </row>
@@ -2866,10 +2904,10 @@
       <c r="H39" s="5">
         <v>0.25</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="3">
         <v>61000</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="3">
         <v>12078</v>
       </c>
     </row>
@@ -2895,10 +2933,10 @@
       <c r="H40" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="3">
         <v>645000</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="3">
         <v>273048</v>
       </c>
     </row>
@@ -2927,10 +2965,10 @@
       <c r="H41" s="5">
         <v>0.5</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="3">
         <v>839000</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="3">
         <v>406974</v>
       </c>
     </row>
@@ -2956,10 +2994,10 @@
       <c r="H42" s="5">
         <v>0.8</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="3">
         <v>729000</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="3">
         <v>487139</v>
       </c>
     </row>
@@ -2985,10 +3023,10 @@
       <c r="H43" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="3">
         <v>826000</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="3">
         <v>298186</v>
       </c>
     </row>
@@ -3014,10 +3052,10 @@
       <c r="H44" s="5">
         <v>0.2857142857142857</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="3">
         <v>895000</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="3">
         <v>280583</v>
       </c>
     </row>
@@ -3043,10 +3081,10 @@
       <c r="H45" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="3">
         <v>341000</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="3">
         <v>129785</v>
       </c>
     </row>
@@ -3054,10 +3092,10 @@
       <c r="A46" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="3">
         <v>19695000</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="3">
         <v>8340291</v>
       </c>
     </row>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F56A3CF-93A6-DE44-8670-5D4643DA7643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596BCDE4-78F6-6042-9939-96D382D30689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -1528,7 +1528,7 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596BCDE4-78F6-6042-9939-96D382D30689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E73CF-8872-814F-A97D-1FF095B6214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -1862,13 +1862,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E73CF-8872-814F-A97D-1FF095B6214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607F2CC-5FA5-A747-8053-46802B5C81CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
-    <sheet name="Dataset" sheetId="1" r:id="rId2"/>
+    <sheet name="Workings" sheetId="4" r:id="rId2"/>
+    <sheet name="Dataset" sheetId="1" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
   <si>
     <t>Project</t>
   </si>
@@ -145,6 +146,21 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Total Tasks</t>
+  </si>
 </sst>
 </file>
 
@@ -188,11 +204,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -201,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -215,6 +240,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1862,7 +1888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3108,6 +3134,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Dashboard!H6:H50, "="&amp;0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIFS(Dashboard!H6:H50, "&lt;&gt;"&amp;0,Dashboard!H6:H50, "&lt;"&amp;1)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(Dashboard!H6:H50, "="&amp;1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B3:B4)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9">
+        <f>SUM(B5:B6)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97670974-E5A2-664C-82DE-A6BD35D73425}">
   <dimension ref="A1:J41"/>
   <sheetViews>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607F2CC-5FA5-A747-8053-46802B5C81CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3EB1D-0060-5843-83DE-B4DB3D529D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="760" windowWidth="17360" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -204,20 +204,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -240,7 +231,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,6 +311,1113 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>OVERALL TASK PROGRESS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7230972084835771E-2"/>
+          <c:y val="9.2854047396391665E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BD"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Started</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0;\-0;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-BD"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4915-7E41-9B8B-FDBCFE6E6C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In Progress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-BD"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4915-7E41-9B8B-FDBCFE6E6C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0;\-0;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-BD"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4915-7E41-9B8B-FDBCFE6E6C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="1614655279"/>
+        <c:axId val="1903939599"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1614655279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1903939599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1903939599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1614655279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.33184683043888474"/>
+          <c:w val="0.73805683450224535"/>
+          <c:h val="0.22613235528421916"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BD"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BD"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>443566</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA32CE28-BBA5-2544-8D6D-0BDA18B37B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -333,8 +1431,8 @@
       <sheetName val="Dashboard Protection"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2" t="str">
@@ -374,9 +1472,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3135,10 +4233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
-  <dimension ref="A3:B7"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3146,53 +4244,51 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>COUNTIF(Dashboard!H6:H50, "="&amp;0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
+      <c r="C3">
         <f>COUNTIFS(Dashboard!H6:H50, "&lt;&gt;"&amp;0,Dashboard!H6:H50, "&lt;"&amp;1)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
+      <c r="D3">
         <f>COUNTIF(Dashboard!H6:H50, "="&amp;1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E3">
+        <f>SUM(B3:C3)</f>
         <v>37</v>
       </c>
-      <c r="B6">
-        <f>SUM(B3:B4)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="9">
-        <f>SUM(B5:B6)</f>
+      <c r="F3">
+        <f>SUM(D3:E3)</f>
         <v>40</v>
       </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3EB1D-0060-5843-83DE-B4DB3D529D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE20D53-AA61-1C44-8F1D-EC4C6571964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="7240" yWindow="760" windowWidth="23000" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -237,27 +237,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
@@ -332,24 +317,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU" sz="1200">
+              <a:rPr lang="en-AU" sz="1600" b="1">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:t>OVERALL TASK PROGRESS</a:t>
@@ -361,8 +346,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.7230972084835771E-2"/>
-          <c:y val="9.2854047396391665E-2"/>
+          <c:x val="4.6857976086322563E-2"/>
+          <c:y val="0.11141354330708661"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -378,14 +363,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -498,7 +483,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4915-7E41-9B8B-FDBCFE6E6C0F}"/>
+              <c16:uniqueId val="{00000000-7DD9-AB4A-B796-3BEC9AB06307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -595,7 +580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4915-7E41-9B8B-FDBCFE6E6C0F}"/>
+              <c16:uniqueId val="{00000001-7DD9-AB4A-B796-3BEC9AB06307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -693,7 +678,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4915-7E41-9B8B-FDBCFE6E6C0F}"/>
+              <c16:uniqueId val="{00000002-7DD9-AB4A-B796-3BEC9AB06307}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -706,7 +691,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="1614655279"/>
         <c:axId val="1903939599"/>
@@ -759,9 +744,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.33184683043888474"/>
+          <c:y val="0.36358785822021117"/>
           <c:w val="0.73805683450224535"/>
-          <c:h val="0.22613235528421916"/>
+          <c:h val="0.21813228346456698"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1379,23 +1364,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>443566</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>186764</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>181500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA32CE28-BBA5-2544-8D6D-0BDA18B37B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071BC0FA-2194-A241-87B3-CB808DA9DF2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,8 +1416,8 @@
       <sheetName val="Dashboard Protection"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="E2" t="str">
@@ -1472,9 +1457,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2101,7 +2086,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A5:J46" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
+  <location ref="A9:J50" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
@@ -2615,7 +2600,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2624,7 +2609,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2633,7 +2618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2671,17 +2656,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="4">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="7">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2984,10 +2969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3004,318 +2989,199 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D10" s="2">
         <v>44620</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E10" s="2">
         <v>44629</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>8</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="I6" s="3">
-        <v>96000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>32256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44622</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44634</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I7" s="3">
-        <v>513000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>226233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44612</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44616</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>616000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>401579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44611</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44614</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>817000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>807069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44613</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44621</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
       <c r="H10" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.375</v>
       </c>
       <c r="I10" s="3">
-        <v>372000</v>
+        <v>96000</v>
       </c>
       <c r="J10" s="3">
-        <v>173166</v>
+        <v>32256</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>44616</v>
+        <v>44622</v>
       </c>
       <c r="E11" s="2">
-        <v>44629</v>
+        <v>44634</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5">
-        <v>0.2</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I11" s="3">
-        <v>50000</v>
+        <v>513000</v>
       </c>
       <c r="J11" s="3">
-        <v>8400</v>
+        <v>226233</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
+        <v>44612</v>
+      </c>
+      <c r="E12" s="2">
         <v>44616</v>
       </c>
-      <c r="E12" s="2">
-        <v>44629</v>
-      </c>
       <c r="F12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="H12" s="5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I12" s="3">
-        <v>807000</v>
+        <v>616000</v>
       </c>
       <c r="J12" s="3">
-        <v>262679</v>
+        <v>401579</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>44616</v>
+        <v>44611</v>
       </c>
       <c r="E13" s="2">
-        <v>44620</v>
+        <v>44614</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>691000</v>
+        <v>817000</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>807069</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
-        <v>44622</v>
+        <v>44613</v>
       </c>
       <c r="E14" s="2">
-        <v>44634</v>
+        <v>44621</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5">
-        <v>0.88888888888888884</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I14" s="3">
-        <v>787000</v>
+        <v>372000</v>
       </c>
       <c r="J14" s="3">
-        <v>727188</v>
+        <v>173166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
-        <v>44622</v>
+        <v>44616</v>
       </c>
       <c r="E15" s="2">
-        <v>44635</v>
+        <v>44629</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -3327,192 +3193,192 @@
         <v>0.2</v>
       </c>
       <c r="I15" s="3">
-        <v>228000</v>
+        <v>50000</v>
       </c>
       <c r="J15" s="3">
-        <v>47880</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="E16" s="2">
-        <v>44614</v>
+        <v>44629</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I16" s="3">
-        <v>147000</v>
+        <v>807000</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>262679</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
-        <v>44611</v>
+        <v>44616</v>
       </c>
       <c r="E17" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>691000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44622</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44634</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3">
         <v>8</v>
       </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="I17" s="3">
-        <v>338000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>205123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>44616</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44629</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
       <c r="H18" s="5">
-        <v>0.3</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I18" s="3">
-        <v>857000</v>
+        <v>787000</v>
       </c>
       <c r="J18" s="3">
-        <v>305949</v>
+        <v>727188</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2">
-        <v>44617</v>
+        <v>44622</v>
       </c>
       <c r="E19" s="2">
-        <v>44626</v>
+        <v>44635</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="3">
-        <v>602000</v>
+        <v>228000</v>
       </c>
       <c r="J19" s="3">
-        <v>322371</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>44617</v>
+        <v>44609</v>
       </c>
       <c r="E20" s="2">
-        <v>44622</v>
+        <v>44614</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>990000</v>
+        <v>147000</v>
       </c>
       <c r="J20" s="3">
-        <v>451440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>44609</v>
+        <v>44611</v>
       </c>
       <c r="E21" s="2">
-        <v>44615</v>
+        <v>44621</v>
       </c>
       <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
       <c r="H21" s="5">
-        <v>0.4</v>
+        <v>0.625</v>
       </c>
       <c r="I21" s="3">
-        <v>218000</v>
+        <v>338000</v>
       </c>
       <c r="J21" s="3">
-        <v>97337</v>
+        <v>205123</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -3521,36 +3387,36 @@
         <v>44616</v>
       </c>
       <c r="E22" s="2">
-        <v>44623</v>
+        <v>44629</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>3</v>
       </c>
       <c r="H22" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I22" s="3">
-        <v>416000</v>
+        <v>857000</v>
       </c>
       <c r="J22" s="3">
-        <v>175015</v>
+        <v>305949</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="E23" s="2">
-        <v>44616</v>
+        <v>44626</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -3562,343 +3428,346 @@
         <v>0.5</v>
       </c>
       <c r="I23" s="3">
-        <v>393000</v>
+        <v>602000</v>
       </c>
       <c r="J23" s="3">
-        <v>177440</v>
+        <v>322371</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
-        <v>44610</v>
+        <v>44617</v>
       </c>
       <c r="E24" s="2">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>990000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>451440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="3">
-        <v>4</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44615</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
         <v>0.4</v>
       </c>
-      <c r="I24" s="3">
-        <v>86000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>31046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2">
-        <v>44613</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44623</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25" s="3">
-        <v>3</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="I25" s="3">
-        <v>732000</v>
+        <v>218000</v>
       </c>
       <c r="J25" s="3">
-        <v>261324</v>
+        <v>97337</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="E26" s="2">
-        <v>44614</v>
+        <v>44623</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="3">
-        <v>492000</v>
+        <v>416000</v>
       </c>
       <c r="J26" s="3">
-        <v>116850</v>
+        <v>175015</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2">
-        <v>44612</v>
+        <v>44609</v>
       </c>
       <c r="E27" s="2">
-        <v>44619</v>
+        <v>44616</v>
       </c>
       <c r="F27">
         <v>6</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="3">
-        <v>188000</v>
+        <v>393000</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>177440</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2">
-        <v>44612</v>
+        <v>44610</v>
       </c>
       <c r="E28" s="2">
-        <v>44620</v>
+        <v>44623</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.4</v>
       </c>
       <c r="I28" s="3">
-        <v>180000</v>
+        <v>86000</v>
       </c>
       <c r="J28" s="3">
-        <v>79380</v>
+        <v>31046</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2">
-        <v>44616</v>
+        <v>44613</v>
       </c>
       <c r="E29" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="5">
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I29" s="3">
-        <v>582000</v>
+        <v>732000</v>
       </c>
       <c r="J29" s="3">
-        <v>195231</v>
+        <v>261324</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="E30" s="2">
-        <v>44628</v>
+        <v>44614</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="I30" s="3">
-        <v>562000</v>
+        <v>492000</v>
       </c>
       <c r="J30" s="3">
-        <v>74746</v>
+        <v>116850</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="2">
-        <v>44610</v>
+        <v>44612</v>
       </c>
       <c r="E31" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>293000</v>
+        <v>188000</v>
       </c>
       <c r="J31" s="3">
-        <v>273001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="E32" s="2">
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G32" s="3">
         <v>3</v>
       </c>
       <c r="H32" s="5">
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I32" s="3">
-        <v>68000</v>
+        <v>180000</v>
       </c>
       <c r="J32" s="3">
-        <v>64987</v>
+        <v>79380</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="E33" s="2">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G33" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="5">
-        <v>0.44444444444444442</v>
+        <v>0.4</v>
       </c>
       <c r="I33" s="3">
-        <v>224000</v>
+        <v>582000</v>
       </c>
       <c r="J33" s="3">
-        <v>57910</v>
+        <v>195231</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44628</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I34" s="3">
+        <v>562000</v>
+      </c>
+      <c r="J34" s="3">
+        <v>74746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2">
         <v>44610</v>
-      </c>
-      <c r="E34" s="2">
-        <v>44621</v>
-      </c>
-      <c r="F34">
-        <v>8</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>978000</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2">
-        <v>44612</v>
       </c>
       <c r="E35" s="2">
         <v>44620</v>
@@ -3907,262 +3776,259 @@
         <v>7</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H35" s="5">
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
       <c r="I35" s="3">
-        <v>932000</v>
+        <v>293000</v>
       </c>
       <c r="J35" s="3">
-        <v>379157</v>
+        <v>273001</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E36" s="2">
         <v>44613</v>
       </c>
-      <c r="E36" s="2">
-        <v>44616</v>
-      </c>
       <c r="F36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="H36" s="5">
-        <v>0.25</v>
-      </c>
       <c r="I36" s="3">
-        <v>854000</v>
+        <v>68000</v>
       </c>
       <c r="J36" s="3">
-        <v>322812</v>
+        <v>64987</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>44613</v>
+        <v>44609</v>
       </c>
       <c r="E37" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37" s="5">
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I37" s="3">
-        <v>81000</v>
+        <v>224000</v>
       </c>
       <c r="J37" s="3">
-        <v>38461</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
-        <v>44616</v>
+        <v>44610</v>
       </c>
       <c r="E38" s="2">
-        <v>44623</v>
+        <v>44621</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>169000</v>
+        <v>978000</v>
       </c>
       <c r="J38" s="3">
-        <v>136468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2">
-        <v>44617</v>
+        <v>44612</v>
       </c>
       <c r="E39" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I39" s="3">
-        <v>61000</v>
+        <v>932000</v>
       </c>
       <c r="J39" s="3">
-        <v>12078</v>
+        <v>379157</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2">
-        <v>44619</v>
+        <v>44613</v>
       </c>
       <c r="E40" s="2">
-        <v>44627</v>
+        <v>44616</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G40" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.25</v>
       </c>
       <c r="I40" s="3">
-        <v>645000</v>
+        <v>854000</v>
       </c>
       <c r="J40" s="3">
-        <v>273048</v>
+        <v>322812</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2">
-        <v>44609</v>
+        <v>44613</v>
       </c>
       <c r="E41" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41" s="5">
         <v>0.5</v>
       </c>
       <c r="I41" s="3">
-        <v>839000</v>
+        <v>81000</v>
       </c>
       <c r="J41" s="3">
-        <v>406974</v>
+        <v>38461</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="2">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="E42" s="2">
-        <v>44619</v>
+        <v>44623</v>
       </c>
       <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>4</v>
-      </c>
       <c r="H42" s="5">
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I42" s="3">
-        <v>729000</v>
+        <v>169000</v>
       </c>
       <c r="J42" s="3">
-        <v>487139</v>
+        <v>136468</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="E43" s="2">
-        <v>44626</v>
+        <v>44622</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.25</v>
       </c>
       <c r="I43" s="3">
-        <v>826000</v>
+        <v>61000</v>
       </c>
       <c r="J43" s="3">
-        <v>298186</v>
+        <v>12078</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="2">
-        <v>44618</v>
+        <v>44619</v>
       </c>
       <c r="E44" s="2">
         <v>44627</v>
@@ -4171,55 +4037,174 @@
         <v>7</v>
       </c>
       <c r="G44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I44" s="3">
-        <v>895000</v>
+        <v>645000</v>
       </c>
       <c r="J44" s="3">
-        <v>280583</v>
+        <v>273048</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2">
-        <v>44620</v>
+        <v>44609</v>
       </c>
       <c r="E45" s="2">
         <v>44622</v>
       </c>
       <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>839000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>406974</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44619</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>729000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>487139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44626</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H47" s="5">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I47" s="3">
+        <v>826000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>298186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44618</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44627</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" s="3">
         <v>2</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H48" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I48" s="3">
+        <v>895000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>280583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2</v>
+      </c>
+      <c r="H49" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I49" s="3">
         <v>341000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J49" s="3">
         <v>129785</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I50" s="3">
         <v>19695000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J50" s="3">
         <v>8340291</v>
       </c>
     </row>
@@ -4228,6 +4213,7 @@
     <mergeCell ref="A1:XFD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4235,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4263,15 +4249,15 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <f>COUNTIF(Dashboard!H6:H50, "="&amp;0)</f>
+        <f>COUNTIF(Dashboard!H10:H54, "="&amp;0)</f>
         <v>4</v>
       </c>
       <c r="C3">
-        <f>COUNTIFS(Dashboard!H6:H50, "&lt;&gt;"&amp;0,Dashboard!H6:H50, "&lt;"&amp;1)</f>
+        <f>COUNTIFS(Dashboard!H10:H54, "&lt;&gt;"&amp;0,Dashboard!H10:H54, "&lt;"&amp;1)</f>
         <v>33</v>
       </c>
       <c r="D3">
-        <f>COUNTIF(Dashboard!H6:H50, "="&amp;1)</f>
+        <f>COUNTIF(Dashboard!H10:H54, "="&amp;1)</f>
         <v>3</v>
       </c>
       <c r="E3">
@@ -4288,7 +4274,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE20D53-AA61-1C44-8F1D-EC4C6571964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F19BB-5BF4-7F48-8FBA-E092A64920BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="760" windowWidth="23000" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="13520" yWindow="760" windowWidth="16720" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </externalReferences>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="44">
   <si>
     <t>Project</t>
   </si>
@@ -147,6 +147,9 @@
     <t>Grand Total</t>
   </si>
   <si>
+    <t>Sum of Duration</t>
+  </si>
+  <si>
     <t>Not Started</t>
   </si>
   <si>
@@ -160,6 +163,18 @@
   </si>
   <si>
     <t>Total Tasks</t>
+  </si>
+  <si>
+    <t>Sum of Days completed</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Days Completed</t>
+  </si>
+  <si>
+    <t>Days Remaining</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,6 +245,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -2085,7 +2104,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A9:J50" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -2649,6 +2668,51 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BFD054C-FC60-7949-A08A-A713A0535ED3}" name="PivotTable3" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Days completed" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Duration" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0736C60-3115-3B4B-9BB9-B8998762F286}" name="Project_Data" displayName="Project_Data" ref="A1:J41" totalsRowShown="0">
   <autoFilter ref="A1:J41" xr:uid="{D0736C60-3115-3B4B-9BB9-B8998762F286}"/>
@@ -2971,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4219,35 +4283,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>COUNTIF(Dashboard!H10:H54, "="&amp;0)</f>
         <v>4</v>
@@ -4268,9 +4338,37 @@
         <f>SUM(D3:E3)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
+      <c r="I3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="9">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="4">
+        <f>GETPIVOTDATA("Sum of Days completed",$I$2)/GETPIVOTDATA("Sum of Duration",$I$2)</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="9">
+        <v>266</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="4">
+        <f>1-M3</f>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F19BB-5BF4-7F48-8FBA-E092A64920BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944E3CE-62B3-E34A-8C54-12F18FA7AE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="760" windowWidth="16720" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="6840" yWindow="760" windowWidth="23400" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -834,7 +834,250 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1636788776305544E-2"/>
+          <c:y val="0.42448683138745585"/>
+          <c:w val="0.74638489336073122"/>
+          <c:h val="0.57551316861254409"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DEB3-8743-9BB4-9C4833D94213}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DEB3-8743-9BB4-9C4833D94213}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Days Completed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Days Remaining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$M$3:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.42105263157894735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57894736842105265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DEB3-8743-9BB4-9C4833D94213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11571671508538227"/>
+          <c:y val="2.1427504751561233E-2"/>
+          <c:w val="0.75540341880341877"/>
+          <c:h val="0.30492552874590406"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BD"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BD"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1379,6 +1622,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1419,7 +2181,109 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF96A42-B55E-8B4F-9311-0D6F80F42C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31121</cdr:x>
+      <cdr:y>0.62949</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70198</cdr:x>
+      <cdr:y>0.91322</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="Workings!$M$3">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AF83B0-2627-A98E-7C1F-D4A34C2ED878}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="439212" y="927370"/>
+          <a:ext cx="551494" cy="417991"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{3FE2C2E2-BA6A-B74A-A06B-0163A021B10D}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>42%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-GB" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,7 +2969,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A9:J50" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
+  <location ref="A10:J51" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
@@ -3033,10 +3897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3054,221 +3918,192 @@
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>44620</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>44629</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <v>0.375</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>96000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>32256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44622</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44634</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I11" s="3">
-        <v>513000</v>
-      </c>
-      <c r="J11" s="3">
-        <v>226233</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>44612</v>
+        <v>44622</v>
       </c>
       <c r="E12" s="2">
-        <v>44616</v>
+        <v>44634</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="5">
-        <v>0.6</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I12" s="3">
-        <v>616000</v>
+        <v>513000</v>
       </c>
       <c r="J12" s="3">
-        <v>401579</v>
+        <v>226233</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>44611</v>
+        <v>44612</v>
       </c>
       <c r="E13" s="2">
-        <v>44614</v>
+        <v>44616</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" s="5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I13" s="3">
-        <v>817000</v>
+        <v>616000</v>
       </c>
       <c r="J13" s="3">
-        <v>807069</v>
+        <v>401579</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>44613</v>
+        <v>44611</v>
       </c>
       <c r="E14" s="2">
-        <v>44621</v>
+        <v>44614</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
       </c>
       <c r="H14" s="5">
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>372000</v>
+        <v>817000</v>
       </c>
       <c r="J14" s="3">
-        <v>173166</v>
+        <v>807069</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>44616</v>
+        <v>44613</v>
       </c>
       <c r="E15" s="2">
-        <v>44629</v>
+        <v>44621</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="5">
-        <v>0.2</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I15" s="3">
-        <v>50000</v>
+        <v>372000</v>
       </c>
       <c r="J15" s="3">
-        <v>8400</v>
+        <v>173166</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <v>44616</v>
@@ -3280,326 +4115,326 @@
         <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="3">
-        <v>807000</v>
+        <v>50000</v>
       </c>
       <c r="J16" s="3">
-        <v>262679</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
         <v>44616</v>
       </c>
       <c r="E17" s="2">
+        <v>44629</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>807000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>262679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E18" s="2">
         <v>44620</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I18" s="3">
         <v>691000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>12</v>
-      </c>
-      <c r="D18" s="2">
-        <v>44622</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44634</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3">
-        <v>8</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="I18" s="3">
-        <v>787000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>727188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
       </c>
       <c r="D19" s="2">
         <v>44622</v>
       </c>
       <c r="E19" s="2">
-        <v>44635</v>
+        <v>44634</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H19" s="5">
-        <v>0.2</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I19" s="3">
-        <v>228000</v>
+        <v>787000</v>
       </c>
       <c r="J19" s="3">
-        <v>47880</v>
+        <v>727188</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2">
-        <v>44609</v>
+        <v>44622</v>
       </c>
       <c r="E20" s="2">
-        <v>44614</v>
+        <v>44635</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="3">
-        <v>147000</v>
+        <v>228000</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>44611</v>
+        <v>44609</v>
       </c>
       <c r="E21" s="2">
-        <v>44621</v>
+        <v>44614</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>338000</v>
+        <v>147000</v>
       </c>
       <c r="J21" s="3">
-        <v>205123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>44616</v>
+        <v>44611</v>
       </c>
       <c r="E22" s="2">
-        <v>44629</v>
+        <v>44621</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" s="5">
-        <v>0.3</v>
+        <v>0.625</v>
       </c>
       <c r="I22" s="3">
-        <v>857000</v>
+        <v>338000</v>
       </c>
       <c r="J22" s="3">
-        <v>305949</v>
+        <v>205123</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="E23" s="2">
-        <v>44626</v>
+        <v>44629</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3">
         <v>3</v>
       </c>
       <c r="H23" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I23" s="3">
-        <v>602000</v>
+        <v>857000</v>
       </c>
       <c r="J23" s="3">
-        <v>322371</v>
+        <v>305949</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2">
         <v>44617</v>
       </c>
       <c r="E24" s="2">
-        <v>44622</v>
+        <v>44626</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="5">
         <v>0.5</v>
       </c>
       <c r="I24" s="3">
-        <v>990000</v>
+        <v>602000</v>
       </c>
       <c r="J24" s="3">
-        <v>451440</v>
+        <v>322371</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2">
-        <v>44609</v>
+        <v>44617</v>
       </c>
       <c r="E25" s="2">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
         <v>2</v>
       </c>
       <c r="H25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>990000</v>
+      </c>
+      <c r="J25" s="3">
+        <v>451440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44609</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44615</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
         <v>0.4</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="3">
         <v>218000</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J26" s="3">
         <v>97337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2">
-        <v>44616</v>
-      </c>
-      <c r="E26" s="2">
-        <v>44623</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="3">
-        <v>416000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>175015</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="E27" s="2">
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -3611,664 +4446,693 @@
         <v>0.5</v>
       </c>
       <c r="I27" s="3">
-        <v>393000</v>
+        <v>416000</v>
       </c>
       <c r="J27" s="3">
-        <v>177440</v>
+        <v>175015</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="E28" s="2">
-        <v>44623</v>
+        <v>44616</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I28" s="3">
-        <v>86000</v>
+        <v>393000</v>
       </c>
       <c r="J28" s="3">
-        <v>31046</v>
+        <v>177440</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2">
-        <v>44613</v>
+        <v>44610</v>
       </c>
       <c r="E29" s="2">
         <v>44623</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="5">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="I29" s="3">
-        <v>732000</v>
+        <v>86000</v>
       </c>
       <c r="J29" s="3">
-        <v>261324</v>
+        <v>31046</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2">
-        <v>44609</v>
+        <v>44613</v>
       </c>
       <c r="E30" s="2">
-        <v>44614</v>
+        <v>44623</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="5">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I30" s="3">
-        <v>492000</v>
+        <v>732000</v>
       </c>
       <c r="J30" s="3">
-        <v>116850</v>
+        <v>261324</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>44612</v>
+        <v>44609</v>
       </c>
       <c r="E31" s="2">
-        <v>44619</v>
+        <v>44614</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I31" s="3">
-        <v>188000</v>
+        <v>492000</v>
       </c>
       <c r="J31" s="3">
-        <v>0</v>
+        <v>116850</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
         <v>44612</v>
       </c>
       <c r="E32" s="2">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" s="5">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>180000</v>
+        <v>188000</v>
       </c>
       <c r="J32" s="3">
-        <v>79380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
-        <v>44616</v>
+        <v>44612</v>
       </c>
       <c r="E33" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G33" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5">
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I33" s="3">
-        <v>582000</v>
+        <v>180000</v>
       </c>
       <c r="J33" s="3">
-        <v>195231</v>
+        <v>79380</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
         <v>44616</v>
       </c>
       <c r="E34" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I34" s="3">
+        <v>582000</v>
+      </c>
+      <c r="J34" s="3">
+        <v>195231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44616</v>
+      </c>
+      <c r="E35" s="2">
         <v>44628</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>9</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H35" s="5">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I35" s="3">
         <v>562000</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J35" s="3">
         <v>74746</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>44610</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="2">
         <v>44620</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>7</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="3">
         <v>7</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
-        <v>293000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>273001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="2">
-        <v>44609</v>
-      </c>
-      <c r="E36" s="2">
-        <v>44613</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" s="3">
-        <v>3</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>68000</v>
+        <v>293000</v>
       </c>
       <c r="J36" s="3">
-        <v>64987</v>
+        <v>273001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>44609</v>
       </c>
       <c r="E37" s="2">
-        <v>44621</v>
+        <v>44613</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="5">
-        <v>0.44444444444444442</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
-        <v>224000</v>
+        <v>68000</v>
       </c>
       <c r="J37" s="3">
-        <v>57910</v>
+        <v>64987</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="E38" s="2">
         <v>44621</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="5">
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I38" s="3">
-        <v>978000</v>
+        <v>224000</v>
       </c>
       <c r="J38" s="3">
-        <v>0</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2">
-        <v>44612</v>
+        <v>44610</v>
       </c>
       <c r="E39" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" s="5">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>932000</v>
+        <v>978000</v>
       </c>
       <c r="J39" s="3">
-        <v>379157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="E40" s="2">
-        <v>44616</v>
+        <v>44620</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I40" s="3">
-        <v>854000</v>
+        <v>932000</v>
       </c>
       <c r="J40" s="3">
-        <v>322812</v>
+        <v>379157</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2">
         <v>44613</v>
       </c>
       <c r="E41" s="2">
-        <v>44620</v>
+        <v>44616</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I41" s="3">
-        <v>81000</v>
+        <v>854000</v>
       </c>
       <c r="J41" s="3">
-        <v>38461</v>
+        <v>322812</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2">
-        <v>44616</v>
+        <v>44613</v>
       </c>
       <c r="E42" s="2">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="F42">
         <v>6</v>
       </c>
       <c r="G42" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42" s="5">
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="I42" s="3">
-        <v>169000</v>
+        <v>81000</v>
       </c>
       <c r="J42" s="3">
-        <v>136468</v>
+        <v>38461</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="E43" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H43" s="5">
-        <v>0.25</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I43" s="3">
-        <v>61000</v>
+        <v>169000</v>
       </c>
       <c r="J43" s="3">
-        <v>12078</v>
+        <v>136468</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I44" s="3">
+        <v>61000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>12078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>44619</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="2">
         <v>44627</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>7</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="3">
         <v>3</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H45" s="5">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="3">
         <v>645000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J45" s="3">
         <v>273048</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>44609</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E46" s="2">
         <v>44622</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>10</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="3">
         <v>5</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H46" s="5">
         <v>0.5</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I46" s="3">
         <v>839000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J46" s="3">
         <v>406974</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2">
-        <v>44613</v>
-      </c>
-      <c r="E46" s="2">
-        <v>44619</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>4</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>729000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>487139</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2">
-        <v>44616</v>
+        <v>44613</v>
       </c>
       <c r="E47" s="2">
-        <v>44626</v>
+        <v>44619</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.8</v>
       </c>
       <c r="I47" s="3">
-        <v>826000</v>
+        <v>729000</v>
       </c>
       <c r="J47" s="3">
-        <v>298186</v>
+        <v>487139</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2">
-        <v>44618</v>
+        <v>44616</v>
       </c>
       <c r="E48" s="2">
-        <v>44627</v>
+        <v>44626</v>
       </c>
       <c r="F48">
         <v>7</v>
       </c>
       <c r="G48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="5">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I48" s="3">
-        <v>895000</v>
+        <v>826000</v>
       </c>
       <c r="J48" s="3">
-        <v>280583</v>
+        <v>298186</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="E49" s="2">
-        <v>44622</v>
+        <v>44627</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" s="3">
         <v>2</v>
       </c>
       <c r="H49" s="5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I49" s="3">
+        <v>895000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>280583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44622</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2</v>
+      </c>
+      <c r="H50" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I50" s="3">
         <v>341000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J50" s="3">
         <v>129785</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I51" s="3">
         <v>19695000</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J51" s="3">
         <v>8340291</v>
       </c>
     </row>
@@ -4285,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
   <dimension ref="B2:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4319,15 +5183,15 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3">
-        <f>COUNTIF(Dashboard!H10:H54, "="&amp;0)</f>
+        <f>COUNTIF(Dashboard!H11:H55, "="&amp;0)</f>
         <v>4</v>
       </c>
       <c r="C3">
-        <f>COUNTIFS(Dashboard!H10:H54, "&lt;&gt;"&amp;0,Dashboard!H10:H54, "&lt;"&amp;1)</f>
+        <f>COUNTIFS(Dashboard!H11:H55, "&lt;&gt;"&amp;0,Dashboard!H11:H55, "&lt;"&amp;1)</f>
         <v>33</v>
       </c>
       <c r="D3">
-        <f>COUNTIF(Dashboard!H10:H54, "="&amp;1)</f>
+        <f>COUNTIF(Dashboard!H11:H55, "="&amp;1)</f>
         <v>3</v>
       </c>
       <c r="E3">

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1944E3CE-62B3-E34A-8C54-12F18FA7AE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EDDA67-E3E7-E248-A17E-80D53A3F3B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="760" windowWidth="23400" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -304,6 +304,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8A84"/>
+      <color rgb="FFFF85FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -420,11 +426,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF8A84"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -530,6 +536,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF8A84"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF8A84"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7DD9-AB4A-B796-3BEC9AB06307}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -619,10 +646,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -891,7 +920,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF8A84"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -986,7 +1015,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -3603,7 +3632,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Median">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3611,34 +3640,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="775F55"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EBDDC3"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="94B6D2"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="DD8047"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="A5AB81"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="D8B25C"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="7BA79D"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="968C8C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="F7B615"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="704404"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -3899,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EDDA67-E3E7-E248-A17E-80D53A3F3B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBCEAED-F3D4-E94B-9135-173355EAEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="760" windowWidth="23400" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="6900" yWindow="760" windowWidth="23400" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </externalReferences>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="15" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="44">
   <si>
     <t>Project</t>
   </si>
@@ -181,8 +181,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.0,,\M;\-0.0,,\M"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -232,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,6 +252,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2997,7 +2999,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A10:J51" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3562,7 +3564,52 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BFD054C-FC60-7949-A08A-A713A0535ED3}" name="PivotTable3" cacheId="14" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC0C1C-71D5-2447-BF2E-80B6A5A74F04}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="P3:Q4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="168"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BFD054C-FC60-7949-A08A-A713A0535ED3}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -3928,7 +3975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -5176,10 +5223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
-  <dimension ref="B2:M6"/>
+  <dimension ref="B2:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5188,9 +5235,11 @@
     <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -5210,7 +5259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>COUNTIF(Dashboard!H11:H55, "="&amp;0)</f>
         <v>4</v>
@@ -5244,8 +5293,14 @@
         <f>GETPIVOTDATA("Sum of Days completed",$I$2)/GETPIVOTDATA("Sum of Duration",$I$2)</f>
         <v>0.42105263157894735</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
@@ -5259,8 +5314,14 @@
         <f>1-M3</f>
         <v>0.57894736842105265</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="P4" s="12">
+        <v>8340291</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>19695000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
   </sheetData>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBCEAED-F3D4-E94B-9135-173355EAEE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787AAEE0-5716-1545-9267-811CC57FF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="760" windowWidth="23400" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
   <si>
     <t>Project</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Days Remaining</t>
+  </si>
+  <si>
+    <t>Bar Chart</t>
+  </si>
+  <si>
+    <t>Donut Chart</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -574,7 +580,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -674,7 +680,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -812,7 +818,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1068,6 +1074,217 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>BUDGET SPENT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BD"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26685496570993145"/>
+          <c:y val="0.31177718487668382"/>
+          <c:w val="0.4340320040640081"/>
+          <c:h val="0.49466882816118574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1BEC-804B-9600-331C47C0760B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF8A84"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1BEC-804B-9600-331C47C0760B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$Q$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.42347250571210965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57652749428789041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BEC-804B-9600-331C47C0760B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BD"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1148,6 +1365,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1654,6 +1911,525 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2250,6 +3026,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784C1953-06C7-404D-ADD1-10CBB543029B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2303,6 +3117,70 @@
             <a:t>42%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.3805</cdr:x>
+      <cdr:y>0.48522</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.76273</cdr:x>
+      <cdr:y>0.8257</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="Workings!$Q$5">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36377A82-3224-EB66-2AB3-E108E84A5385}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="749011" y="881199"/>
+          <a:ext cx="752420" cy="618346"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{BC8F8BFE-F14C-7546-AF15-50B0671166F0}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>42%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="65000"/>
@@ -3565,7 +4443,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC0C1C-71D5-2447-BF2E-80B6A5A74F04}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="P3:Q4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <location ref="Q3:R4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3975,8 +4853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5223,10 +6101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
-  <dimension ref="B2:Q6"/>
+  <dimension ref="B2:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5235,11 +6113,11 @@
     <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -5259,7 +6137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>COUNTIF(Dashboard!H11:H55, "="&amp;0)</f>
         <v>4</v>
@@ -5293,14 +6171,14 @@
         <f>GETPIVOTDATA("Sum of Days completed",$I$2)/GETPIVOTDATA("Sum of Duration",$I$2)</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
@@ -5314,14 +6192,30 @@
         <f>1-M3</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="12">
         <v>8340291</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="R4" s="12">
         <v>19695000</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>GETPIVOTDATA("Actual ",$Q$3)/GETPIVOTDATA("Budget ",$Q$3)</f>
+        <v>0.42347250571210965</v>
+      </c>
+      <c r="R5" s="4">
+        <f>1-Q5</f>
+        <v>0.57652749428789041</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
   </sheetData>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787AAEE0-5716-1545-9267-811CC57FF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5F9D9E-0E11-4949-B16F-C4C130023279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -1285,6 +1285,1136 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Multiple Project Progress Management.xlsx]Workings!PivotTable4</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
+              </a:rPr>
+              <a:t>BUDGET VS ACTUAL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8509264037555559E-2"/>
+          <c:y val="6.6204944891271975E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Britannic Bold" panose="020B0903060703020204" pitchFamily="34" charset="77"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BD"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF8A84"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF8A84"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF8A84"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF8A84"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF8A84"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF8A84"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BD"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+</c:separator>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6511627906976744E-2"/>
+          <c:y val="0.37987836886242876"/>
+          <c:w val="0.90697674418604646"/>
+          <c:h val="0.55508098073106704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5C72-4D46-9888-220B9196E5EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-BD"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0,,\M;\-0.0,,\M</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8340291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C72-4D46-9888-220B9196E5EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Workings!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF8A84"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5C72-4D46-9888-220B9196E5EF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-BD"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Workings!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Workings!$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0,,\M;\-0.0,,\M</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19695000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C72-4D46-9888-220B9196E5EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-30"/>
+        <c:axId val="2042557552"/>
+        <c:axId val="2042265504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2042557552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2042265504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2042265504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0,,\M;\-0.0,,\M" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2042557552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BD"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1405,6 +2535,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2606,6 +3776,511 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3064,6 +4739,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EEADD4-20BF-DC41-9A30-F226C92EEBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3135,12 +4848,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.3805</cdr:x>
-      <cdr:y>0.48522</cdr:y>
+      <cdr:x>0.37405</cdr:x>
+      <cdr:y>0.49221</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.76273</cdr:x>
-      <cdr:y>0.8257</cdr:y>
+      <cdr:x>0.75628</cdr:x>
+      <cdr:y>0.83269</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="Workings!$Q$5">
       <cdr:nvSpPr>
@@ -3155,7 +4868,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="749011" y="881199"/>
+          <a:off x="736311" y="893899"/>
           <a:ext cx="752420" cy="618346"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -4442,7 +6155,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC0C1C-71D5-2447-BF2E-80B6A5A74F04}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC0C1C-71D5-2447-BF2E-80B6A5A74F04}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="Q3:R4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -4474,6 +6187,134 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="168"/>
     <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
+  <chartFormats count="14">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4854,7 +6695,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6103,8 +7944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
   <dimension ref="B2:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5F9D9E-0E11-4949-B16F-C4C130023279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4861F09-A61C-A849-8BA7-69E376771CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="5100" yWindow="760" windowWidth="25140" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -20,11 +20,24 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="Slicer_Manager">#N/A</definedName>
+    <definedName name="Slicer_Project">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="15" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -264,7 +277,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -4777,6 +4802,162 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Project">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C593B1BF-D3B4-ED98-12DA-D07A1DCDC08C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Project"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="76200" y="812800"/>
+              <a:ext cx="3479800" cy="774700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Manager">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D25168-AF9F-78D9-BD0F-C1A005DD71A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Manager"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3733800" y="812800"/>
+              <a:ext cx="3761650" cy="774700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5098,7 +5279,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1718326313"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6105,7 +6286,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6114,7 +6295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6123,7 +6304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6132,7 +6313,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6372,6 +6553,51 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Project" xr10:uid="{9EF967C5-BC98-5340-BB32-BFAC0DF0F8C4}" sourceName="Project">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1718326313">
+      <items count="5">
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Manager" xr10:uid="{978C6F23-8125-2640-A99C-52F8BB22D398}" sourceName="Manager">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1718326313">
+      <items count="5">
+        <i x="0" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Project" xr10:uid="{40278B86-7F81-3B47-A35F-6B59D57646AB}" cache="Slicer_Project" caption="Project" columnCount="5" rowHeight="255600"/>
+  <slicer name="Manager" xr10:uid="{90F1F47E-BEF9-4B4F-9E49-C7D1AE3FCB94}" cache="Slicer_Manager" caption="Manager" columnCount="5" rowHeight="251883"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0736C60-3115-3B4B-9BB9-B8998762F286}" name="Project_Data" displayName="Project_Data" ref="A1:J41" totalsRowShown="0">
   <autoFilter ref="A1:J41" xr:uid="{D0736C60-3115-3B4B-9BB9-B8998762F286}"/>
@@ -6379,17 +6605,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="8">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="11">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6695,7 +6921,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7937,6 +8163,13 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4861F09-A61C-A849-8BA7-69E376771CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A17518-B785-DF43-9A54-9850DAC85D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="760" windowWidth="25140" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -277,7 +277,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
@@ -6286,7 +6310,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6295,7 +6319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6304,7 +6328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6313,7 +6337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6339,9 +6363,27 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC0C1C-71D5-2447-BF2E-80B6A5A74F04}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="Q3:R4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -6512,9 +6554,27 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BFD054C-FC60-7949-A08A-A713A0535ED3}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -6557,6 +6617,8 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Project" xr10:uid="{9EF967C5-BC98-5340-BB32-BFAC0DF0F8C4}" sourceName="Project">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="4" name="PivotTable3"/>
+    <pivotTable tabId="4" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1718326313">
@@ -6576,6 +6638,8 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Manager" xr10:uid="{978C6F23-8125-2640-A99C-52F8BB22D398}" sourceName="Manager">
   <pivotTables>
     <pivotTable tabId="3" name="PivotTable2"/>
+    <pivotTable tabId="4" name="PivotTable3"/>
+    <pivotTable tabId="4" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1718326313">
@@ -6605,17 +6669,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="16">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="19">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6921,7 +6985,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8187,8 +8251,8 @@
     <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A17518-B785-DF43-9A54-9850DAC85D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BED600-9988-5F4A-9082-804571F4BAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="760" windowWidth="25140" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -277,7 +277,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="34">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
@@ -615,6 +651,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="0;\-0;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6310,7 +6347,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6319,7 +6356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6328,7 +6365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6337,7 +6374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="24">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6669,17 +6706,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="28">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="19">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="31">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6984,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BED600-9988-5F4A-9082-804571F4BAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D0E065-58D9-E848-9158-2C4F65B908B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="760" windowWidth="25140" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -263,15 +263,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4713,16 +4719,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>181500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>194200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4751,16 +4757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>458800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4789,15 +4795,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4827,16 +4833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4867,13 +4873,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4910,7 +4916,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="76200" y="812800"/>
+              <a:off x="76200" y="774700"/>
               <a:ext cx="3479800" cy="774700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4945,13 +4951,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>472350</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4988,7 +4994,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3733800" y="812800"/>
+              <a:off x="3733800" y="774700"/>
               <a:ext cx="3761650" cy="774700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5833,7 +5839,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A10:J51" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
+  <location ref="A8:J49" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="5">
@@ -6447,7 +6453,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="168"/>
     <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
-  <chartFormats count="14">
+  <chartFormats count="10">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6498,42 +6504,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -7019,10 +6989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7031,1237 +7001,1234 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="10.83203125" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44629</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="I9" s="3">
+        <v>96000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>32256</v>
+      </c>
+    </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44622</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44634</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
+      <c r="H10" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I10" s="3">
+        <v>513000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>226233</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>44620</v>
+        <v>44612</v>
       </c>
       <c r="E11" s="2">
-        <v>44629</v>
+        <v>44616</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" s="5">
-        <v>0.375</v>
+        <v>0.6</v>
       </c>
       <c r="I11" s="3">
-        <v>96000</v>
+        <v>616000</v>
       </c>
       <c r="J11" s="3">
-        <v>32256</v>
+        <v>401579</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>44622</v>
+        <v>44611</v>
       </c>
       <c r="E12" s="2">
-        <v>44634</v>
+        <v>44614</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5">
-        <v>0.44444444444444442</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>513000</v>
+        <v>817000</v>
       </c>
       <c r="J12" s="3">
-        <v>226233</v>
+        <v>807069</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="E13" s="2">
-        <v>44616</v>
+        <v>44621</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" s="5">
-        <v>0.6</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I13" s="3">
-        <v>616000</v>
+        <v>372000</v>
       </c>
       <c r="J13" s="3">
-        <v>401579</v>
+        <v>173166</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>44611</v>
+        <v>44616</v>
       </c>
       <c r="E14" s="2">
-        <v>44614</v>
+        <v>44629</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I14" s="3">
-        <v>817000</v>
+        <v>50000</v>
       </c>
       <c r="J14" s="3">
-        <v>807069</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="E15" s="2">
-        <v>44621</v>
+        <v>44629</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
       </c>
       <c r="H15" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="3">
-        <v>372000</v>
+        <v>807000</v>
       </c>
       <c r="J15" s="3">
-        <v>173166</v>
+        <v>262679</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>44616</v>
       </c>
       <c r="E16" s="2">
-        <v>44629</v>
+        <v>44620</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>50000</v>
+        <v>691000</v>
       </c>
       <c r="J16" s="3">
-        <v>8400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>44616</v>
+        <v>44622</v>
       </c>
       <c r="E17" s="2">
-        <v>44629</v>
+        <v>44634</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H17" s="5">
-        <v>0.3</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I17" s="3">
-        <v>807000</v>
+        <v>787000</v>
       </c>
       <c r="J17" s="3">
-        <v>262679</v>
+        <v>727188</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>44616</v>
+        <v>44622</v>
       </c>
       <c r="E18" s="2">
-        <v>44620</v>
+        <v>44635</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I18" s="3">
-        <v>691000</v>
+        <v>228000</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>44622</v>
+        <v>44609</v>
       </c>
       <c r="E19" s="2">
-        <v>44634</v>
+        <v>44614</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G19" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
-        <v>0.88888888888888884</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>787000</v>
+        <v>147000</v>
       </c>
       <c r="J19" s="3">
-        <v>727188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>44622</v>
+        <v>44611</v>
       </c>
       <c r="E20" s="2">
-        <v>44635</v>
+        <v>44621</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5">
-        <v>0.2</v>
+        <v>0.625</v>
       </c>
       <c r="I20" s="3">
-        <v>228000</v>
+        <v>338000</v>
       </c>
       <c r="J20" s="3">
-        <v>47880</v>
+        <v>205123</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="E21" s="2">
-        <v>44614</v>
+        <v>44629</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I21" s="3">
-        <v>147000</v>
+        <v>857000</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>305949</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>44611</v>
+        <v>44617</v>
       </c>
       <c r="E22" s="2">
-        <v>44621</v>
+        <v>44626</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="I22" s="3">
-        <v>338000</v>
+        <v>602000</v>
       </c>
       <c r="J22" s="3">
-        <v>205123</v>
+        <v>322371</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="E23" s="2">
-        <v>44629</v>
+        <v>44622</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I23" s="3">
-        <v>857000</v>
+        <v>990000</v>
       </c>
       <c r="J23" s="3">
-        <v>305949</v>
+        <v>451440</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2">
-        <v>44617</v>
+        <v>44609</v>
       </c>
       <c r="E24" s="2">
-        <v>44626</v>
+        <v>44615</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I24" s="3">
-        <v>602000</v>
+        <v>218000</v>
       </c>
       <c r="J24" s="3">
-        <v>322371</v>
+        <v>97337</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="E25" s="2">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5">
         <v>0.5</v>
       </c>
       <c r="I25" s="3">
-        <v>990000</v>
+        <v>416000</v>
       </c>
       <c r="J25" s="3">
-        <v>451440</v>
+        <v>175015</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2">
         <v>44609</v>
       </c>
       <c r="E26" s="2">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="3">
-        <v>218000</v>
+        <v>393000</v>
       </c>
       <c r="J26" s="3">
-        <v>97337</v>
+        <v>177440</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
-        <v>44616</v>
+        <v>44610</v>
       </c>
       <c r="E27" s="2">
         <v>44623</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I27" s="3">
-        <v>416000</v>
+        <v>86000</v>
       </c>
       <c r="J27" s="3">
-        <v>175015</v>
+        <v>31046</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2">
-        <v>44609</v>
+        <v>44613</v>
       </c>
       <c r="E28" s="2">
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28" s="3">
         <v>3</v>
       </c>
       <c r="H28" s="5">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I28" s="3">
-        <v>393000</v>
+        <v>732000</v>
       </c>
       <c r="J28" s="3">
-        <v>177440</v>
+        <v>261324</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="E29" s="2">
-        <v>44623</v>
+        <v>44614</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I29" s="3">
-        <v>86000</v>
+        <v>492000</v>
       </c>
       <c r="J29" s="3">
-        <v>31046</v>
+        <v>116850</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="E30" s="2">
-        <v>44623</v>
+        <v>44619</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G30" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>732000</v>
+        <v>188000</v>
       </c>
       <c r="J30" s="3">
-        <v>261324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="E31" s="2">
-        <v>44614</v>
+        <v>44620</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5">
-        <v>0.25</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I31" s="3">
-        <v>492000</v>
+        <v>180000</v>
       </c>
       <c r="J31" s="3">
-        <v>116850</v>
+        <v>79380</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="E32" s="2">
-        <v>44619</v>
+        <v>44622</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I32" s="3">
-        <v>188000</v>
+        <v>582000</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>195231</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="E33" s="2">
-        <v>44620</v>
+        <v>44628</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I33" s="3">
-        <v>180000</v>
+        <v>562000</v>
       </c>
       <c r="J33" s="3">
-        <v>79380</v>
+        <v>74746</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
-        <v>44616</v>
+        <v>44610</v>
       </c>
       <c r="E34" s="2">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H34" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
-        <v>582000</v>
+        <v>293000</v>
       </c>
       <c r="J34" s="3">
-        <v>195231</v>
+        <v>273001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2">
-        <v>44616</v>
+        <v>44609</v>
       </c>
       <c r="E35" s="2">
-        <v>44628</v>
+        <v>44613</v>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5">
         <v>1</v>
       </c>
-      <c r="H35" s="5">
-        <v>0.1111111111111111</v>
-      </c>
       <c r="I35" s="3">
-        <v>562000</v>
+        <v>68000</v>
       </c>
       <c r="J35" s="3">
-        <v>74746</v>
+        <v>64987</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="E36" s="2">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H36" s="5">
-        <v>1</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I36" s="3">
-        <v>293000</v>
+        <v>224000</v>
       </c>
       <c r="J36" s="3">
-        <v>273001</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="E37" s="2">
-        <v>44613</v>
+        <v>44621</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>68000</v>
+        <v>978000</v>
       </c>
       <c r="J37" s="3">
-        <v>64987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="E38" s="2">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="5">
-        <v>0.44444444444444442</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I38" s="3">
-        <v>224000</v>
+        <v>932000</v>
       </c>
       <c r="J38" s="3">
-        <v>57910</v>
+        <v>379157</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="E39" s="2">
-        <v>44621</v>
+        <v>44616</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I39" s="3">
-        <v>978000</v>
+        <v>854000</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
+        <v>322812</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>44612</v>
+        <v>44613</v>
       </c>
       <c r="E40" s="2">
         <v>44620</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="3">
         <v>3</v>
       </c>
       <c r="H40" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="I40" s="3">
-        <v>932000</v>
+        <v>81000</v>
       </c>
       <c r="J40" s="3">
-        <v>379157</v>
+        <v>38461</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="E41" s="2">
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H41" s="5">
-        <v>0.25</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I41" s="3">
-        <v>854000</v>
+        <v>169000</v>
       </c>
       <c r="J41" s="3">
-        <v>322812</v>
+        <v>136468</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>44613</v>
+        <v>44617</v>
       </c>
       <c r="E42" s="2">
-        <v>44620</v>
+        <v>44622</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G42" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I42" s="3">
-        <v>81000</v>
+        <v>61000</v>
       </c>
       <c r="J42" s="3">
-        <v>38461</v>
+        <v>12078</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="E43" s="2">
-        <v>44623</v>
+        <v>44627</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43" s="5">
-        <v>0.83333333333333337</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I43" s="3">
-        <v>169000</v>
+        <v>645000</v>
       </c>
       <c r="J43" s="3">
-        <v>136468</v>
+        <v>273048</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>44617</v>
+        <v>44609</v>
       </c>
       <c r="E44" s="2">
         <v>44622</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I44" s="3">
-        <v>61000</v>
+        <v>839000</v>
       </c>
       <c r="J44" s="3">
-        <v>12078</v>
+        <v>406974</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2">
+        <v>44613</v>
+      </c>
+      <c r="E45" s="2">
         <v>44619</v>
       </c>
-      <c r="E45" s="2">
-        <v>44627</v>
-      </c>
       <c r="F45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G45" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.8</v>
       </c>
       <c r="I45" s="3">
-        <v>645000</v>
+        <v>729000</v>
       </c>
       <c r="J45" s="3">
-        <v>273048</v>
+        <v>487139</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2">
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="E46" s="2">
-        <v>44622</v>
+        <v>44626</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G46" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" s="5">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="I46" s="3">
-        <v>839000</v>
+        <v>826000</v>
       </c>
       <c r="J46" s="3">
-        <v>406974</v>
+        <v>298186</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2">
-        <v>44613</v>
+        <v>44618</v>
       </c>
       <c r="E47" s="2">
-        <v>44619</v>
+        <v>44627</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G47" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" s="5">
-        <v>0.8</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I47" s="3">
-        <v>729000</v>
+        <v>895000</v>
       </c>
       <c r="J47" s="3">
-        <v>487139</v>
+        <v>280583</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2">
-        <v>44616</v>
+        <v>44620</v>
       </c>
       <c r="E48" s="2">
-        <v>44626</v>
+        <v>44622</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G48" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H48" s="5">
-        <v>0.42857142857142855</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I48" s="3">
-        <v>826000</v>
+        <v>341000</v>
       </c>
       <c r="J48" s="3">
-        <v>298186</v>
+        <v>129785</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2">
-        <v>44618</v>
-      </c>
-      <c r="E49" s="2">
-        <v>44627</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0.2857142857142857</v>
+      <c r="A49" t="s">
+        <v>33</v>
       </c>
       <c r="I49" s="3">
-        <v>895000</v>
+        <v>19695000</v>
       </c>
       <c r="J49" s="3">
-        <v>280583</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="2">
-        <v>44620</v>
-      </c>
-      <c r="E50" s="2">
-        <v>44622</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50" s="3">
-        <v>2</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I50" s="3">
-        <v>341000</v>
-      </c>
-      <c r="J50" s="3">
-        <v>129785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>33</v>
-      </c>
-      <c r="I51" s="3">
-        <v>19695000</v>
-      </c>
-      <c r="J51" s="3">
         <v>8340291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
   <extLst>
@@ -8314,15 +8281,15 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3">
-        <f>COUNTIF(Dashboard!H11:H55, "="&amp;0)</f>
+        <f>COUNTIF(Dashboard!H9:H53, "="&amp;0)</f>
         <v>4</v>
       </c>
       <c r="C3">
-        <f>COUNTIFS(Dashboard!H11:H55, "&lt;&gt;"&amp;0,Dashboard!H11:H55, "&lt;"&amp;1)</f>
+        <f>COUNTIFS(Dashboard!H9:H53, "&lt;&gt;"&amp;0,Dashboard!H9:H53, "&lt;"&amp;1)</f>
         <v>33</v>
       </c>
       <c r="D3">
-        <f>COUNTIF(Dashboard!H11:H55, "="&amp;1)</f>
+        <f>COUNTIF(Dashboard!H9:H53, "="&amp;1)</f>
         <v>3</v>
       </c>
       <c r="E3">
@@ -8333,10 +8300,10 @@
         <f>SUM(D3:E3)</f>
         <v>40</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>112</v>
       </c>
       <c r="L3" t="s">
@@ -8354,10 +8321,10 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>266</v>
       </c>
       <c r="L4" t="s">
@@ -8391,7 +8358,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D0E065-58D9-E848-9158-2C4F65B908B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E6141-9E82-B549-A3D3-A1EFAEA42BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0,,\M;\-0.0,,\M"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,7 +220,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Britannic Bold"/>
+    </font>
+    <font>
       <sz val="28"/>
+      <color theme="0"/>
+      <name val="Britannic Bold"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Britannic Bold"/>
     </font>
@@ -252,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -268,15 +278,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6992,7 +7005,7 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7000,15 +7013,20 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
     <col min="6" max="26" width="10.83203125" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="13"/>
+    <col min="28" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="E1" s="14" t="str">
+        <f>TEXT(MIN(D9:D50), "D-MMM-YY")&amp;" to "&amp;TEXT(MAX(D9:D50), "D-MMM-YY")</f>
+        <v>17-Feb-22 to 2-Mar-22</v>
+      </c>
+      <c r="F1" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -8337,10 +8355,10 @@
       <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>8340291</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>19695000</v>
       </c>
     </row>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E6141-9E82-B549-A3D3-A1EFAEA42BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A1E3B4-F0C8-5341-8F32-C74BA336F472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -296,7 +296,55 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="50">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
@@ -4728,6 +4776,10 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" horiz="1" max="100" page="10" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4969,7 +5021,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472350</xdr:colOff>
+      <xdr:colOff>408850</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -5038,6 +5090,56 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>558800</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>469900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Scroll Bar 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC936E6-DA33-8797-D295-236A88E6B8A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -6366,7 +6468,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="27">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6375,7 +6477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6384,7 +6486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="41">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6393,7 +6495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="40">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6466,25 +6568,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="168"/>
     <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="8">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6689,17 +6773,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="49"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="44">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="31">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="47">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7001,11 +7085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7013,7 +7097,8 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="26" width="10.83203125" customWidth="1"/>
     <col min="28" max="16384" width="10.83203125" style="12"/>
   </cols>
@@ -8249,10 +8334,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Scroll Bar 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>88900</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>558800</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>469900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A1E3B4-F0C8-5341-8F32-C74BA336F472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADC2B9-A577-B245-A73F-D801D7EA2EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="8500" yWindow="760" windowWidth="24040" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="47">
   <si>
     <t>Project</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Donut Chart</t>
+  </si>
+  <si>
+    <t>Scroll Bar</t>
   </si>
 </sst>
 </file>
@@ -4777,7 +4780,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" horiz="1" max="100" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="Workings!$U$4" horiz="1" max="30" page="7"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7088,8 +7091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8375,10 +8378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
-  <dimension ref="B2:R6"/>
+  <dimension ref="B2:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8391,7 +8394,7 @@
     <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -8411,7 +8414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3">
         <f>COUNTIF(Dashboard!H9:H53, "="&amp;0)</f>
         <v>4</v>
@@ -8451,8 +8454,11 @@
       <c r="R3" t="s">
         <v>31</v>
       </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="I4" s="9" t="s">
         <v>34</v>
       </c>
@@ -8475,8 +8481,11 @@
       <c r="R4" s="11">
         <v>19695000</v>
       </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="P5" t="s">
         <v>45</v>
       </c>
@@ -8489,7 +8498,7 @@
         <v>0.57652749428789041</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
     </row>
   </sheetData>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADC2B9-A577-B245-A73F-D801D7EA2EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B13FA7-2661-404D-A170-F38B12C51AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="760" windowWidth="24040" windowHeight="17420" activeTab="1" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -53,6 +53,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -203,8 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd\-mmm"/>
     <numFmt numFmtId="168" formatCode="0.0,,\M;\-0.0,,\M"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -265,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -294,132 +317,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -956,7 +865,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.36358785822021117"/>
+          <c:y val="0.37994205138110876"/>
           <c:w val="0.73805683450224535"/>
           <c:h val="0.21813228346456698"/>
         </c:manualLayout>
@@ -2013,7 +1922,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -2069,7 +1978,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -2128,7 +2037,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -2184,7 +2093,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -2287,7 +2196,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2404,7 +2313,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4780,23 +4689,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="Workings!$U$4" horiz="1" max="30" page="7"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="Workings!$U$4" horiz="1" max="30" page="7" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>194200</xdr:rowOff>
+      <xdr:rowOff>168800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4831,8 +4740,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>560400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4863,16 +4772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4901,16 +4810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6471,7 +6380,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="43">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6480,7 +6389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6489,7 +6398,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6498,7 +6407,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6571,43 +6480,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="168"/>
     <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="4">
     <chartFormat chart="3" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6776,17 +6649,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="44">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="4">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="7">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7091,8 +6964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7102,21 +6975,23 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="26" width="10.83203125" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="12"/>
+    <col min="6" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="27" width="7.83203125" customWidth="1"/>
+    <col min="28" max="30" width="7.83203125" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="14" t="str">
+      <c r="E1" s="16" t="str">
         <f>TEXT(MIN(D9:D50), "D-MMM-YY")&amp;" to "&amp;TEXT(MAX(D9:D50), "D-MMM-YY")</f>
         <v>17-Feb-22 to 2-Mar-22</v>
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -7147,8 +7022,54 @@
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="K8" s="17" cm="1">
+        <f t="array" ref="K8:Y8">_xlfn.SEQUENCE(1, 15, MIN(D9:D50)+Workings!U4,1)</f>
+        <v>44609</v>
+      </c>
+      <c r="L8" s="17">
+        <v>44610</v>
+      </c>
+      <c r="M8" s="17">
+        <v>44611</v>
+      </c>
+      <c r="N8" s="17">
+        <v>44612</v>
+      </c>
+      <c r="O8" s="17">
+        <v>44613</v>
+      </c>
+      <c r="P8" s="17">
+        <v>44614</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>44615</v>
+      </c>
+      <c r="R8" s="17">
+        <v>44616</v>
+      </c>
+      <c r="S8" s="17">
+        <v>44617</v>
+      </c>
+      <c r="T8" s="17">
+        <v>44618</v>
+      </c>
+      <c r="U8" s="17">
+        <v>44619</v>
+      </c>
+      <c r="V8" s="17">
+        <v>44620</v>
+      </c>
+      <c r="W8" s="17">
+        <v>44621</v>
+      </c>
+      <c r="X8" s="17">
+        <v>44622</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>44623</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -7180,7 +7101,7 @@
         <v>32256</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7209,7 +7130,7 @@
         <v>226233</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -7238,7 +7159,7 @@
         <v>401579</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -7267,7 +7188,7 @@
         <v>807069</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -7296,7 +7217,7 @@
         <v>173166</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -7325,7 +7246,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -7354,7 +7275,7 @@
         <v>262679</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -8380,7 +8301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
   <dimension ref="B2:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -8482,7 +8403,7 @@
         <v>19695000</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B13FA7-2661-404D-A170-F38B12C51AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71289FAB-7037-7643-9030-91609A91D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -6965,7 +6965,7 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8256,6 +8256,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H9:H50">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29E0FBCC-2B8A-7E47-B182-DD695C7DF8FE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8288,6 +8302,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29E0FBCC-2B8A-7E47-B182-DD695C7DF8FE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H9:H50</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
         <x14:slicer r:id="rId5"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71289FAB-7037-7643-9030-91609A91D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE99E805-693A-7545-AE8C-8842DF600099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -288,17 +288,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -320,15 +320,123 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -6379,8 +6487,8 @@
     <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="3"/>
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="3">
+  <formats count="13">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6389,7 +6497,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6398,7 +6506,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="29">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6407,10 +6515,44 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
             <x v="1"/>
           </reference>
         </references>
@@ -6649,17 +6791,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="37"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="32">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="35">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6965,7 +7107,7 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6981,7 +7123,7 @@
     <col min="31" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>30</v>
       </c>
@@ -6991,85 +7133,87 @@
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:27" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="17" cm="1">
+      <c r="K8" s="19" cm="1">
         <f t="array" ref="K8:Y8">_xlfn.SEQUENCE(1, 15, MIN(D9:D50)+Workings!U4,1)</f>
         <v>44609</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="19">
         <v>44610</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="19">
         <v>44611</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="19">
         <v>44612</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="19">
         <v>44613</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="19">
         <v>44614</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="19">
         <v>44615</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="19">
         <v>44616</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="19">
         <v>44617</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="19">
         <v>44618</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="19">
         <v>44619</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="19">
         <v>44620</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="19">
         <v>44621</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="19">
         <v>44622</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="19">
         <v>44623</v>
       </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -7091,7 +7235,7 @@
       <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>0.375</v>
       </c>
       <c r="I9" s="3">
@@ -7101,7 +7245,7 @@
         <v>32256</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -7120,7 +7264,7 @@
       <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>0.44444444444444442</v>
       </c>
       <c r="I10" s="3">
@@ -7130,7 +7274,7 @@
         <v>226233</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -7149,7 +7293,7 @@
       <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>0.6</v>
       </c>
       <c r="I11" s="3">
@@ -7159,7 +7303,7 @@
         <v>401579</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -7178,7 +7322,7 @@
       <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>1</v>
       </c>
       <c r="I12" s="3">
@@ -7188,7 +7332,7 @@
         <v>807069</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -7207,7 +7351,7 @@
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>0.42857142857142855</v>
       </c>
       <c r="I13" s="3">
@@ -7217,7 +7361,7 @@
         <v>173166</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -7236,7 +7380,7 @@
       <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>0.2</v>
       </c>
       <c r="I14" s="3">
@@ -7246,7 +7390,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -7265,7 +7409,7 @@
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>0.3</v>
       </c>
       <c r="I15" s="3">
@@ -7275,7 +7419,7 @@
         <v>262679</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -7294,7 +7438,7 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="3">
@@ -7326,7 +7470,7 @@
       <c r="G17" s="3">
         <v>8</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>0.88888888888888884</v>
       </c>
       <c r="I17" s="3">
@@ -7355,7 +7499,7 @@
       <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>0.2</v>
       </c>
       <c r="I18" s="3">
@@ -7384,7 +7528,7 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>0</v>
       </c>
       <c r="I19" s="3">
@@ -7413,7 +7557,7 @@
       <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>0.625</v>
       </c>
       <c r="I20" s="3">
@@ -7442,7 +7586,7 @@
       <c r="G21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>0.3</v>
       </c>
       <c r="I21" s="3">
@@ -7471,7 +7615,7 @@
       <c r="G22" s="3">
         <v>3</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>0.5</v>
       </c>
       <c r="I22" s="3">
@@ -7500,7 +7644,7 @@
       <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>0.5</v>
       </c>
       <c r="I23" s="3">
@@ -7532,7 +7676,7 @@
       <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>0.4</v>
       </c>
       <c r="I24" s="3">
@@ -7561,7 +7705,7 @@
       <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>0.5</v>
       </c>
       <c r="I25" s="3">
@@ -7590,7 +7734,7 @@
       <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <v>0.5</v>
       </c>
       <c r="I26" s="3">
@@ -7619,7 +7763,7 @@
       <c r="G27" s="3">
         <v>4</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>0.4</v>
       </c>
       <c r="I27" s="3">
@@ -7648,7 +7792,7 @@
       <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="I28" s="3">
@@ -7677,7 +7821,7 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>0.25</v>
       </c>
       <c r="I29" s="3">
@@ -7706,7 +7850,7 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
         <v>0</v>
       </c>
       <c r="I30" s="3">
@@ -7735,7 +7879,7 @@
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>0.42857142857142855</v>
       </c>
       <c r="I31" s="3">
@@ -7764,7 +7908,7 @@
       <c r="G32" s="3">
         <v>2</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="6">
         <v>0.4</v>
       </c>
       <c r="I32" s="3">
@@ -7793,7 +7937,7 @@
       <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="6">
         <v>0.1111111111111111</v>
       </c>
       <c r="I33" s="3">
@@ -7825,7 +7969,7 @@
       <c r="G34" s="3">
         <v>7</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="6">
         <v>1</v>
       </c>
       <c r="I34" s="3">
@@ -7854,7 +7998,7 @@
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>1</v>
       </c>
       <c r="I35" s="3">
@@ -7883,7 +8027,7 @@
       <c r="G36" s="3">
         <v>4</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="6">
         <v>0.44444444444444442</v>
       </c>
       <c r="I36" s="3">
@@ -7912,7 +8056,7 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <v>0</v>
       </c>
       <c r="I37" s="3">
@@ -7941,7 +8085,7 @@
       <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="6">
         <v>0.42857142857142855</v>
       </c>
       <c r="I38" s="3">
@@ -7970,7 +8114,7 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>0.25</v>
       </c>
       <c r="I39" s="3">
@@ -7999,7 +8143,7 @@
       <c r="G40" s="3">
         <v>3</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="6">
         <v>0.5</v>
       </c>
       <c r="I40" s="3">
@@ -8028,7 +8172,7 @@
       <c r="G41" s="3">
         <v>5</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="6">
         <v>0.83333333333333337</v>
       </c>
       <c r="I41" s="3">
@@ -8057,7 +8201,7 @@
       <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="6">
         <v>0.25</v>
       </c>
       <c r="I42" s="3">
@@ -8086,7 +8230,7 @@
       <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <v>0.42857142857142855</v>
       </c>
       <c r="I43" s="3">
@@ -8118,7 +8262,7 @@
       <c r="G44" s="3">
         <v>5</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="6">
         <v>0.5</v>
       </c>
       <c r="I44" s="3">
@@ -8147,7 +8291,7 @@
       <c r="G45" s="3">
         <v>4</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="6">
         <v>0.8</v>
       </c>
       <c r="I45" s="3">
@@ -8176,7 +8320,7 @@
       <c r="G46" s="3">
         <v>3</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="6">
         <v>0.42857142857142855</v>
       </c>
       <c r="I46" s="3">
@@ -8205,7 +8349,7 @@
       <c r="G47" s="3">
         <v>2</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="6">
         <v>0.2857142857142857</v>
       </c>
       <c r="I47" s="3">
@@ -8234,7 +8378,7 @@
       <c r="G48" s="3">
         <v>2</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="6">
         <v>0.66666666666666663</v>
       </c>
       <c r="I48" s="3">
@@ -8257,7 +8401,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H9:H50">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8268,6 +8412,11 @@
           <x14:id>{29E0FBCC-2B8A-7E47-B182-DD695C7DF8FE}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:Y8">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8360,7 +8509,7 @@
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE99E805-693A-7545-AE8C-8842DF600099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8667A529-BCA6-3240-9FD0-29EE9F932940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -338,7 +338,64 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -357,61 +414,21 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -6487,8 +6504,8 @@
     <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="3"/>
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
-  <formats count="13">
-    <format dxfId="31">
+  <formats count="31">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6497,7 +6514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6506,7 +6523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="30">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6515,7 +6532,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="29">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6524,31 +6541,99 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="28">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
     <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="17">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="16">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="15">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="13">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="12">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
     <format dxfId="2">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6791,17 +6876,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="38"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="32">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="33">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="35">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="36">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7107,7 +7192,8 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8415,7 +8501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8667A529-BCA6-3240-9FD0-29EE9F932940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D6F181-A87D-B84D-86C2-8123E133E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -338,7 +338,197 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -395,23 +585,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -6505,7 +6678,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="32">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6514,7 +6687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6523,7 +6696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="45">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6532,7 +6705,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="44">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6541,55 +6714,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="43">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="42">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="41">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="40">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="39">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="38">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="37">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="36">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="34">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="33">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="32">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="31">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="30">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="29">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="28">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="27">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6599,31 +6772,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="25">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="24">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="23">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="22">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="21">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="20">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="19">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="18">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6633,7 +6806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6876,17 +7049,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="53"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="33">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="48">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="36">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="51">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7191,9 +7364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8487,7 +8660,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H9:H50">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8501,8 +8674,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$K8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:Y50">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D6F181-A87D-B84D-86C2-8123E133E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1723612-9046-1442-958B-341D039710E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -338,10 +338,68 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="60">
     <dxf>
       <fill>
-        <patternFill patternType="mediumGray">
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -366,6 +424,30 @@
     <dxf>
       <fill>
         <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -6678,7 +6760,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="47">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6687,7 +6769,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6696,7 +6778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="51">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6705,7 +6787,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="50">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6714,55 +6796,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="49">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="48">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="47">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="46">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="45">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="44">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="43">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="42">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="40">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="39">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="38">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="37">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="36">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="35">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="34">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="33">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6772,31 +6854,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="31">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="30">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="29">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="28">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="27">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="26">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="25">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="24">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6806,7 +6888,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7049,17 +7131,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="59"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="48">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="54">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="51">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="57">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7366,7 +7448,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomLeft" activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8660,7 +8742,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H9:H50">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8674,13 +8756,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:Y50">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(K$8 &gt;= $D9, WORKDAY.INTL($D9, $G9, 7)-1 &gt;= K$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1723612-9046-1442-958B-341D039710E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD74F1E-4DB7-8C44-B77E-8F5C02E0D1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -338,11 +338,94 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
       <border>
@@ -384,6 +467,47 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
       <border>
@@ -6760,7 +6884,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="53">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6769,7 +6893,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6778,7 +6902,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="59">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6787,7 +6911,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="58">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6796,55 +6920,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="57">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="56">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="55">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="54">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="53">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="52">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="51">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
+    <format dxfId="50">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
     <format dxfId="42">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="41">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
     <format dxfId="40">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6854,31 +6978,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="38">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="37">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="36">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="35">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="34">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="33">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="32">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6888,7 +7012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7131,17 +7255,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="67"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="62">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="57">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="65">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7448,7 +7572,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y24" sqref="Y24"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8742,7 +8866,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H9:H50">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8756,16 +8880,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:Y50">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(K$8 &gt;= $D9, WORKDAY.INTL($D9, $G9, 7)-1 &gt;= K$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9 &lt;&gt; 1, K$8 &lt;= $E9)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD74F1E-4DB7-8C44-B77E-8F5C02E0D1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD28D7D8-1C1A-7045-B478-5AF11B940198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -338,7 +338,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="73">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -346,12 +346,8 @@
         </patternFill>
       </fill>
       <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -404,6 +400,48 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF8A84"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF8A84"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF8A84"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF8A84"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF8A84"/>
@@ -412,6 +450,46 @@
       <border>
         <left/>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -6884,7 +6962,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="61">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6893,7 +6971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6902,7 +6980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="64">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6911,7 +6989,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="63">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6920,55 +6998,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="62">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="61">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="60">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="59">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="58">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="57">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="56">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="55">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="53">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="52">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="51">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="50">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="49">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="48">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="47">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="46">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -6978,31 +7056,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="44">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="43">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="42">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="41">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="40">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="39">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="38">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="37">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7012,7 +7090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7255,17 +7333,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="72"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="62">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="67">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="65">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="70">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7572,7 +7650,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8866,7 +8944,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H9:H50">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8880,19 +8958,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:Y50">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(K$8 &gt;= $D9, WORKDAY.INTL($D9, $G9, 7)-1 &gt;= K$8)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9 &lt;&gt; 1, K$8 &lt;= $E9)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="4" priority="1">
-      <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9 &lt;&gt; 1, K$8 &lt;= $E9)</formula>
+      <formula>"and(k$8 &gt;= workday.intl($D9, $G9, 7), $H9=0, K$8 &lt;= $E9)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD28D7D8-1C1A-7045-B478-5AF11B940198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15FFC6-513F-6245-A187-B930491E0CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -338,7 +338,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="88">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF8A84"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF8A84"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF8A84"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF8A84"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -419,10 +437,22 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -436,6 +466,48 @@
         </top>
         <bottom style="thin">
           <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF8A84"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF8A84"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF8A84"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF8A84"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -459,6 +531,168 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF8A84"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF8A84"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF8A84"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF8A84"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6962,7 +7196,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="66">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6971,7 +7205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6980,7 +7214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="79">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6989,7 +7223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="78">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6998,55 +7232,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="77">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="76">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="75">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="74">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="73">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="72">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="71">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="70">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="68">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="67">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="66">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="65">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="64">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="63">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="62">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="61">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7056,31 +7290,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="59">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="58">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="57">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="56">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="55">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="54">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="53">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="52">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7090,7 +7324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7333,17 +7567,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="87"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="67">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="82">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="70">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="85">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7650,7 +7884,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8958,22 +9192,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:Y50">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND(K$8 &gt;= $D9, WORKDAY.INTL($D9, $G9, 7)-1 &gt;= K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9 &lt;&gt; 1, K$8 &lt;= $E9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>"and(k$8 &gt;= workday.intl($D9, $G9, 7), $H9=0, K$8 &lt;= $E9)"</formula>
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+      <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9=0, K$8 &lt;= $E9)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15FFC6-513F-6245-A187-B930491E0CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AC642-1CBF-C149-9EDC-5F7592EC39D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="12120" yWindow="760" windowWidth="18140" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -338,7 +338,283 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="106">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF8A84"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF8A84"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF8A84"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF8A84"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF8A84"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF8A84"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF8A84"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF8A84"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF8A84"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF8A84"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF8A84"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF8A84"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8A84"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -7196,7 +7472,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="81">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7205,7 +7481,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7214,7 +7490,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="97">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7223,10 +7499,68 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="96">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="95">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="94">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="93">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="92">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="91">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="85">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
             <x v="1"/>
           </reference>
         </references>
@@ -7256,31 +7590,7 @@
     <format dxfId="70">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="68">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="65">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="60">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7290,41 +7600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="50">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7567,17 +7843,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="105"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="82">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="100">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="85">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="103">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7882,9 +8158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9178,7 +9454,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H9:H50">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9192,22 +9468,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:Y50">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>AND(K$8 &gt;= $D9, WORKDAY.INTL($D9, $G9, 7)-1 &gt;= K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9 &lt;&gt; 1, K$8 &lt;= $E9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9=0, K$8 &lt;= $E9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$A9="Grand Total"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AC642-1CBF-C149-9EDC-5F7592EC39D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF275CD-3A1C-6A4D-9493-527C7D4A73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="760" windowWidth="18140" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -333,12 +330,199 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="168">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7472,7 +7656,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="99">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7481,7 +7665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7490,7 +7674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="159">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7499,7 +7683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="158">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7508,55 +7692,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="157">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="156">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="155">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="154">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="153">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="152">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="151">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="150">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="148">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="147">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="146">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="145">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="144">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="143">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="142">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="141">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7566,31 +7750,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="139">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="138">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="137">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="136">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="135">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="134">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="133">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="132">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7600,7 +7784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7843,17 +8027,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="167"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="100">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="162">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="103">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="166"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="165">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="164"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="163"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8158,8 +8342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
@@ -8186,81 +8370,81 @@
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="8" spans="1:27" s="20" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:27" s="19" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="19" cm="1">
+      <c r="K8" s="18" cm="1">
         <f t="array" ref="K8:Y8">_xlfn.SEQUENCE(1, 15, MIN(D9:D50)+Workings!U4,1)</f>
         <v>44609</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <v>44610</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <v>44611</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <v>44612</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="18">
         <v>44613</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <v>44614</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <v>44615</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="18">
         <v>44616</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="18">
         <v>44617</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <v>44618</v>
       </c>
-      <c r="U8" s="19">
+      <c r="U8" s="18">
         <v>44619</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="18">
         <v>44620</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="18">
         <v>44621</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="18">
         <v>44622</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Y8" s="18">
         <v>44623</v>
       </c>
       <c r="Z8" s="5"/>
@@ -9468,24 +9652,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="73" priority="6">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:Y50">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="2" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="71" priority="5">
       <formula>AND(K$8 &gt;= $D9, WORKDAY.INTL($D9, $G9, 7)-1 &gt;= K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9 &lt;&gt; 1, K$8 &lt;= $E9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
       <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9=0, K$8 &lt;= $E9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>$A9="Grand Total"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF275CD-3A1C-6A4D-9493-527C7D4A73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DFE96-F6A3-F34A-B9EC-D256F893F067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
@@ -6089,13 +6089,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8344,7 +8344,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R54" sqref="R54"/>
+      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DFE96-F6A3-F34A-B9EC-D256F893F067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7476E8D5-E0E3-EE4A-9E98-F63C30FC01C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -6019,7 +6019,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8344,7 +8344,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
+++ b/Excel Projects/Managing Multiple Project Progress/Multiple Project Progress Management.xlsx
@@ -8,31 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafsanalmamun/Downloads/Data-Analysis_Data-Science_Projects/Excel Projects/Managing Multiple Project Progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7476E8D5-E0E3-EE4A-9E98-F63C30FC01C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BDF96-CF0A-1E4F-93E5-8430EA4F27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{C2DE81AA-19AB-3641-B567-292C68886DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
     <sheet name="Workings" sheetId="4" r:id="rId2"/>
     <sheet name="Dataset" sheetId="1" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Slicer_Manager">#N/A</definedName>
     <definedName name="Slicer_Project">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
-        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -56,7 +53,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -227,8 +224,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="168" formatCode="0.0,,\M;\-0.0,,\M"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="166" formatCode="0.0,,\M;\-0.0,,\M"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -288,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -299,13 +296,11 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -323,31 +318,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="43">
     <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -401,219 +446,16 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
     </dxf>
     <dxf>
       <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF8A84"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF8A84"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF8A84"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF8A84"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -706,949 +548,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF8A84"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF8A84"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF8A84"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF8A84"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF8A84"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF8A84"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF8A84"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF8A84"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF8A84"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF8A84"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF8A84"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF8A84"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF8A84"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF8A84"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF8A84"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF8A84"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF8A84"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF8A84"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF8A84"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF8A84"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8A84"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3439,6 +2338,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-5C72-4D46-9888-220B9196E5EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3556,6 +2465,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF8A84"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5C72-4D46-9888-220B9196E5EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -5988,7 +4916,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071BC0FA-2194-A241-87B3-CB808DA9DF2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6026,7 +4954,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF96A42-B55E-8B4F-9311-0D6F80F42C7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +4992,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784C1953-06C7-404D-ADD1-10CBB543029B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6102,7 +5030,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EEADD4-20BF-DC41-9A30-F226C92EEBA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6135,14 +5063,14 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Project">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C593B1BF-D3B4-ED98-12DA-D07A1DCDC08C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6159,7 +5087,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6213,14 +5141,14 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Manager">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D25168-AF9F-78D9-BD0F-C1A005DD71A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6237,7 +5165,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6301,7 +5229,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC936E6-DA33-8797-D295-236A88E6B8A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6457,68 +5385,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Copyright"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Workings"/>
-      <sheetName val="Data"/>
-      <sheetName val="Instructions"/>
-      <sheetName val="More Resources"/>
-      <sheetName val="Dashboard Protection"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="E2" t="str">
-            <v>Not Started</v>
-          </cell>
-          <cell r="F2">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>In Progress</v>
-          </cell>
-          <cell r="F3">
-            <v>33</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>Days Completed</v>
-          </cell>
-          <cell r="M3">
-            <v>0.42105263157894735</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>Completed</v>
-          </cell>
-          <cell r="F4">
-            <v>3</v>
-          </cell>
-          <cell r="L4" t="str">
-            <v>Days Remaining</v>
-          </cell>
-          <cell r="M4">
-            <v>0.57894736842105265</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7141,7 +6007,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49A324D7-DAC3-AE4C-8B42-860D7EF2D1B0}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A8:J49" firstHeaderRow="0" firstDataRow="1" firstDataCol="8"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7656,7 +6522,7 @@
     <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="161">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7665,7 +6531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7674,7 +6540,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="159">
+    <format dxfId="34">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7683,7 +6549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="33">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7692,55 +6558,55 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="32">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="31">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="30">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="29">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="28">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="27">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="26">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="150">
+    <format dxfId="25">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="24">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="23">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="22">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="21">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="20">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="19">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="18">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="17">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7750,31 +6616,31 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="139">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="14">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="13">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="12">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="11">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="10">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="9">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="8">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7784,7 +6650,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -7808,108 +6674,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC0C1C-71D5-2447-BF2E-80B6A5A74F04}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="Q3:R4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="168"/>
-    <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="168"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BFD054C-FC60-7949-A08A-A713A0535ED3}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8BFD054C-FC60-7949-A08A-A713A0535ED3}" name="PivotTable3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0">
@@ -7959,6 +6724,107 @@
     <dataField name="Sum of Days completed" fld="6" baseField="0" baseItem="0"/>
     <dataField name="Sum of Duration" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73EC0C1C-71D5-2447-BF2E-80B6A5A74F04}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="Q3:R4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Actual " fld="9" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Budget " fld="8" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -8027,17 +6893,17 @@
     <tableColumn id="1" xr3:uid="{73B096BE-E208-2142-8042-C8FF7EBE9CB4}" name="Project"/>
     <tableColumn id="2" xr3:uid="{9FEE26CA-FD34-8940-B511-23005FD52FD9}" name="Task"/>
     <tableColumn id="3" xr3:uid="{13477DA8-3E2B-9140-828B-5E4EEC4B192E}" name="Manager"/>
-    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{6F6235F3-DCA0-BE4A-80AD-F124C1F29DF7}" name="Start Date" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{906D9425-A9AF-D946-BD7E-AABF37A5C06F}" name="Duration"/>
-    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="162">
+    <tableColumn id="9" xr3:uid="{49251E86-4677-9C41-8F83-14B60BE792A2}" name="End Date" dataDxfId="4">
       <calculatedColumnFormula>WORKDAY.INTL(Project_Data[[#This Row],[Start Date]]-1,Project_Data[[#This Row],[Duration]],7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="166"/>
-    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="165">
+    <tableColumn id="10" xr3:uid="{5410ED6D-ABC2-B749-B761-98A3ACF6E8B5}" name="Days completed" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1E1A1903-5E63-2C42-A785-7622E4CE1FFD}" name="Progress" dataDxfId="2">
       <calculatedColumnFormula>Project_Data[[#This Row],[Days completed]]/Project_Data[[#This Row],[Duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="164"/>
-    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="163"/>
+    <tableColumn id="7" xr3:uid="{5529251C-746B-0F49-8B21-221411C8E693}" name="Budget" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{2781FA1C-8107-3A45-8365-873CEB86F752}" name="Actual" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8340,14 +7206,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BA6329-E680-5548-BB82-D6FB67EB7003}">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -8355,96 +7221,103 @@
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="27" width="7.83203125" customWidth="1"/>
-    <col min="28" max="30" width="7.83203125" style="12" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="12"/>
+    <col min="11" max="26" width="7.83203125" customWidth="1"/>
+    <col min="27" max="27" width="7.83203125" hidden="1"/>
+    <col min="28" max="30" width="7.83203125" style="10" hidden="1"/>
+    <col min="31" max="16384" width="10.83203125" style="10" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:27" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="16" t="str">
+      <c r="E1" s="14" t="str">
         <f>TEXT(MIN(D9:D50), "D-MMM-YY")&amp;" to "&amp;TEXT(MAX(D9:D50), "D-MMM-YY")</f>
         <v>17-Feb-22 to 2-Mar-22</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="12"/>
     </row>
-    <row r="8" spans="1:27" s="19" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:27" s="17" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="18" cm="1">
+      <c r="K8" s="16" cm="1">
         <f t="array" ref="K8:Y8">_xlfn.SEQUENCE(1, 15, MIN(D9:D50)+Workings!U4,1)</f>
         <v>44609</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="16">
         <v>44610</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="16">
         <v>44611</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="16">
         <v>44612</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="16">
         <v>44613</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="16">
         <v>44614</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="16">
         <v>44615</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="16">
         <v>44616</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="16">
         <v>44617</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="16">
         <v>44618</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="16">
         <v>44619</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="16">
         <v>44620</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="16">
         <v>44621</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="16">
         <v>44622</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="16">
         <v>44623</v>
       </c>
       <c r="Z8" s="5"/>
@@ -9636,6 +8509,17 @@
         <v>8340291</v>
       </c>
     </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="H9:H50">
     <cfRule type="dataBar" priority="7">
@@ -9652,24 +8536,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:Y8">
-    <cfRule type="expression" dxfId="73" priority="6">
+    <cfRule type="expression" dxfId="42" priority="6">
       <formula>$K8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:Y50">
-    <cfRule type="expression" dxfId="72" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
       <formula>AND(WEEKDAY(K$8,17)&gt;5, $B9&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="5">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>AND(K$8 &gt;= $D9, WORKDAY.INTL($D9, $G9, 7)-1 &gt;= K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="4">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9 &lt;&gt; 1, K$8 &lt;= $E9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
       <formula>AND(K$8 &gt;= WORKDAY.INTL($D9, $G9, 7), $H9=0, K$8 &lt;= $E9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>$A9="Grand Total"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9731,7 +8615,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F58449-19E8-9241-BC9F-FCB0CCBB3CD8}">
-  <dimension ref="B2:U6"/>
+  <dimension ref="B2:U5"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
@@ -9788,10 +8672,10 @@
         <f>SUM(D3:E3)</f>
         <v>40</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3">
         <v>112</v>
       </c>
       <c r="L3" t="s">
@@ -9812,10 +8696,10 @@
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4">
         <v>266</v>
       </c>
       <c r="L4" t="s">
@@ -9828,10 +8712,10 @@
       <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="9">
         <v>8340291</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>19695000</v>
       </c>
       <c r="U4">
@@ -9850,9 +8734,6 @@
         <f>1-Q5</f>
         <v>0.57652749428789041</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
